--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AY47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3018,6 +3018,2966 @@
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111985429</v>
+      </c>
+      <c r="B22" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>561821.7229337355</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7307242.711117714</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111959830</v>
+      </c>
+      <c r="B23" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>561915.494732538</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7307340.098521601</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111959810</v>
+      </c>
+      <c r="B24" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>561893.9245207607</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7307219.714951258</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111985425</v>
+      </c>
+      <c r="B25" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>561986.2927539641</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7307362.912851273</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111959823</v>
+      </c>
+      <c r="B26" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>562015.4100685909</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7307418.384256175</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111959827</v>
+      </c>
+      <c r="B27" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>561870.4005339409</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7307208.564956765</v>
+      </c>
+      <c r="S27" t="n">
+        <v>15</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111985426</v>
+      </c>
+      <c r="B28" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>562016.495064693</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7307406.130124222</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111959825</v>
+      </c>
+      <c r="B29" t="n">
+        <v>89747</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2063</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Grantickeporing</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Skeletocutis chrysella</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>561809.3860941484</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7307206.837266683</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111985427</v>
+      </c>
+      <c r="B30" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>562013.8588788129</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7307395.432326685</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111959833</v>
+      </c>
+      <c r="B31" t="n">
+        <v>81248</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>562008.043958648</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7307380.163763028</v>
+      </c>
+      <c r="S31" t="n">
+        <v>15</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>111959809</v>
+      </c>
+      <c r="B32" t="n">
+        <v>73696</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>561926.5963924478</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7307338.29241254</v>
+      </c>
+      <c r="S32" t="n">
+        <v>15</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>111959826</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89747</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2063</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Grantickeporing</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Skeletocutis chrysella</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>561996.1853811271</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7307379.088311991</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>111959819</v>
+      </c>
+      <c r="B34" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>658</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>561894.5894852884</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7307264.749940732</v>
+      </c>
+      <c r="S34" t="n">
+        <v>15</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111985424</v>
+      </c>
+      <c r="B35" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>561894.5894852884</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7307264.749940732</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111959834</v>
+      </c>
+      <c r="B36" t="n">
+        <v>81248</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>562008.8630139148</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7307380.181510794</v>
+      </c>
+      <c r="S36" t="n">
+        <v>15</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>111959821</v>
+      </c>
+      <c r="B37" t="n">
+        <v>77597</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>864</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Knottrig blåslav</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hypogymnia bitteri</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>561961.5682746068</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7307350.508798505</v>
+      </c>
+      <c r="S37" t="n">
+        <v>15</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>111959811</v>
+      </c>
+      <c r="B38" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>561895.9205330141</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7307297.929816466</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>111959832</v>
+      </c>
+      <c r="B39" t="n">
+        <v>81248</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>561915.5212843259</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7307338.871302457</v>
+      </c>
+      <c r="S39" t="n">
+        <v>15</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>111959824</v>
+      </c>
+      <c r="B40" t="n">
+        <v>89419</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>561944.3590813032</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7307350.545501226</v>
+      </c>
+      <c r="S40" t="n">
+        <v>15</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>111959829</v>
+      </c>
+      <c r="B41" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>561893.9245207607</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7307219.714951258</v>
+      </c>
+      <c r="S41" t="n">
+        <v>15</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111959818</v>
+      </c>
+      <c r="B42" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>561893.9245207607</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7307219.714951258</v>
+      </c>
+      <c r="S42" t="n">
+        <v>15</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>111959828</v>
+      </c>
+      <c r="B43" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>561996.2119675929</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7307377.861109382</v>
+      </c>
+      <c r="S43" t="n">
+        <v>15</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>111959820</v>
+      </c>
+      <c r="B44" t="n">
+        <v>77597</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>864</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Knottrig blåslav</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hypogymnia bitteri</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>561893.9245207607</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7307219.714951258</v>
+      </c>
+      <c r="S44" t="n">
+        <v>15</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>111985428</v>
+      </c>
+      <c r="B45" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>561915.5212843259</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7307338.871302457</v>
+      </c>
+      <c r="S45" t="n">
+        <v>15</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>111959831</v>
+      </c>
+      <c r="B46" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>562008.8630139148</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7307380.181510794</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>111959822</v>
+      </c>
+      <c r="B47" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>561870.4005339409</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7307208.564956765</v>
+      </c>
+      <c r="S47" t="n">
+        <v>15</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -3708,7 +3708,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111985426</v>
+        <v>111985427</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3746,7 +3746,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3756,10 +3756,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562016.495064693</v>
+        <v>562013.8588788129</v>
       </c>
       <c r="R28" t="n">
-        <v>7307406.130124222</v>
+        <v>7307395.432326685</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111959825</v>
+        <v>111959833</v>
       </c>
       <c r="B29" t="n">
-        <v>89747</v>
+        <v>81248</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3840,25 +3840,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2063</v>
+        <v>1312</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>561809.3860941484</v>
+        <v>562008.043958648</v>
       </c>
       <c r="R29" t="n">
-        <v>7307206.837266683</v>
+        <v>7307380.163763028</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111985427</v>
+        <v>111985426</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -3978,7 +3978,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -3988,10 +3988,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562013.8588788129</v>
+        <v>562016.495064693</v>
       </c>
       <c r="R30" t="n">
-        <v>7307395.432326685</v>
+        <v>7307406.130124222</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111959833</v>
+        <v>111959825</v>
       </c>
       <c r="B31" t="n">
-        <v>81248</v>
+        <v>89747</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4072,25 +4072,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1312</v>
+        <v>2063</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562008.043958648</v>
+        <v>561809.3860941484</v>
       </c>
       <c r="R31" t="n">
-        <v>7307380.163763028</v>
+        <v>7307206.837266683</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -5188,10 +5188,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111959829</v>
+        <v>111959828</v>
       </c>
       <c r="B41" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5204,21 +5204,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>561893.9245207607</v>
+        <v>561996.2119675929</v>
       </c>
       <c r="R41" t="n">
-        <v>7307219.714951258</v>
+        <v>7307377.861109382</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5300,10 +5300,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111959818</v>
+        <v>111959829</v>
       </c>
       <c r="B42" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5316,21 +5316,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5412,10 +5412,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111959828</v>
+        <v>111959818</v>
       </c>
       <c r="B43" t="n">
-        <v>89423</v>
+        <v>89686</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5428,21 +5428,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5452,10 +5452,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>561996.2119675929</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R43" t="n">
-        <v>7307377.861109382</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY47"/>
+  <dimension ref="A1:AY85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111985429</v>
+        <v>111985428</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3058,7 +3058,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>561821.7229337355</v>
+        <v>561915.5212843259</v>
       </c>
       <c r="R22" t="n">
-        <v>7307242.711117714</v>
+        <v>7307338.871302457</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111959830</v>
+        <v>111959810</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3156,21 +3156,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3180,10 +3180,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>561915.494732538</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R23" t="n">
-        <v>7307340.098521601</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111959810</v>
+        <v>111959818</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3268,21 +3268,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111959823</v>
+        <v>111959809</v>
       </c>
       <c r="B26" t="n">
-        <v>89401</v>
+        <v>73696</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3500,21 +3500,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3524,10 +3524,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562015.4100685909</v>
+        <v>561926.5963924478</v>
       </c>
       <c r="R26" t="n">
-        <v>7307418.384256175</v>
+        <v>7307338.29241254</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3596,10 +3596,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111959827</v>
+        <v>111985427</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3612,34 +3612,42 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>561870.4005339409</v>
+        <v>562013.8588788129</v>
       </c>
       <c r="R27" t="n">
-        <v>7307208.564956765</v>
+        <v>7307395.432326685</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3708,10 +3716,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111985427</v>
+        <v>111959824</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3724,42 +3732,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562013.8588788129</v>
+        <v>561944.3590813032</v>
       </c>
       <c r="R28" t="n">
-        <v>7307395.432326685</v>
+        <v>7307350.545501226</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111959833</v>
+        <v>111959820</v>
       </c>
       <c r="B29" t="n">
-        <v>81248</v>
+        <v>77597</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3844,21 +3844,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>864</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562008.043958648</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R29" t="n">
-        <v>7307380.163763028</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111985426</v>
+        <v>111959829</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3956,42 +3956,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562016.495064693</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R30" t="n">
-        <v>7307406.130124222</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4060,10 +4052,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111959825</v>
+        <v>111959834</v>
       </c>
       <c r="B31" t="n">
-        <v>89747</v>
+        <v>81248</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4072,25 +4064,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2063</v>
+        <v>1312</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4100,10 +4092,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561809.3860941484</v>
+        <v>562008.8630139148</v>
       </c>
       <c r="R31" t="n">
-        <v>7307206.837266683</v>
+        <v>7307380.181510794</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4172,10 +4164,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111959809</v>
+        <v>111959811</v>
       </c>
       <c r="B32" t="n">
-        <v>73696</v>
+        <v>89405</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4188,21 +4180,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4212,10 +4204,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561926.5963924478</v>
+        <v>561895.9205330141</v>
       </c>
       <c r="R32" t="n">
-        <v>7307338.29241254</v>
+        <v>7307297.929816466</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4284,7 +4276,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111959826</v>
+        <v>111959825</v>
       </c>
       <c r="B33" t="n">
         <v>89747</v>
@@ -4324,10 +4316,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561996.1853811271</v>
+        <v>561809.3860941484</v>
       </c>
       <c r="R33" t="n">
-        <v>7307379.088311991</v>
+        <v>7307206.837266683</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4396,10 +4388,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111959819</v>
+        <v>111959827</v>
       </c>
       <c r="B34" t="n">
-        <v>89686</v>
+        <v>89423</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4412,21 +4404,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4436,10 +4428,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561894.5894852884</v>
+        <v>561870.4005339409</v>
       </c>
       <c r="R34" t="n">
-        <v>7307264.749940732</v>
+        <v>7307208.564956765</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4508,10 +4500,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111985424</v>
+        <v>111959826</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4520,46 +4512,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561894.5894852884</v>
+        <v>561996.1853811271</v>
       </c>
       <c r="R35" t="n">
-        <v>7307264.749940732</v>
+        <v>7307379.088311991</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4628,10 +4612,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111959834</v>
+        <v>111959819</v>
       </c>
       <c r="B36" t="n">
-        <v>81248</v>
+        <v>89686</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4644,21 +4628,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4668,10 +4652,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>562008.8630139148</v>
+        <v>561894.5894852884</v>
       </c>
       <c r="R36" t="n">
-        <v>7307380.181510794</v>
+        <v>7307264.749940732</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4740,10 +4724,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111959821</v>
+        <v>111959828</v>
       </c>
       <c r="B37" t="n">
-        <v>77597</v>
+        <v>89423</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4756,21 +4740,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4780,10 +4764,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>561961.5682746068</v>
+        <v>561996.2119675929</v>
       </c>
       <c r="R37" t="n">
-        <v>7307350.508798505</v>
+        <v>7307377.861109382</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4852,10 +4836,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111959811</v>
+        <v>111985429</v>
       </c>
       <c r="B38" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4868,34 +4852,42 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>561895.9205330141</v>
+        <v>561821.7229337355</v>
       </c>
       <c r="R38" t="n">
-        <v>7307297.929816466</v>
+        <v>7307242.711117714</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4964,10 +4956,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111959832</v>
+        <v>111959830</v>
       </c>
       <c r="B39" t="n">
-        <v>81248</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4980,21 +4972,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5004,10 +4996,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>561915.5212843259</v>
+        <v>561915.494732538</v>
       </c>
       <c r="R39" t="n">
-        <v>7307338.871302457</v>
+        <v>7307340.098521601</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -5076,10 +5068,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111959824</v>
+        <v>111985426</v>
       </c>
       <c r="B40" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5092,34 +5084,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>561944.3590813032</v>
+        <v>562016.495064693</v>
       </c>
       <c r="R40" t="n">
-        <v>7307350.545501226</v>
+        <v>7307406.130124222</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5188,10 +5188,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111959828</v>
+        <v>111985424</v>
       </c>
       <c r="B41" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5204,34 +5204,42 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>561996.2119675929</v>
+        <v>561894.5894852884</v>
       </c>
       <c r="R41" t="n">
-        <v>7307377.861109382</v>
+        <v>7307264.749940732</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5300,10 +5308,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111959829</v>
+        <v>111959823</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5316,21 +5324,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5340,10 +5348,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>561893.9245207607</v>
+        <v>562015.4100685909</v>
       </c>
       <c r="R42" t="n">
-        <v>7307219.714951258</v>
+        <v>7307418.384256175</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5412,10 +5420,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111959818</v>
+        <v>111959821</v>
       </c>
       <c r="B43" t="n">
-        <v>89686</v>
+        <v>77597</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5428,21 +5436,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>658</v>
+        <v>864</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5452,10 +5460,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>561893.9245207607</v>
+        <v>561961.5682746068</v>
       </c>
       <c r="R43" t="n">
-        <v>7307219.714951258</v>
+        <v>7307350.508798505</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5524,10 +5532,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111959820</v>
+        <v>111959833</v>
       </c>
       <c r="B44" t="n">
-        <v>77597</v>
+        <v>81248</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5540,21 +5548,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5564,10 +5572,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>561893.9245207607</v>
+        <v>562008.043958648</v>
       </c>
       <c r="R44" t="n">
-        <v>7307219.714951258</v>
+        <v>7307380.163763028</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5636,10 +5644,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111985428</v>
+        <v>111959832</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5652,32 +5660,24 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
@@ -5978,6 +5978,4487 @@
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112036938</v>
+      </c>
+      <c r="B48" t="n">
+        <v>89419</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>561846.4224085368</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7307256.341643833</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112037788</v>
+      </c>
+      <c r="B49" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>562039.0131688161</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7307444.678754784</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>112037000</v>
+      </c>
+      <c r="B50" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>561919.0664192269</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7307212.891730816</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>112037714</v>
+      </c>
+      <c r="B51" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>562073.5976993492</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7307418.008835915</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Drapperat</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>112037150</v>
+      </c>
+      <c r="B52" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>561921.6442163675</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7307320.996082182</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112037108</v>
+      </c>
+      <c r="B53" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>658</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>561975.5463062958</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7307272.641123712</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112037792</v>
+      </c>
+      <c r="B54" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>562039.0131688161</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7307444.678754784</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112037877</v>
+      </c>
+      <c r="B55" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>562085.128995252</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7307453.045411141</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112037496</v>
+      </c>
+      <c r="B56" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>562072.3547891638</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7307343.087340415</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112036909</v>
+      </c>
+      <c r="B57" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>658</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>561846.4224085368</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7307256.341643833</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>112036987</v>
+      </c>
+      <c r="B58" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>561902.5679974818</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7307274.745094148</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>112037796</v>
+      </c>
+      <c r="B59" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>562039.0131688161</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7307444.678754784</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>112037927</v>
+      </c>
+      <c r="B60" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>562084.6675010478</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7307474.316293915</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>112037006</v>
+      </c>
+      <c r="B61" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>658</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>561919.0664192269</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7307212.891730816</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>112037372</v>
+      </c>
+      <c r="B62" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>561994.1200184894</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7307379.862086881</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>112037509</v>
+      </c>
+      <c r="B63" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>562072.3547891638</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7307343.087340415</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Riktigt</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>112037679</v>
+      </c>
+      <c r="B64" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>562115.5287905507</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7307411.552107612</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>112037825</v>
+      </c>
+      <c r="B65" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>562126.1340000186</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7307451.479852177</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>112037088</v>
+      </c>
+      <c r="B66" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>658</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>561968.3871263692</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7307262.663489194</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>112037401</v>
+      </c>
+      <c r="B67" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>561987.7112743729</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7307392.001010323</v>
+      </c>
+      <c r="S67" t="n">
+        <v>10</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>112037760</v>
+      </c>
+      <c r="B68" t="n">
+        <v>89747</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2063</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Grantickeporing</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Skeletocutis chrysella</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>562042.5094799057</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7307415.697631201</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>112036981</v>
+      </c>
+      <c r="B69" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>561902.5679974818</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7307274.745094148</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>112037519</v>
+      </c>
+      <c r="B70" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>562059.0915112555</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7307368.992526292</v>
+      </c>
+      <c r="S70" t="n">
+        <v>10</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>112037364</v>
+      </c>
+      <c r="B71" t="n">
+        <v>89747</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2063</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Grantickeporing</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Skeletocutis chrysella</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>561994.1200184894</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7307379.862086881</v>
+      </c>
+      <c r="S71" t="n">
+        <v>10</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>112037492</v>
+      </c>
+      <c r="B72" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>658</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>562072.3547891638</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7307343.087340415</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>112036871</v>
+      </c>
+      <c r="B73" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>561834.0063889065</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7307224.149654636</v>
+      </c>
+      <c r="S73" t="n">
+        <v>10</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Drapperad gran</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>112037188</v>
+      </c>
+      <c r="B74" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>561921.6442163675</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7307320.996082182</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>112037072</v>
+      </c>
+      <c r="B75" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>561980.8929629655</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7307233.875576395</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>112037094</v>
+      </c>
+      <c r="B76" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>561968.3871263692</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7307262.663489194</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>112037831</v>
+      </c>
+      <c r="B77" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>562126.1340000186</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7307451.479852177</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>112037501</v>
+      </c>
+      <c r="B78" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>562072.3547891638</v>
+      </c>
+      <c r="R78" t="n">
+        <v>7307343.087340415</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>112037773</v>
+      </c>
+      <c r="B79" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>562042.5094799057</v>
+      </c>
+      <c r="R79" t="n">
+        <v>7307415.697631201</v>
+      </c>
+      <c r="S79" t="n">
+        <v>10</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>112037867</v>
+      </c>
+      <c r="B80" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>562085.128995252</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7307453.045411141</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>112037172</v>
+      </c>
+      <c r="B81" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>561921.6442163675</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7307320.996082182</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>112036972</v>
+      </c>
+      <c r="B82" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>561902.5679974818</v>
+      </c>
+      <c r="R82" t="n">
+        <v>7307274.745094148</v>
+      </c>
+      <c r="S82" t="n">
+        <v>10</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>112037653</v>
+      </c>
+      <c r="B83" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>562092.0326057856</v>
+      </c>
+      <c r="R83" t="n">
+        <v>7307380.347859782</v>
+      </c>
+      <c r="S83" t="n">
+        <v>10</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>112037585</v>
+      </c>
+      <c r="B84" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>562059.0915112555</v>
+      </c>
+      <c r="R84" t="n">
+        <v>7307368.992526292</v>
+      </c>
+      <c r="S84" t="n">
+        <v>10</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>112036996</v>
+      </c>
+      <c r="B85" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>561919.0664192269</v>
+      </c>
+      <c r="R85" t="n">
+        <v>7307212.891730816</v>
+      </c>
+      <c r="S85" t="n">
+        <v>10</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY85"/>
+  <dimension ref="A1:AY112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8087,10 +8087,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112037088</v>
+        <v>112037401</v>
       </c>
       <c r="B66" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8103,26 +8103,31 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8130,10 +8135,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>561968.3871263692</v>
+        <v>561987.7112743729</v>
       </c>
       <c r="R66" t="n">
-        <v>7307262.663489194</v>
+        <v>7307392.001010323</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8178,13 +8183,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -8203,10 +8212,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112037401</v>
+        <v>112037760</v>
       </c>
       <c r="B67" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8215,35 +8224,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8251,10 +8255,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>561987.7112743729</v>
+        <v>562042.5094799057</v>
       </c>
       <c r="R67" t="n">
-        <v>7307392.001010323</v>
+        <v>7307415.697631201</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8299,17 +8303,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -8328,10 +8328,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112037760</v>
+        <v>112037088</v>
       </c>
       <c r="B68" t="n">
-        <v>89747</v>
+        <v>89686</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8340,25 +8340,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2063</v>
+        <v>658</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>562042.5094799057</v>
+        <v>561968.3871263692</v>
       </c>
       <c r="R68" t="n">
-        <v>7307415.697631201</v>
+        <v>7307262.663489194</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8444,10 +8444,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112036981</v>
+        <v>112037519</v>
       </c>
       <c r="B69" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8460,21 +8460,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8487,10 +8487,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>561902.5679974818</v>
+        <v>562059.0915112555</v>
       </c>
       <c r="R69" t="n">
-        <v>7307274.745094148</v>
+        <v>7307368.992526292</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8560,10 +8560,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112037519</v>
+        <v>112036981</v>
       </c>
       <c r="B70" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8576,21 +8576,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8603,10 +8603,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>562059.0915112555</v>
+        <v>561902.5679974818</v>
       </c>
       <c r="R70" t="n">
-        <v>7307368.992526292</v>
+        <v>7307274.745094148</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8676,10 +8676,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112037364</v>
+        <v>112036871</v>
       </c>
       <c r="B71" t="n">
-        <v>89747</v>
+        <v>77515</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8688,30 +8688,34 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2063</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -8719,10 +8723,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>561994.1200184894</v>
+        <v>561834.0063889065</v>
       </c>
       <c r="R71" t="n">
-        <v>7307379.862086881</v>
+        <v>7307224.149654636</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8765,6 +8769,11 @@
       <c r="AB71" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8792,10 +8801,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112037492</v>
+        <v>112037364</v>
       </c>
       <c r="B72" t="n">
-        <v>89686</v>
+        <v>89747</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8804,25 +8813,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>658</v>
+        <v>2063</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8835,10 +8844,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562072.3547891638</v>
+        <v>561994.1200184894</v>
       </c>
       <c r="R72" t="n">
-        <v>7307343.087340415</v>
+        <v>7307379.862086881</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8908,10 +8917,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112036871</v>
+        <v>112037492</v>
       </c>
       <c r="B73" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8924,30 +8933,26 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -8955,10 +8960,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>561834.0063889065</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R73" t="n">
-        <v>7307224.149654636</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9001,11 +9006,6 @@
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -10459,6 +10459,3055 @@
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>112045901</v>
+      </c>
+      <c r="B86" t="n">
+        <v>89419</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>562030.260907584</v>
+      </c>
+      <c r="R86" t="n">
+        <v>7307432.620735778</v>
+      </c>
+      <c r="S86" t="n">
+        <v>25</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>112045887</v>
+      </c>
+      <c r="B87" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>561864.4451530995</v>
+      </c>
+      <c r="R87" t="n">
+        <v>7307275.557820893</v>
+      </c>
+      <c r="S87" t="n">
+        <v>25</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>112045897</v>
+      </c>
+      <c r="B88" t="n">
+        <v>73696</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>561955.381015217</v>
+      </c>
+      <c r="R88" t="n">
+        <v>7307352.421154647</v>
+      </c>
+      <c r="S88" t="n">
+        <v>25</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>112045891</v>
+      </c>
+      <c r="B89" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>658</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>561885.8085055663</v>
+      </c>
+      <c r="R89" t="n">
+        <v>7307310.807745616</v>
+      </c>
+      <c r="S89" t="n">
+        <v>25</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>11:27</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>11:27</t>
+        </is>
+      </c>
+      <c r="AD89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>112045900</v>
+      </c>
+      <c r="B90" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>562022.4606045906</v>
+      </c>
+      <c r="R90" t="n">
+        <v>7307414.444516678</v>
+      </c>
+      <c r="S90" t="n">
+        <v>25</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="AD90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>112045895</v>
+      </c>
+      <c r="B91" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>561962.2810507246</v>
+      </c>
+      <c r="R91" t="n">
+        <v>7307355.435386755</v>
+      </c>
+      <c r="S91" t="n">
+        <v>25</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="AD91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>112045884</v>
+      </c>
+      <c r="B92" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>561944.0247344724</v>
+      </c>
+      <c r="R92" t="n">
+        <v>7307233.486615712</v>
+      </c>
+      <c r="S92" t="n">
+        <v>25</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>112045882</v>
+      </c>
+      <c r="B93" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>658</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>561971.3622907655</v>
+      </c>
+      <c r="R93" t="n">
+        <v>7307276.643258946</v>
+      </c>
+      <c r="S93" t="n">
+        <v>25</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AD93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT93" t="inlineStr"/>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>112045877</v>
+      </c>
+      <c r="B94" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>561966.4920707772</v>
+      </c>
+      <c r="R94" t="n">
+        <v>7307274.491430026</v>
+      </c>
+      <c r="S94" t="n">
+        <v>25</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+      <c r="AD94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>112045903</v>
+      </c>
+      <c r="B95" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>562026.80906996</v>
+      </c>
+      <c r="R95" t="n">
+        <v>7307459.556420421</v>
+      </c>
+      <c r="S95" t="n">
+        <v>25</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>09:26</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>09:26</t>
+        </is>
+      </c>
+      <c r="AD95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT95" t="inlineStr"/>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX95" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>112045886</v>
+      </c>
+      <c r="B96" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>561825.7477039014</v>
+      </c>
+      <c r="R96" t="n">
+        <v>7307246.072283784</v>
+      </c>
+      <c r="S96" t="n">
+        <v>25</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="AD96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT96" t="inlineStr"/>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX96" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>112045890</v>
+      </c>
+      <c r="B97" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>561896.3098358642</v>
+      </c>
+      <c r="R97" t="n">
+        <v>7307279.930285611</v>
+      </c>
+      <c r="S97" t="n">
+        <v>25</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="AD97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX97" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>112045889</v>
+      </c>
+      <c r="B98" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>561897.2641743869</v>
+      </c>
+      <c r="R98" t="n">
+        <v>7307292.638358502</v>
+      </c>
+      <c r="S98" t="n">
+        <v>25</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+      <c r="AD98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT98" t="inlineStr"/>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>112045898</v>
+      </c>
+      <c r="B99" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>561991.8951490093</v>
+      </c>
+      <c r="R99" t="n">
+        <v>7307387.999063636</v>
+      </c>
+      <c r="S99" t="n">
+        <v>25</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>10:12</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>10:12</t>
+        </is>
+      </c>
+      <c r="AD99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT99" t="inlineStr"/>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>112045899</v>
+      </c>
+      <c r="B100" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>562021.8632048024</v>
+      </c>
+      <c r="R100" t="n">
+        <v>7307404.200186137</v>
+      </c>
+      <c r="S100" t="n">
+        <v>25</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>09:53</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>09:53</t>
+        </is>
+      </c>
+      <c r="AD100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT100" t="inlineStr"/>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX100" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>112045888</v>
+      </c>
+      <c r="B101" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>561908.2775088041</v>
+      </c>
+      <c r="R101" t="n">
+        <v>7307294.922941325</v>
+      </c>
+      <c r="S101" t="n">
+        <v>25</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="AD101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT101" t="inlineStr"/>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX101" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>112045902</v>
+      </c>
+      <c r="B102" t="n">
+        <v>73696</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>562033.279910825</v>
+      </c>
+      <c r="R102" t="n">
+        <v>7307444.554464377</v>
+      </c>
+      <c r="S102" t="n">
+        <v>25</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="AD102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT102" t="inlineStr"/>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX102" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>112045892</v>
+      </c>
+      <c r="B103" t="n">
+        <v>73696</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>561896.0557901509</v>
+      </c>
+      <c r="R103" t="n">
+        <v>7307310.620094009</v>
+      </c>
+      <c r="S103" t="n">
+        <v>25</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>11:24</t>
+        </is>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>11:24</t>
+        </is>
+      </c>
+      <c r="AD103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT103" t="inlineStr"/>
+      <c r="AW103" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX103" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>112045896</v>
+      </c>
+      <c r="B104" t="n">
+        <v>76513</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>314</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Vitskaftad svartspik</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Chaenothecopsis viridialba</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>(Kremp.) A.F.W.Schmidt</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>561957.5349522973</v>
+      </c>
+      <c r="R104" t="n">
+        <v>7307347.556627862</v>
+      </c>
+      <c r="S104" t="n">
+        <v>25</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="AD104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT104" t="inlineStr"/>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX104" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>112045876</v>
+      </c>
+      <c r="B105" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>561966.4920707772</v>
+      </c>
+      <c r="R105" t="n">
+        <v>7307274.491430026</v>
+      </c>
+      <c r="S105" t="n">
+        <v>25</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>12:58</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>12:58</t>
+        </is>
+      </c>
+      <c r="AD105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT105" t="inlineStr"/>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX105" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>112045878</v>
+      </c>
+      <c r="B106" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>561966.4920707772</v>
+      </c>
+      <c r="R106" t="n">
+        <v>7307274.491430026</v>
+      </c>
+      <c r="S106" t="n">
+        <v>25</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+      <c r="AD106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT106" t="inlineStr"/>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX106" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>112045894</v>
+      </c>
+      <c r="B107" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>561946.4775806502</v>
+      </c>
+      <c r="R107" t="n">
+        <v>7307347.317251688</v>
+      </c>
+      <c r="S107" t="n">
+        <v>25</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="AD107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT107" t="inlineStr"/>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>112045883</v>
+      </c>
+      <c r="B108" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>561972.199092935</v>
+      </c>
+      <c r="R108" t="n">
+        <v>7307275.84283188</v>
+      </c>
+      <c r="S108" t="n">
+        <v>25</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AD108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT108" t="inlineStr"/>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>112045885</v>
+      </c>
+      <c r="B109" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>658</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>561945.9662186772</v>
+      </c>
+      <c r="R109" t="n">
+        <v>7307238.439993247</v>
+      </c>
+      <c r="S109" t="n">
+        <v>25</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AD109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT109" t="inlineStr"/>
+      <c r="AW109" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX109" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>112045881</v>
+      </c>
+      <c r="B110" t="n">
+        <v>89419</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>561970.17795532</v>
+      </c>
+      <c r="R110" t="n">
+        <v>7307274.571242708</v>
+      </c>
+      <c r="S110" t="n">
+        <v>25</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AD110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT110" t="inlineStr"/>
+      <c r="AW110" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX110" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>112045880</v>
+      </c>
+      <c r="B111" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>561968.539784422</v>
+      </c>
+      <c r="R111" t="n">
+        <v>7307274.535769819</v>
+      </c>
+      <c r="S111" t="n">
+        <v>25</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+      <c r="AD111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT111" t="inlineStr"/>
+      <c r="AW111" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX111" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112045893</v>
+      </c>
+      <c r="B112" t="n">
+        <v>76513</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>314</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Vitskaftad svartspik</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Chaenothecopsis viridialba</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>(Kremp.) A.F.W.Schmidt</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Djupfors, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>561896.8306256249</v>
+      </c>
+      <c r="R112" t="n">
+        <v>7307312.683194658</v>
+      </c>
+      <c r="S112" t="n">
+        <v>25</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>Sorsele</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="AD112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT112" t="inlineStr"/>
+      <c r="AW112" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX112" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Joakim Karlsson, Jonas Nordenström, Isak Edström</t>
+        </is>
+      </c>
+      <c r="AY112" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -3020,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111985428</v>
+        <v>111959824</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,42 +3036,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>561915.5212843259</v>
+        <v>561944.3590813032</v>
       </c>
       <c r="R22" t="n">
-        <v>7307338.871302457</v>
+        <v>7307350.545501226</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3140,10 +3132,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111959810</v>
+        <v>111959809</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>73696</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3156,21 +3148,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3180,10 +3172,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>561893.9245207607</v>
+        <v>561926.5963924478</v>
       </c>
       <c r="R23" t="n">
-        <v>7307219.714951258</v>
+        <v>7307338.29241254</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3252,10 +3244,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111959818</v>
+        <v>111959822</v>
       </c>
       <c r="B24" t="n">
-        <v>89686</v>
+        <v>89401</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3268,21 +3260,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3292,10 +3284,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>561893.9245207607</v>
+        <v>561870.4005339409</v>
       </c>
       <c r="R24" t="n">
-        <v>7307219.714951258</v>
+        <v>7307208.564956765</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3484,10 +3476,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111959809</v>
+        <v>111959821</v>
       </c>
       <c r="B26" t="n">
-        <v>73696</v>
+        <v>77597</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3500,21 +3492,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6440</v>
+        <v>864</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3524,10 +3516,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>561926.5963924478</v>
+        <v>561961.5682746068</v>
       </c>
       <c r="R26" t="n">
-        <v>7307338.29241254</v>
+        <v>7307350.508798505</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3596,10 +3588,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111985427</v>
+        <v>111959826</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3608,46 +3600,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562013.8588788129</v>
+        <v>561996.1853811271</v>
       </c>
       <c r="R27" t="n">
-        <v>7307395.432326685</v>
+        <v>7307379.088311991</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3716,10 +3700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111959824</v>
+        <v>111959830</v>
       </c>
       <c r="B28" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3732,21 +3716,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3756,10 +3740,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>561944.3590813032</v>
+        <v>561915.494732538</v>
       </c>
       <c r="R28" t="n">
-        <v>7307350.545501226</v>
+        <v>7307340.098521601</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3828,10 +3812,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111959820</v>
+        <v>111959833</v>
       </c>
       <c r="B29" t="n">
-        <v>77597</v>
+        <v>81248</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3844,21 +3828,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3868,10 +3852,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>561893.9245207607</v>
+        <v>562008.043958648</v>
       </c>
       <c r="R29" t="n">
-        <v>7307219.714951258</v>
+        <v>7307380.163763028</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3940,10 +3924,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111959829</v>
+        <v>111959834</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3956,21 +3940,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3980,10 +3964,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561893.9245207607</v>
+        <v>562008.8630139148</v>
       </c>
       <c r="R30" t="n">
-        <v>7307219.714951258</v>
+        <v>7307380.181510794</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4052,10 +4036,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111959834</v>
+        <v>111959825</v>
       </c>
       <c r="B31" t="n">
-        <v>81248</v>
+        <v>89747</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4064,25 +4048,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1312</v>
+        <v>2063</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4092,10 +4076,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562008.8630139148</v>
+        <v>561809.3860941484</v>
       </c>
       <c r="R31" t="n">
-        <v>7307380.181510794</v>
+        <v>7307206.837266683</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4164,10 +4148,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111959811</v>
+        <v>111959823</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>89401</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4180,21 +4164,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4204,10 +4188,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561895.9205330141</v>
+        <v>562015.4100685909</v>
       </c>
       <c r="R32" t="n">
-        <v>7307297.929816466</v>
+        <v>7307418.384256175</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4276,10 +4260,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111959825</v>
+        <v>111985426</v>
       </c>
       <c r="B33" t="n">
-        <v>89747</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4288,38 +4272,46 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561809.3860941484</v>
+        <v>562016.495064693</v>
       </c>
       <c r="R33" t="n">
-        <v>7307206.837266683</v>
+        <v>7307406.130124222</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4388,10 +4380,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111959827</v>
+        <v>111985429</v>
       </c>
       <c r="B34" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4404,34 +4396,42 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561870.4005339409</v>
+        <v>561821.7229337355</v>
       </c>
       <c r="R34" t="n">
-        <v>7307208.564956765</v>
+        <v>7307242.711117714</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111959826</v>
+        <v>111959810</v>
       </c>
       <c r="B35" t="n">
-        <v>89747</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4512,25 +4512,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2063</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4540,10 +4540,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561996.1853811271</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R35" t="n">
-        <v>7307379.088311991</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4612,10 +4612,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111959819</v>
+        <v>111985424</v>
       </c>
       <c r="B36" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4628,24 +4628,32 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
@@ -4724,10 +4732,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111959828</v>
+        <v>111959832</v>
       </c>
       <c r="B37" t="n">
-        <v>89423</v>
+        <v>81248</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4740,21 +4748,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4764,10 +4772,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>561996.2119675929</v>
+        <v>561915.5212843259</v>
       </c>
       <c r="R37" t="n">
-        <v>7307377.861109382</v>
+        <v>7307338.871302457</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4836,10 +4844,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111985429</v>
+        <v>111959811</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4852,42 +4860,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>561821.7229337355</v>
+        <v>561895.9205330141</v>
       </c>
       <c r="R38" t="n">
-        <v>7307242.711117714</v>
+        <v>7307297.929816466</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4956,10 +4956,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111959830</v>
+        <v>111959820</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>77597</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4972,21 +4972,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4996,10 +4996,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>561915.494732538</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R39" t="n">
-        <v>7307340.098521601</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111985426</v>
+        <v>111959829</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5084,42 +5084,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>562016.495064693</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R40" t="n">
-        <v>7307406.130124222</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5188,10 +5180,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111985424</v>
+        <v>111959828</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5204,42 +5196,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>561894.5894852884</v>
+        <v>561996.2119675929</v>
       </c>
       <c r="R41" t="n">
-        <v>7307264.749940732</v>
+        <v>7307377.861109382</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5308,10 +5292,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111959823</v>
+        <v>111959819</v>
       </c>
       <c r="B42" t="n">
-        <v>89401</v>
+        <v>89686</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5324,21 +5308,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5348,10 +5332,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>562015.4100685909</v>
+        <v>561894.5894852884</v>
       </c>
       <c r="R42" t="n">
-        <v>7307418.384256175</v>
+        <v>7307264.749940732</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5420,10 +5404,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111959821</v>
+        <v>111959818</v>
       </c>
       <c r="B43" t="n">
-        <v>77597</v>
+        <v>89686</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5436,21 +5420,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>864</v>
+        <v>658</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5460,10 +5444,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>561961.5682746068</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R43" t="n">
-        <v>7307350.508798505</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5532,10 +5516,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111959833</v>
+        <v>111985428</v>
       </c>
       <c r="B44" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5548,34 +5532,42 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>562008.043958648</v>
+        <v>561915.5212843259</v>
       </c>
       <c r="R44" t="n">
-        <v>7307380.163763028</v>
+        <v>7307338.871302457</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5644,10 +5636,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111959832</v>
+        <v>111959815</v>
       </c>
       <c r="B45" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5660,34 +5652,42 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>561915.5212843259</v>
+        <v>562013.8588788129</v>
       </c>
       <c r="R45" t="n">
-        <v>7307338.871302457</v>
+        <v>7307395.432326685</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111959822</v>
+        <v>111959827</v>
       </c>
       <c r="B47" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5884,21 +5884,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112036938</v>
+        <v>112037927</v>
       </c>
       <c r="B48" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5996,26 +5996,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6023,10 +6028,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>561846.4224085368</v>
+        <v>562084.6675010478</v>
       </c>
       <c r="R48" t="n">
-        <v>7307256.341643833</v>
+        <v>7307474.316293915</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6071,13 +6076,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6096,10 +6105,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112037788</v>
+        <v>112037831</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6112,21 +6121,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6139,10 +6148,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>562039.0131688161</v>
+        <v>562126.1340000186</v>
       </c>
       <c r="R49" t="n">
-        <v>7307444.678754784</v>
+        <v>7307451.479852177</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6212,10 +6221,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112037000</v>
+        <v>112037867</v>
       </c>
       <c r="B50" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6228,26 +6237,31 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6255,10 +6269,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>561919.0664192269</v>
+        <v>562085.128995252</v>
       </c>
       <c r="R50" t="n">
-        <v>7307212.891730816</v>
+        <v>7307453.045411141</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6303,13 +6317,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6328,10 +6346,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112037714</v>
+        <v>112037088</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6344,21 +6362,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6371,10 +6389,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>562073.5976993492</v>
+        <v>561968.3871263692</v>
       </c>
       <c r="R51" t="n">
-        <v>7307418.008835915</v>
+        <v>7307262.663489194</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6417,11 +6435,6 @@
       <c r="AB51" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6449,10 +6462,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112037150</v>
+        <v>112037075</v>
       </c>
       <c r="B52" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6461,30 +6474,35 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6492,10 +6510,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>561921.6442163675</v>
+        <v>561980.8929629655</v>
       </c>
       <c r="R52" t="n">
-        <v>7307320.996082182</v>
+        <v>7307233.875576395</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6540,13 +6558,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6565,10 +6587,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112037108</v>
+        <v>112037501</v>
       </c>
       <c r="B53" t="n">
-        <v>89686</v>
+        <v>89401</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6581,21 +6603,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6608,10 +6630,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>561975.5463062958</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R53" t="n">
-        <v>7307272.641123712</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6681,10 +6703,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112037792</v>
+        <v>112036972</v>
       </c>
       <c r="B54" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6697,26 +6719,31 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6724,10 +6751,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>562039.0131688161</v>
+        <v>561902.5679974818</v>
       </c>
       <c r="R54" t="n">
-        <v>7307444.678754784</v>
+        <v>7307274.745094148</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6772,13 +6799,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6797,7 +6828,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112037877</v>
+        <v>112037714</v>
       </c>
       <c r="B55" t="n">
         <v>77515</v>
@@ -6840,10 +6871,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>562085.128995252</v>
+        <v>562073.5976993492</v>
       </c>
       <c r="R55" t="n">
-        <v>7307453.045411141</v>
+        <v>7307418.008835915</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6886,6 +6917,11 @@
       <c r="AB55" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6913,7 +6949,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112037496</v>
+        <v>112037000</v>
       </c>
       <c r="B56" t="n">
         <v>89405</v>
@@ -6956,10 +6992,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>562072.3547891638</v>
+        <v>561919.0664192269</v>
       </c>
       <c r="R56" t="n">
-        <v>7307343.087340415</v>
+        <v>7307212.891730816</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7029,10 +7065,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112036909</v>
+        <v>112037150</v>
       </c>
       <c r="B57" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7041,25 +7077,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7072,10 +7108,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>561846.4224085368</v>
+        <v>561921.6442163675</v>
       </c>
       <c r="R57" t="n">
-        <v>7307256.341643833</v>
+        <v>7307320.996082182</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7145,10 +7181,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112036987</v>
+        <v>112037653</v>
       </c>
       <c r="B58" t="n">
-        <v>89423</v>
+        <v>89845</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7157,25 +7193,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7188,10 +7224,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>561902.5679974818</v>
+        <v>562092.0326057856</v>
       </c>
       <c r="R58" t="n">
-        <v>7307274.745094148</v>
+        <v>7307380.347859782</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7261,10 +7297,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112037796</v>
+        <v>112036909</v>
       </c>
       <c r="B59" t="n">
-        <v>89423</v>
+        <v>89686</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7277,21 +7313,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7304,10 +7340,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>562039.0131688161</v>
+        <v>561846.4224085368</v>
       </c>
       <c r="R59" t="n">
-        <v>7307444.678754784</v>
+        <v>7307256.341643833</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7377,7 +7413,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112037927</v>
+        <v>112037188</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7425,10 +7461,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>562084.6675010478</v>
+        <v>561921.6442163675</v>
       </c>
       <c r="R60" t="n">
-        <v>7307474.316293915</v>
+        <v>7307320.996082182</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7502,10 +7538,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112037006</v>
+        <v>112036996</v>
       </c>
       <c r="B61" t="n">
-        <v>89686</v>
+        <v>89423</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7518,21 +7554,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7618,7 +7654,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112037372</v>
+        <v>112037796</v>
       </c>
       <c r="B62" t="n">
         <v>89423</v>
@@ -7661,10 +7697,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>561994.1200184894</v>
+        <v>562039.0131688161</v>
       </c>
       <c r="R62" t="n">
-        <v>7307379.862086881</v>
+        <v>7307444.678754784</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7734,10 +7770,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112037509</v>
+        <v>112037108</v>
       </c>
       <c r="B63" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7750,21 +7786,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7777,10 +7813,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>562072.3547891638</v>
+        <v>561975.5463062958</v>
       </c>
       <c r="R63" t="n">
-        <v>7307343.087340415</v>
+        <v>7307272.641123712</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7823,11 +7859,6 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7855,10 +7886,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112037679</v>
+        <v>112037825</v>
       </c>
       <c r="B64" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7871,21 +7902,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7898,10 +7929,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>562115.5287905507</v>
+        <v>562126.1340000186</v>
       </c>
       <c r="R64" t="n">
-        <v>7307411.552107612</v>
+        <v>7307451.479852177</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7971,10 +8002,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112037825</v>
+        <v>112037172</v>
       </c>
       <c r="B65" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7987,21 +8018,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8014,10 +8045,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>562126.1340000186</v>
+        <v>561921.6442163675</v>
       </c>
       <c r="R65" t="n">
-        <v>7307451.479852177</v>
+        <v>7307320.996082182</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8087,10 +8118,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112037401</v>
+        <v>112037760</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8099,35 +8130,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8135,10 +8161,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>561987.7112743729</v>
+        <v>562042.5094799057</v>
       </c>
       <c r="R66" t="n">
-        <v>7307392.001010323</v>
+        <v>7307415.697631201</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8183,17 +8209,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -8212,10 +8234,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112037760</v>
+        <v>112037585</v>
       </c>
       <c r="B67" t="n">
-        <v>89747</v>
+        <v>77515</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8224,25 +8246,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2063</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8255,10 +8277,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>562042.5094799057</v>
+        <v>562059.0915112555</v>
       </c>
       <c r="R67" t="n">
-        <v>7307415.697631201</v>
+        <v>7307368.992526292</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8328,10 +8350,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112037088</v>
+        <v>112036938</v>
       </c>
       <c r="B68" t="n">
-        <v>89686</v>
+        <v>89419</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8344,21 +8366,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8371,10 +8393,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>561968.3871263692</v>
+        <v>561846.4224085368</v>
       </c>
       <c r="R68" t="n">
-        <v>7307262.663489194</v>
+        <v>7307256.341643833</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8444,10 +8466,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112037519</v>
+        <v>112037496</v>
       </c>
       <c r="B69" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8460,21 +8482,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8487,10 +8509,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>562059.0915112555</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R69" t="n">
-        <v>7307368.992526292</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8560,10 +8582,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112036981</v>
+        <v>112037401</v>
       </c>
       <c r="B70" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8576,26 +8598,31 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -8603,10 +8630,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>561902.5679974818</v>
+        <v>561987.7112743729</v>
       </c>
       <c r="R70" t="n">
-        <v>7307274.745094148</v>
+        <v>7307392.001010323</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8651,13 +8678,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
       <c r="AE70" t="b">
         <v>0</v>
       </c>
-      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -8676,7 +8707,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112036871</v>
+        <v>112037509</v>
       </c>
       <c r="B71" t="n">
         <v>77515</v>
@@ -8711,11 +8742,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -8723,10 +8750,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>561834.0063889065</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R71" t="n">
-        <v>7307224.149654636</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8773,7 +8800,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>Drapperad gran</t>
+          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8801,10 +8828,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112037364</v>
+        <v>112037792</v>
       </c>
       <c r="B72" t="n">
-        <v>89747</v>
+        <v>89401</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8813,25 +8840,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2063</v>
+        <v>1108</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8844,10 +8871,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>561994.1200184894</v>
+        <v>562039.0131688161</v>
       </c>
       <c r="R72" t="n">
-        <v>7307379.862086881</v>
+        <v>7307444.678754784</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8917,10 +8944,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112037492</v>
+        <v>112036871</v>
       </c>
       <c r="B73" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8933,26 +8960,30 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -8960,10 +8991,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>562072.3547891638</v>
+        <v>561834.0063889065</v>
       </c>
       <c r="R73" t="n">
-        <v>7307343.087340415</v>
+        <v>7307224.149654636</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9006,6 +9037,11 @@
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9033,10 +9069,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112037188</v>
+        <v>112037364</v>
       </c>
       <c r="B74" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9045,35 +9081,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -9081,10 +9112,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>561921.6442163675</v>
+        <v>561994.1200184894</v>
       </c>
       <c r="R74" t="n">
-        <v>7307320.996082182</v>
+        <v>7307379.862086881</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9129,17 +9160,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -9158,10 +9185,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112037072</v>
+        <v>112037877</v>
       </c>
       <c r="B75" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9174,31 +9201,26 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -9206,10 +9228,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>561980.8929629655</v>
+        <v>562085.128995252</v>
       </c>
       <c r="R75" t="n">
-        <v>7307233.875576395</v>
+        <v>7307453.045411141</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9254,17 +9276,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -9283,10 +9301,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112037094</v>
+        <v>112036981</v>
       </c>
       <c r="B76" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9299,21 +9317,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9326,10 +9344,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>561968.3871263692</v>
+        <v>561902.5679974818</v>
       </c>
       <c r="R76" t="n">
-        <v>7307262.663489194</v>
+        <v>7307274.745094148</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9399,10 +9417,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112037831</v>
+        <v>112037492</v>
       </c>
       <c r="B77" t="n">
-        <v>89401</v>
+        <v>89686</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9415,21 +9433,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9442,10 +9460,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562126.1340000186</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R77" t="n">
-        <v>7307451.479852177</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9515,10 +9533,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112037501</v>
+        <v>112037519</v>
       </c>
       <c r="B78" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9531,21 +9549,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9558,10 +9576,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>562072.3547891638</v>
+        <v>562059.0915112555</v>
       </c>
       <c r="R78" t="n">
-        <v>7307343.087340415</v>
+        <v>7307368.992526292</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9631,10 +9649,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112037773</v>
+        <v>112037094</v>
       </c>
       <c r="B79" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9647,21 +9665,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9674,10 +9692,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>562042.5094799057</v>
+        <v>561968.3871263692</v>
       </c>
       <c r="R79" t="n">
-        <v>7307415.697631201</v>
+        <v>7307262.663489194</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9747,10 +9765,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112037867</v>
+        <v>112037006</v>
       </c>
       <c r="B80" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9763,31 +9781,26 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
@@ -9795,10 +9808,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>562085.128995252</v>
+        <v>561919.0664192269</v>
       </c>
       <c r="R80" t="n">
-        <v>7307453.045411141</v>
+        <v>7307212.891730816</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9843,17 +9856,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9872,10 +9881,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112037172</v>
+        <v>112037773</v>
       </c>
       <c r="B81" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9888,21 +9897,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9915,10 +9924,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>561921.6442163675</v>
+        <v>562042.5094799057</v>
       </c>
       <c r="R81" t="n">
-        <v>7307320.996082182</v>
+        <v>7307415.697631201</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9988,10 +9997,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112036972</v>
+        <v>112037788</v>
       </c>
       <c r="B82" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10004,31 +10013,26 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
@@ -10036,10 +10040,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>561902.5679974818</v>
+        <v>562039.0131688161</v>
       </c>
       <c r="R82" t="n">
-        <v>7307274.745094148</v>
+        <v>7307444.678754784</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10084,17 +10088,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD82" t="b">
         <v>0</v>
       </c>
       <c r="AE82" t="b">
         <v>0</v>
       </c>
+      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
       </c>
@@ -10113,10 +10113,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112037653</v>
+        <v>112037679</v>
       </c>
       <c r="B83" t="n">
-        <v>89845</v>
+        <v>89423</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10125,25 +10125,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>562092.0326057856</v>
+        <v>562115.5287905507</v>
       </c>
       <c r="R83" t="n">
-        <v>7307380.347859782</v>
+        <v>7307411.552107612</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10229,10 +10229,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112037585</v>
+        <v>112036987</v>
       </c>
       <c r="B84" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10245,21 +10245,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10272,10 +10272,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>562059.0915112555</v>
+        <v>561902.5679974818</v>
       </c>
       <c r="R84" t="n">
-        <v>7307368.992526292</v>
+        <v>7307274.745094148</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112036996</v>
+        <v>112037372</v>
       </c>
       <c r="B85" t="n">
         <v>89423</v>
@@ -10388,10 +10388,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>561919.0664192269</v>
+        <v>561994.1200184894</v>
       </c>
       <c r="R85" t="n">
-        <v>7307212.891730816</v>
+        <v>7307379.862086881</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10461,10 +10461,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112045901</v>
+        <v>112045889</v>
       </c>
       <c r="B86" t="n">
-        <v>89419</v>
+        <v>89401</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10477,21 +10477,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10501,10 +10501,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>562030.260907584</v>
+        <v>561897.2641743869</v>
       </c>
       <c r="R86" t="n">
-        <v>7307432.620735778</v>
+        <v>7307292.638358502</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10573,10 +10573,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112045887</v>
+        <v>112045895</v>
       </c>
       <c r="B87" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10585,25 +10585,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>561864.4451530995</v>
+        <v>561962.2810507246</v>
       </c>
       <c r="R87" t="n">
-        <v>7307275.557820893</v>
+        <v>7307355.435386755</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10685,10 +10685,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112045897</v>
+        <v>112045894</v>
       </c>
       <c r="B88" t="n">
-        <v>73696</v>
+        <v>89405</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10701,21 +10701,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10725,10 +10725,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>561955.381015217</v>
+        <v>561946.4775806502</v>
       </c>
       <c r="R88" t="n">
-        <v>7307352.421154647</v>
+        <v>7307347.317251688</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10770,7 +10770,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10797,10 +10797,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112045891</v>
+        <v>112045886</v>
       </c>
       <c r="B89" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10813,34 +10813,39 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>561885.8085055663</v>
+        <v>561825.7477039014</v>
       </c>
       <c r="R89" t="n">
-        <v>7307310.807745616</v>
+        <v>7307246.072283784</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10872,7 +10877,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10882,7 +10887,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10909,10 +10914,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112045900</v>
+        <v>112045878</v>
       </c>
       <c r="B90" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10925,21 +10930,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10949,10 +10954,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562022.4606045906</v>
+        <v>561966.4920707772</v>
       </c>
       <c r="R90" t="n">
-        <v>7307414.444516678</v>
+        <v>7307274.491430026</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10984,7 +10989,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10994,7 +10999,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11021,10 +11026,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112045895</v>
+        <v>112045890</v>
       </c>
       <c r="B91" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11037,21 +11042,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11061,10 +11066,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>561962.2810507246</v>
+        <v>561896.3098358642</v>
       </c>
       <c r="R91" t="n">
-        <v>7307355.435386755</v>
+        <v>7307279.930285611</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11096,7 +11101,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11106,7 +11111,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11133,10 +11138,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112045884</v>
+        <v>112045892</v>
       </c>
       <c r="B92" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11149,39 +11154,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>561944.0247344724</v>
+        <v>561896.0557901509</v>
       </c>
       <c r="R92" t="n">
-        <v>7307233.486615712</v>
+        <v>7307310.620094009</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11250,10 +11250,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112045882</v>
+        <v>112045900</v>
       </c>
       <c r="B93" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11266,21 +11266,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11290,10 +11290,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>561971.3622907655</v>
+        <v>562022.4606045906</v>
       </c>
       <c r="R93" t="n">
-        <v>7307276.643258946</v>
+        <v>7307414.444516678</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11362,10 +11362,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112045877</v>
+        <v>112045902</v>
       </c>
       <c r="B94" t="n">
-        <v>89401</v>
+        <v>73696</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11378,21 +11378,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>561966.4920707772</v>
+        <v>562033.279910825</v>
       </c>
       <c r="R94" t="n">
-        <v>7307274.491430026</v>
+        <v>7307444.554464377</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11474,10 +11474,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112045903</v>
+        <v>112045893</v>
       </c>
       <c r="B95" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11490,39 +11490,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P95" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>562026.80906996</v>
+        <v>561896.8306256249</v>
       </c>
       <c r="R95" t="n">
-        <v>7307459.556420421</v>
+        <v>7307312.683194658</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11554,7 +11549,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11564,7 +11559,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11591,10 +11586,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112045886</v>
+        <v>112045885</v>
       </c>
       <c r="B96" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11607,39 +11602,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>561825.7477039014</v>
+        <v>561945.9662186772</v>
       </c>
       <c r="R96" t="n">
-        <v>7307246.072283784</v>
+        <v>7307238.439993247</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11671,7 +11661,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11681,7 +11671,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11708,10 +11698,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112045890</v>
+        <v>112045882</v>
       </c>
       <c r="B97" t="n">
-        <v>89423</v>
+        <v>89686</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11724,21 +11714,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11748,10 +11738,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>561896.3098358642</v>
+        <v>561971.3622907655</v>
       </c>
       <c r="R97" t="n">
-        <v>7307279.930285611</v>
+        <v>7307276.643258946</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11783,7 +11773,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11793,7 +11783,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11820,10 +11810,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112045889</v>
+        <v>112045897</v>
       </c>
       <c r="B98" t="n">
-        <v>89401</v>
+        <v>73696</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11836,21 +11826,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11860,10 +11850,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>561897.2641743869</v>
+        <v>561955.381015217</v>
       </c>
       <c r="R98" t="n">
-        <v>7307292.638358502</v>
+        <v>7307352.421154647</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11895,7 +11885,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11905,7 +11895,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11932,10 +11922,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112045898</v>
+        <v>112045891</v>
       </c>
       <c r="B99" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11948,39 +11938,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>561991.8951490093</v>
+        <v>561885.8085055663</v>
       </c>
       <c r="R99" t="n">
-        <v>7307387.999063636</v>
+        <v>7307310.807745616</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12012,7 +11997,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12022,7 +12007,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12049,10 +12034,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112045899</v>
+        <v>112045880</v>
       </c>
       <c r="B100" t="n">
-        <v>56398</v>
+        <v>89845</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12061,43 +12046,38 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>562021.8632048024</v>
+        <v>561968.539784422</v>
       </c>
       <c r="R100" t="n">
-        <v>7307404.200186137</v>
+        <v>7307274.535769819</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12129,7 +12109,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12139,7 +12119,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12166,10 +12146,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112045888</v>
+        <v>112045881</v>
       </c>
       <c r="B101" t="n">
-        <v>89423</v>
+        <v>89419</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12182,21 +12162,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12206,10 +12186,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>561908.2775088041</v>
+        <v>561970.17795532</v>
       </c>
       <c r="R101" t="n">
-        <v>7307294.922941325</v>
+        <v>7307274.571242708</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12241,7 +12221,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12251,7 +12231,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12278,10 +12258,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112045902</v>
+        <v>112045899</v>
       </c>
       <c r="B102" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12294,34 +12274,39 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>562033.279910825</v>
+        <v>562021.8632048024</v>
       </c>
       <c r="R102" t="n">
-        <v>7307444.554464377</v>
+        <v>7307404.200186137</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12353,7 +12338,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12363,7 +12348,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12390,10 +12375,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112045892</v>
+        <v>112045887</v>
       </c>
       <c r="B103" t="n">
-        <v>73696</v>
+        <v>89845</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12402,25 +12387,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6440</v>
+        <v>1209</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12430,10 +12415,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>561896.0557901509</v>
+        <v>561864.4451530995</v>
       </c>
       <c r="R103" t="n">
-        <v>7307310.620094009</v>
+        <v>7307275.557820893</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12465,7 +12450,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12475,7 +12460,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12614,10 +12599,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112045876</v>
+        <v>112045901</v>
       </c>
       <c r="B105" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12630,21 +12615,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12654,10 +12639,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>561966.4920707772</v>
+        <v>562030.260907584</v>
       </c>
       <c r="R105" t="n">
-        <v>7307274.491430026</v>
+        <v>7307432.620735778</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12689,7 +12674,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12699,7 +12684,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12726,10 +12711,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112045878</v>
+        <v>112045884</v>
       </c>
       <c r="B106" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12742,34 +12727,39 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>561966.4920707772</v>
+        <v>561944.0247344724</v>
       </c>
       <c r="R106" t="n">
-        <v>7307274.491430026</v>
+        <v>7307233.486615712</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12801,7 +12791,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12811,7 +12801,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12838,10 +12828,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112045894</v>
+        <v>112045883</v>
       </c>
       <c r="B107" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12850,25 +12840,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12878,10 +12868,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>561946.4775806502</v>
+        <v>561972.199092935</v>
       </c>
       <c r="R107" t="n">
-        <v>7307347.317251688</v>
+        <v>7307275.84283188</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12913,7 +12903,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12923,7 +12913,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12950,10 +12940,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112045883</v>
+        <v>112045876</v>
       </c>
       <c r="B108" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12962,25 +12952,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12990,10 +12980,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>561972.199092935</v>
+        <v>561966.4920707772</v>
       </c>
       <c r="R108" t="n">
-        <v>7307275.84283188</v>
+        <v>7307274.491430026</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13025,7 +13015,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -13035,7 +13025,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -13062,10 +13052,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112045885</v>
+        <v>112045877</v>
       </c>
       <c r="B109" t="n">
-        <v>89686</v>
+        <v>89401</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13078,21 +13068,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13102,10 +13092,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>561945.9662186772</v>
+        <v>561966.4920707772</v>
       </c>
       <c r="R109" t="n">
-        <v>7307238.439993247</v>
+        <v>7307274.491430026</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13137,7 +13127,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -13147,7 +13137,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -13174,10 +13164,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112045881</v>
+        <v>112045888</v>
       </c>
       <c r="B110" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13190,21 +13180,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13214,10 +13204,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>561970.17795532</v>
+        <v>561908.2775088041</v>
       </c>
       <c r="R110" t="n">
-        <v>7307274.571242708</v>
+        <v>7307294.922941325</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13249,7 +13239,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -13259,7 +13249,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -13286,10 +13276,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112045880</v>
+        <v>112045898</v>
       </c>
       <c r="B111" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13298,38 +13288,43 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>561968.539784422</v>
+        <v>561991.8951490093</v>
       </c>
       <c r="R111" t="n">
-        <v>7307274.535769819</v>
+        <v>7307387.999063636</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13361,7 +13356,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -13371,7 +13366,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -13398,10 +13393,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112045893</v>
+        <v>112045903</v>
       </c>
       <c r="B112" t="n">
-        <v>76513</v>
+        <v>56398</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13414,34 +13409,39 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P112" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>561896.8306256249</v>
+        <v>562026.80906996</v>
       </c>
       <c r="R112" t="n">
-        <v>7307312.683194658</v>
+        <v>7307459.556420421</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AD112" t="b">

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -3020,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111959824</v>
+        <v>111959819</v>
       </c>
       <c r="B22" t="n">
-        <v>89419</v>
+        <v>89686</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,21 +3036,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3060,10 +3060,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>561944.3590813032</v>
+        <v>561894.5894852884</v>
       </c>
       <c r="R22" t="n">
-        <v>7307350.545501226</v>
+        <v>7307264.749940732</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111959809</v>
+        <v>111959826</v>
       </c>
       <c r="B23" t="n">
-        <v>73696</v>
+        <v>89747</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3144,25 +3144,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>2063</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>561926.5963924478</v>
+        <v>561996.1853811271</v>
       </c>
       <c r="R23" t="n">
-        <v>7307338.29241254</v>
+        <v>7307379.088311991</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3244,10 +3244,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111959822</v>
+        <v>111959810</v>
       </c>
       <c r="B24" t="n">
-        <v>89401</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3260,21 +3260,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3284,10 +3284,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>561870.4005339409</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R24" t="n">
-        <v>7307208.564956765</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111985425</v>
+        <v>111959830</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3372,42 +3372,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>561986.2927539641</v>
+        <v>561915.494732538</v>
       </c>
       <c r="R25" t="n">
-        <v>7307362.912851273</v>
+        <v>7307340.098521601</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3476,10 +3468,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111959821</v>
+        <v>111985429</v>
       </c>
       <c r="B26" t="n">
-        <v>77597</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3492,34 +3484,42 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>561961.5682746068</v>
+        <v>561821.7229337355</v>
       </c>
       <c r="R26" t="n">
-        <v>7307350.508798505</v>
+        <v>7307242.711117714</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111959826</v>
+        <v>111959827</v>
       </c>
       <c r="B27" t="n">
-        <v>89747</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3600,25 +3600,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2063</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3628,10 +3628,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>561996.1853811271</v>
+        <v>561870.4005339409</v>
       </c>
       <c r="R27" t="n">
-        <v>7307379.088311991</v>
+        <v>7307208.564956765</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111959830</v>
+        <v>111959828</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3716,21 +3716,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3740,10 +3740,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>561915.494732538</v>
+        <v>561996.2119675929</v>
       </c>
       <c r="R28" t="n">
-        <v>7307340.098521601</v>
+        <v>7307377.861109382</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3812,10 +3812,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111959833</v>
+        <v>111985426</v>
       </c>
       <c r="B29" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3828,34 +3828,42 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562008.043958648</v>
+        <v>562016.495064693</v>
       </c>
       <c r="R29" t="n">
-        <v>7307380.163763028</v>
+        <v>7307406.130124222</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3924,10 +3932,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111959834</v>
+        <v>111959815</v>
       </c>
       <c r="B30" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3940,34 +3948,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562008.8630139148</v>
+        <v>562013.8588788129</v>
       </c>
       <c r="R30" t="n">
-        <v>7307380.181510794</v>
+        <v>7307395.432326685</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4036,10 +4052,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111959825</v>
+        <v>111959823</v>
       </c>
       <c r="B31" t="n">
-        <v>89747</v>
+        <v>89401</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4048,25 +4064,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2063</v>
+        <v>1108</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4076,10 +4092,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561809.3860941484</v>
+        <v>562015.4100685909</v>
       </c>
       <c r="R31" t="n">
-        <v>7307206.837266683</v>
+        <v>7307418.384256175</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4148,10 +4164,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111959823</v>
+        <v>111985424</v>
       </c>
       <c r="B32" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4164,34 +4180,42 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562015.4100685909</v>
+        <v>561894.5894852884</v>
       </c>
       <c r="R32" t="n">
-        <v>7307418.384256175</v>
+        <v>7307264.749940732</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4260,10 +4284,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111985426</v>
+        <v>111959825</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4272,46 +4296,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562016.495064693</v>
+        <v>561809.3860941484</v>
       </c>
       <c r="R33" t="n">
-        <v>7307406.130124222</v>
+        <v>7307206.837266683</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4380,10 +4396,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111985429</v>
+        <v>111959818</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4396,42 +4412,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561821.7229337355</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R34" t="n">
-        <v>7307242.711117714</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4500,10 +4508,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111959810</v>
+        <v>111985428</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4516,34 +4524,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561893.9245207607</v>
+        <v>561915.5212843259</v>
       </c>
       <c r="R35" t="n">
-        <v>7307219.714951258</v>
+        <v>7307338.871302457</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4612,10 +4628,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111985424</v>
+        <v>111959824</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4628,42 +4644,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>561894.5894852884</v>
+        <v>561944.3590813032</v>
       </c>
       <c r="R36" t="n">
-        <v>7307264.749940732</v>
+        <v>7307350.545501226</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4732,10 +4740,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111959832</v>
+        <v>111959822</v>
       </c>
       <c r="B37" t="n">
-        <v>81248</v>
+        <v>89401</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4748,21 +4756,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1312</v>
+        <v>1108</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4772,10 +4780,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>561915.5212843259</v>
+        <v>561870.4005339409</v>
       </c>
       <c r="R37" t="n">
-        <v>7307338.871302457</v>
+        <v>7307208.564956765</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4956,10 +4964,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111959820</v>
+        <v>111959834</v>
       </c>
       <c r="B39" t="n">
-        <v>77597</v>
+        <v>81248</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4972,21 +4980,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4996,10 +5004,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>561893.9245207607</v>
+        <v>562008.8630139148</v>
       </c>
       <c r="R39" t="n">
-        <v>7307219.714951258</v>
+        <v>7307380.181510794</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -5068,10 +5076,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111959829</v>
+        <v>111959832</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5084,21 +5092,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5108,10 +5116,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>561893.9245207607</v>
+        <v>561915.5212843259</v>
       </c>
       <c r="R40" t="n">
-        <v>7307219.714951258</v>
+        <v>7307338.871302457</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5180,10 +5188,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111959828</v>
+        <v>111959809</v>
       </c>
       <c r="B41" t="n">
-        <v>89423</v>
+        <v>73696</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5196,21 +5204,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5220,10 +5228,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>561996.2119675929</v>
+        <v>561926.5963924478</v>
       </c>
       <c r="R41" t="n">
-        <v>7307377.861109382</v>
+        <v>7307338.29241254</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5292,10 +5300,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111959819</v>
+        <v>111959831</v>
       </c>
       <c r="B42" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5308,21 +5316,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5332,10 +5340,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>561894.5894852884</v>
+        <v>562008.8630139148</v>
       </c>
       <c r="R42" t="n">
-        <v>7307264.749940732</v>
+        <v>7307380.181510794</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5404,10 +5412,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111959818</v>
+        <v>111985425</v>
       </c>
       <c r="B43" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5420,34 +5428,42 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>561893.9245207607</v>
+        <v>561986.2927539641</v>
       </c>
       <c r="R43" t="n">
-        <v>7307219.714951258</v>
+        <v>7307362.912851273</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5516,10 +5532,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111985428</v>
+        <v>111959829</v>
       </c>
       <c r="B44" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5532,42 +5548,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>561915.5212843259</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R44" t="n">
-        <v>7307338.871302457</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5636,10 +5644,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111959815</v>
+        <v>111959820</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>77597</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5652,42 +5660,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>562013.8588788129</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R45" t="n">
-        <v>7307395.432326685</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111959831</v>
+        <v>111959821</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>77597</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5772,21 +5772,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5796,10 +5796,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>562008.8630139148</v>
+        <v>561961.5682746068</v>
       </c>
       <c r="R46" t="n">
-        <v>7307380.181510794</v>
+        <v>7307350.508798505</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111959827</v>
+        <v>111959833</v>
       </c>
       <c r="B47" t="n">
-        <v>89423</v>
+        <v>81248</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5884,21 +5884,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5908,10 +5908,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>561870.4005339409</v>
+        <v>562008.043958648</v>
       </c>
       <c r="R47" t="n">
-        <v>7307208.564956765</v>
+        <v>7307380.163763028</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112037927</v>
+        <v>112037006</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5996,31 +5996,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6028,10 +6023,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>562084.6675010478</v>
+        <v>561919.0664192269</v>
       </c>
       <c r="R48" t="n">
-        <v>7307474.316293915</v>
+        <v>7307212.891730816</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6076,17 +6071,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6105,10 +6096,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112037831</v>
+        <v>112036871</v>
       </c>
       <c r="B49" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6121,26 +6112,30 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6148,10 +6143,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>562126.1340000186</v>
+        <v>561834.0063889065</v>
       </c>
       <c r="R49" t="n">
-        <v>7307451.479852177</v>
+        <v>7307224.149654636</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6194,6 +6189,11 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6221,10 +6221,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112037867</v>
+        <v>112037760</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6233,35 +6233,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6269,10 +6264,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>562085.128995252</v>
+        <v>562042.5094799057</v>
       </c>
       <c r="R50" t="n">
-        <v>7307453.045411141</v>
+        <v>7307415.697631201</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6317,17 +6312,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6346,10 +6337,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112037088</v>
+        <v>112036972</v>
       </c>
       <c r="B51" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6362,26 +6353,31 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6389,10 +6385,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>561968.3871263692</v>
+        <v>561902.5679974818</v>
       </c>
       <c r="R51" t="n">
-        <v>7307262.663489194</v>
+        <v>7307274.745094148</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6437,13 +6433,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6462,10 +6462,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112037075</v>
+        <v>112037150</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>89845</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6474,35 +6474,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6510,10 +6505,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>561980.8929629655</v>
+        <v>561921.6442163675</v>
       </c>
       <c r="R52" t="n">
-        <v>7307233.875576395</v>
+        <v>7307320.996082182</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6558,17 +6553,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6587,7 +6578,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112037501</v>
+        <v>112037831</v>
       </c>
       <c r="B53" t="n">
         <v>89401</v>
@@ -6630,10 +6621,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>562072.3547891638</v>
+        <v>562126.1340000186</v>
       </c>
       <c r="R53" t="n">
-        <v>7307343.087340415</v>
+        <v>7307451.479852177</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6703,10 +6694,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112036972</v>
+        <v>112037492</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6719,31 +6710,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6751,10 +6737,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>561902.5679974818</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R54" t="n">
-        <v>7307274.745094148</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6799,17 +6785,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6828,10 +6810,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112037714</v>
+        <v>112037825</v>
       </c>
       <c r="B55" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6844,21 +6826,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6871,10 +6853,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>562073.5976993492</v>
+        <v>562126.1340000186</v>
       </c>
       <c r="R55" t="n">
-        <v>7307418.008835915</v>
+        <v>7307451.479852177</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6917,11 +6899,6 @@
       <c r="AB55" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6949,10 +6926,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112037000</v>
+        <v>112037088</v>
       </c>
       <c r="B56" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6965,21 +6942,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6992,10 +6969,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>561919.0664192269</v>
+        <v>561968.3871263692</v>
       </c>
       <c r="R56" t="n">
-        <v>7307212.891730816</v>
+        <v>7307262.663489194</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7065,10 +7042,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112037150</v>
+        <v>112036987</v>
       </c>
       <c r="B57" t="n">
-        <v>89845</v>
+        <v>89423</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7077,25 +7054,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7108,10 +7085,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>561921.6442163675</v>
+        <v>561902.5679974818</v>
       </c>
       <c r="R57" t="n">
-        <v>7307320.996082182</v>
+        <v>7307274.745094148</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7181,10 +7158,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112037653</v>
+        <v>112037796</v>
       </c>
       <c r="B58" t="n">
-        <v>89845</v>
+        <v>89423</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7193,25 +7170,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7224,10 +7201,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>562092.0326057856</v>
+        <v>562039.0131688161</v>
       </c>
       <c r="R58" t="n">
-        <v>7307380.347859782</v>
+        <v>7307444.678754784</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7297,10 +7274,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112036909</v>
+        <v>112037496</v>
       </c>
       <c r="B59" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7313,21 +7290,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7340,10 +7317,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>561846.4224085368</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R59" t="n">
-        <v>7307256.341643833</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7413,7 +7390,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112037188</v>
+        <v>112037401</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7451,7 +7428,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -7461,10 +7438,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>561921.6442163675</v>
+        <v>561987.7112743729</v>
       </c>
       <c r="R60" t="n">
-        <v>7307320.996082182</v>
+        <v>7307392.001010323</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7538,7 +7515,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112036996</v>
+        <v>112037372</v>
       </c>
       <c r="B61" t="n">
         <v>89423</v>
@@ -7581,10 +7558,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>561919.0664192269</v>
+        <v>561994.1200184894</v>
       </c>
       <c r="R61" t="n">
-        <v>7307212.891730816</v>
+        <v>7307379.862086881</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7654,10 +7631,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112037796</v>
+        <v>112037714</v>
       </c>
       <c r="B62" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7670,21 +7647,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7697,10 +7674,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>562039.0131688161</v>
+        <v>562073.5976993492</v>
       </c>
       <c r="R62" t="n">
-        <v>7307444.678754784</v>
+        <v>7307418.008835915</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7743,6 +7720,11 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7770,10 +7752,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112037108</v>
+        <v>112037792</v>
       </c>
       <c r="B63" t="n">
-        <v>89686</v>
+        <v>89401</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7786,21 +7768,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7813,10 +7795,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>561975.5463062958</v>
+        <v>562039.0131688161</v>
       </c>
       <c r="R63" t="n">
-        <v>7307272.641123712</v>
+        <v>7307444.678754784</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7886,10 +7868,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112037825</v>
+        <v>112037585</v>
       </c>
       <c r="B64" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7902,21 +7884,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7929,10 +7911,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>562126.1340000186</v>
+        <v>562059.0915112555</v>
       </c>
       <c r="R64" t="n">
-        <v>7307451.479852177</v>
+        <v>7307368.992526292</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8002,10 +7984,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112037172</v>
+        <v>112037927</v>
       </c>
       <c r="B65" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8018,26 +8000,31 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8045,10 +8032,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>561921.6442163675</v>
+        <v>562084.6675010478</v>
       </c>
       <c r="R65" t="n">
-        <v>7307320.996082182</v>
+        <v>7307474.316293915</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8093,13 +8080,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8118,10 +8109,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112037760</v>
+        <v>112037075</v>
       </c>
       <c r="B66" t="n">
-        <v>89747</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8130,30 +8121,35 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8161,10 +8157,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>562042.5094799057</v>
+        <v>561980.8929629655</v>
       </c>
       <c r="R66" t="n">
-        <v>7307415.697631201</v>
+        <v>7307233.875576395</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8209,13 +8205,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -8234,7 +8234,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112037585</v>
+        <v>112037509</v>
       </c>
       <c r="B67" t="n">
         <v>77515</v>
@@ -8277,10 +8277,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>562059.0915112555</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R67" t="n">
-        <v>7307368.992526292</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8323,6 +8323,11 @@
       <c r="AB67" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8350,10 +8355,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112036938</v>
+        <v>112036996</v>
       </c>
       <c r="B68" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8366,21 +8371,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8393,10 +8398,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>561846.4224085368</v>
+        <v>561919.0664192269</v>
       </c>
       <c r="R68" t="n">
-        <v>7307256.341643833</v>
+        <v>7307212.891730816</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8466,10 +8471,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112037496</v>
+        <v>112037188</v>
       </c>
       <c r="B69" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8482,26 +8487,31 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -8509,10 +8519,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>562072.3547891638</v>
+        <v>561921.6442163675</v>
       </c>
       <c r="R69" t="n">
-        <v>7307343.087340415</v>
+        <v>7307320.996082182</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8557,13 +8567,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8582,10 +8596,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112037401</v>
+        <v>112037108</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8598,31 +8612,26 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -8630,10 +8639,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>561987.7112743729</v>
+        <v>561975.5463062958</v>
       </c>
       <c r="R70" t="n">
-        <v>7307392.001010323</v>
+        <v>7307272.641123712</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8678,17 +8687,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
       <c r="AE70" t="b">
         <v>0</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -8707,10 +8712,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112037509</v>
+        <v>112036909</v>
       </c>
       <c r="B71" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8723,21 +8728,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8750,10 +8755,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>562072.3547891638</v>
+        <v>561846.4224085368</v>
       </c>
       <c r="R71" t="n">
-        <v>7307343.087340415</v>
+        <v>7307256.341643833</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8796,11 +8801,6 @@
       <c r="AB71" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8828,10 +8828,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112037792</v>
+        <v>112037172</v>
       </c>
       <c r="B72" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8844,21 +8844,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8871,10 +8871,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562039.0131688161</v>
+        <v>561921.6442163675</v>
       </c>
       <c r="R72" t="n">
-        <v>7307444.678754784</v>
+        <v>7307320.996082182</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112036871</v>
+        <v>112037788</v>
       </c>
       <c r="B73" t="n">
         <v>77515</v>
@@ -8979,11 +8979,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -8991,10 +8987,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>561834.0063889065</v>
+        <v>562039.0131688161</v>
       </c>
       <c r="R73" t="n">
-        <v>7307224.149654636</v>
+        <v>7307444.678754784</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9037,11 +9033,6 @@
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9069,10 +9060,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112037364</v>
+        <v>112037773</v>
       </c>
       <c r="B74" t="n">
-        <v>89747</v>
+        <v>89423</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9081,25 +9072,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2063</v>
+        <v>5432</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9112,10 +9103,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>561994.1200184894</v>
+        <v>562042.5094799057</v>
       </c>
       <c r="R74" t="n">
-        <v>7307379.862086881</v>
+        <v>7307415.697631201</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9185,10 +9176,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112037877</v>
+        <v>112036938</v>
       </c>
       <c r="B75" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9201,21 +9192,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9228,10 +9219,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>562085.128995252</v>
+        <v>561846.4224085368</v>
       </c>
       <c r="R75" t="n">
-        <v>7307453.045411141</v>
+        <v>7307256.341643833</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9301,10 +9292,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112036981</v>
+        <v>112037364</v>
       </c>
       <c r="B76" t="n">
-        <v>89401</v>
+        <v>89747</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9313,25 +9304,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1108</v>
+        <v>2063</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9344,10 +9335,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>561902.5679974818</v>
+        <v>561994.1200184894</v>
       </c>
       <c r="R76" t="n">
-        <v>7307274.745094148</v>
+        <v>7307379.862086881</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9417,10 +9408,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112037492</v>
+        <v>112037501</v>
       </c>
       <c r="B77" t="n">
-        <v>89686</v>
+        <v>89401</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9433,21 +9424,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9533,10 +9524,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112037519</v>
+        <v>112037000</v>
       </c>
       <c r="B78" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9549,21 +9540,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9576,10 +9567,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>562059.0915112555</v>
+        <v>561919.0664192269</v>
       </c>
       <c r="R78" t="n">
-        <v>7307368.992526292</v>
+        <v>7307212.891730816</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9649,7 +9640,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112037094</v>
+        <v>112037877</v>
       </c>
       <c r="B79" t="n">
         <v>77515</v>
@@ -9692,10 +9683,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>561968.3871263692</v>
+        <v>562085.128995252</v>
       </c>
       <c r="R79" t="n">
-        <v>7307262.663489194</v>
+        <v>7307453.045411141</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9765,10 +9756,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112037006</v>
+        <v>112037867</v>
       </c>
       <c r="B80" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9781,26 +9772,31 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
@@ -9808,10 +9804,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>561919.0664192269</v>
+        <v>562085.128995252</v>
       </c>
       <c r="R80" t="n">
-        <v>7307212.891730816</v>
+        <v>7307453.045411141</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9856,13 +9852,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9881,10 +9881,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112037773</v>
+        <v>112036981</v>
       </c>
       <c r="B81" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9897,21 +9897,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9924,10 +9924,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>562042.5094799057</v>
+        <v>561902.5679974818</v>
       </c>
       <c r="R81" t="n">
-        <v>7307415.697631201</v>
+        <v>7307274.745094148</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9997,10 +9997,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112037788</v>
+        <v>112037679</v>
       </c>
       <c r="B82" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10013,21 +10013,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10040,10 +10040,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>562039.0131688161</v>
+        <v>562115.5287905507</v>
       </c>
       <c r="R82" t="n">
-        <v>7307444.678754784</v>
+        <v>7307411.552107612</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10113,10 +10113,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112037679</v>
+        <v>112037094</v>
       </c>
       <c r="B83" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10129,21 +10129,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>562115.5287905507</v>
+        <v>561968.3871263692</v>
       </c>
       <c r="R83" t="n">
-        <v>7307411.552107612</v>
+        <v>7307262.663489194</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112036987</v>
+        <v>112037519</v>
       </c>
       <c r="B84" t="n">
         <v>89423</v>
@@ -10272,10 +10272,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>561902.5679974818</v>
+        <v>562059.0915112555</v>
       </c>
       <c r="R84" t="n">
-        <v>7307274.745094148</v>
+        <v>7307368.992526292</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10345,10 +10345,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112037372</v>
+        <v>112037653</v>
       </c>
       <c r="B85" t="n">
-        <v>89423</v>
+        <v>89845</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10357,25 +10357,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10388,10 +10388,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>561994.1200184894</v>
+        <v>562092.0326057856</v>
       </c>
       <c r="R85" t="n">
-        <v>7307379.862086881</v>
+        <v>7307380.347859782</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10461,10 +10461,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112045889</v>
+        <v>112045888</v>
       </c>
       <c r="B86" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10477,21 +10477,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10501,10 +10501,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>561897.2641743869</v>
+        <v>561908.2775088041</v>
       </c>
       <c r="R86" t="n">
-        <v>7307292.638358502</v>
+        <v>7307294.922941325</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10573,10 +10573,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112045895</v>
+        <v>112045883</v>
       </c>
       <c r="B87" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10585,25 +10585,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>561962.2810507246</v>
+        <v>561972.199092935</v>
       </c>
       <c r="R87" t="n">
-        <v>7307355.435386755</v>
+        <v>7307275.84283188</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10685,10 +10685,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112045894</v>
+        <v>112045877</v>
       </c>
       <c r="B88" t="n">
-        <v>89405</v>
+        <v>89401</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10701,21 +10701,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10725,10 +10725,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>561946.4775806502</v>
+        <v>561966.4920707772</v>
       </c>
       <c r="R88" t="n">
-        <v>7307347.317251688</v>
+        <v>7307274.491430026</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10770,7 +10770,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10797,10 +10797,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112045886</v>
+        <v>112045878</v>
       </c>
       <c r="B89" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10813,39 +10813,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>561825.7477039014</v>
+        <v>561966.4920707772</v>
       </c>
       <c r="R89" t="n">
-        <v>7307246.072283784</v>
+        <v>7307274.491430026</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10877,7 +10872,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10887,7 +10882,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10914,7 +10909,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112045878</v>
+        <v>112045894</v>
       </c>
       <c r="B90" t="n">
         <v>89405</v>
@@ -10954,10 +10949,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>561966.4920707772</v>
+        <v>561946.4775806502</v>
       </c>
       <c r="R90" t="n">
-        <v>7307274.491430026</v>
+        <v>7307347.317251688</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10989,7 +10984,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10999,7 +10994,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11026,10 +11021,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112045890</v>
+        <v>112045901</v>
       </c>
       <c r="B91" t="n">
-        <v>89423</v>
+        <v>89419</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11042,21 +11037,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11066,10 +11061,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>561896.3098358642</v>
+        <v>562030.260907584</v>
       </c>
       <c r="R91" t="n">
-        <v>7307279.930285611</v>
+        <v>7307432.620735778</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11101,7 +11096,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11111,7 +11106,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11138,10 +11133,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112045892</v>
+        <v>112045898</v>
       </c>
       <c r="B92" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11154,34 +11149,39 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>561896.0557901509</v>
+        <v>561991.8951490093</v>
       </c>
       <c r="R92" t="n">
-        <v>7307310.620094009</v>
+        <v>7307387.999063636</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11250,10 +11250,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112045900</v>
+        <v>112045892</v>
       </c>
       <c r="B93" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11266,21 +11266,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11290,10 +11290,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>562022.4606045906</v>
+        <v>561896.0557901509</v>
       </c>
       <c r="R93" t="n">
-        <v>7307414.444516678</v>
+        <v>7307310.620094009</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11362,10 +11362,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112045902</v>
+        <v>112045882</v>
       </c>
       <c r="B94" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11378,21 +11378,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562033.279910825</v>
+        <v>561971.3622907655</v>
       </c>
       <c r="R94" t="n">
-        <v>7307444.554464377</v>
+        <v>7307276.643258946</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11474,10 +11474,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112045893</v>
+        <v>112045895</v>
       </c>
       <c r="B95" t="n">
-        <v>76513</v>
+        <v>77515</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11490,21 +11490,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>314</v>
+        <v>6425</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11514,10 +11514,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>561896.8306256249</v>
+        <v>561962.2810507246</v>
       </c>
       <c r="R95" t="n">
-        <v>7307312.683194658</v>
+        <v>7307355.435386755</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11586,10 +11586,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112045885</v>
+        <v>112045903</v>
       </c>
       <c r="B96" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11602,34 +11602,39 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>561945.9662186772</v>
+        <v>562026.80906996</v>
       </c>
       <c r="R96" t="n">
-        <v>7307238.439993247</v>
+        <v>7307459.556420421</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11661,7 +11666,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11671,7 +11676,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11698,10 +11703,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112045882</v>
+        <v>112045889</v>
       </c>
       <c r="B97" t="n">
-        <v>89686</v>
+        <v>89401</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11714,21 +11719,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11738,10 +11743,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>561971.3622907655</v>
+        <v>561897.2641743869</v>
       </c>
       <c r="R97" t="n">
-        <v>7307276.643258946</v>
+        <v>7307292.638358502</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11773,7 +11778,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11783,7 +11788,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11810,10 +11815,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112045897</v>
+        <v>112045900</v>
       </c>
       <c r="B98" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11826,21 +11831,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11850,10 +11855,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>561955.381015217</v>
+        <v>562022.4606045906</v>
       </c>
       <c r="R98" t="n">
-        <v>7307352.421154647</v>
+        <v>7307414.444516678</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11885,7 +11890,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11895,7 +11900,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11922,10 +11927,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112045891</v>
+        <v>112045884</v>
       </c>
       <c r="B99" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11938,34 +11943,39 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>561885.8085055663</v>
+        <v>561944.0247344724</v>
       </c>
       <c r="R99" t="n">
-        <v>7307310.807745616</v>
+        <v>7307233.486615712</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11997,7 +12007,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12007,7 +12017,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12034,10 +12044,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112045880</v>
+        <v>112045885</v>
       </c>
       <c r="B100" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12046,25 +12056,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12074,10 +12084,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>561968.539784422</v>
+        <v>561945.9662186772</v>
       </c>
       <c r="R100" t="n">
-        <v>7307274.535769819</v>
+        <v>7307238.439993247</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12109,7 +12119,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12119,7 +12129,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12258,10 +12268,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112045899</v>
+        <v>112045876</v>
       </c>
       <c r="B102" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12274,39 +12284,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>562021.8632048024</v>
+        <v>561966.4920707772</v>
       </c>
       <c r="R102" t="n">
-        <v>7307404.200186137</v>
+        <v>7307274.491430026</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12338,7 +12343,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12348,7 +12353,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12375,10 +12380,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112045887</v>
+        <v>112045890</v>
       </c>
       <c r="B103" t="n">
-        <v>89845</v>
+        <v>89423</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12387,25 +12392,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12415,10 +12420,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>561864.4451530995</v>
+        <v>561896.3098358642</v>
       </c>
       <c r="R103" t="n">
-        <v>7307275.557820893</v>
+        <v>7307279.930285611</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12450,7 +12455,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12460,7 +12465,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12487,10 +12492,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112045896</v>
+        <v>112045887</v>
       </c>
       <c r="B104" t="n">
-        <v>76513</v>
+        <v>89845</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12499,25 +12504,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>314</v>
+        <v>1209</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12527,10 +12532,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>561957.5349522973</v>
+        <v>561864.4451530995</v>
       </c>
       <c r="R104" t="n">
-        <v>7307347.556627862</v>
+        <v>7307275.557820893</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12562,7 +12567,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12572,7 +12577,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12599,10 +12604,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112045901</v>
+        <v>112045893</v>
       </c>
       <c r="B105" t="n">
-        <v>89419</v>
+        <v>76513</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12615,21 +12620,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1204</v>
+        <v>314</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12639,10 +12644,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562030.260907584</v>
+        <v>561896.8306256249</v>
       </c>
       <c r="R105" t="n">
-        <v>7307432.620735778</v>
+        <v>7307312.683194658</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12674,7 +12679,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12684,7 +12689,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12711,10 +12716,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112045884</v>
+        <v>112045896</v>
       </c>
       <c r="B106" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12727,39 +12732,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>561944.0247344724</v>
+        <v>561957.5349522973</v>
       </c>
       <c r="R106" t="n">
-        <v>7307233.486615712</v>
+        <v>7307347.556627862</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12828,10 +12828,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112045883</v>
+        <v>112045899</v>
       </c>
       <c r="B107" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12840,38 +12840,43 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>561972.199092935</v>
+        <v>562021.8632048024</v>
       </c>
       <c r="R107" t="n">
-        <v>7307275.84283188</v>
+        <v>7307404.200186137</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12903,7 +12908,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12913,7 +12918,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12940,10 +12945,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112045876</v>
+        <v>112045902</v>
       </c>
       <c r="B108" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12956,21 +12961,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12980,10 +12985,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>561966.4920707772</v>
+        <v>562033.279910825</v>
       </c>
       <c r="R108" t="n">
-        <v>7307274.491430026</v>
+        <v>7307444.554464377</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13015,7 +13020,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -13025,7 +13030,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -13052,10 +13057,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112045877</v>
+        <v>112045880</v>
       </c>
       <c r="B109" t="n">
-        <v>89401</v>
+        <v>89845</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13064,25 +13069,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1108</v>
+        <v>1209</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13092,10 +13097,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>561966.4920707772</v>
+        <v>561968.539784422</v>
       </c>
       <c r="R109" t="n">
-        <v>7307274.491430026</v>
+        <v>7307274.535769819</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13164,10 +13169,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112045888</v>
+        <v>112045897</v>
       </c>
       <c r="B110" t="n">
-        <v>89423</v>
+        <v>73696</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13180,21 +13185,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13204,10 +13209,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>561908.2775088041</v>
+        <v>561955.381015217</v>
       </c>
       <c r="R110" t="n">
-        <v>7307294.922941325</v>
+        <v>7307352.421154647</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13239,7 +13244,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -13249,7 +13254,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -13276,10 +13281,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112045898</v>
+        <v>112045891</v>
       </c>
       <c r="B111" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13292,39 +13297,34 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P111" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>561991.8951490093</v>
+        <v>561885.8085055663</v>
       </c>
       <c r="R111" t="n">
-        <v>7307387.999063636</v>
+        <v>7307310.807745616</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -13366,7 +13366,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -13393,7 +13393,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112045903</v>
+        <v>112045886</v>
       </c>
       <c r="B112" t="n">
         <v>56398</v>
@@ -13429,7 +13429,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>562026.80906996</v>
+        <v>561825.7477039014</v>
       </c>
       <c r="R112" t="n">
-        <v>7307459.556420421</v>
+        <v>7307246.072283784</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD112" t="b">

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -12044,10 +12044,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112045885</v>
+        <v>112045881</v>
       </c>
       <c r="B100" t="n">
-        <v>89686</v>
+        <v>89419</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12060,21 +12060,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12084,10 +12084,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>561945.9662186772</v>
+        <v>561970.17795532</v>
       </c>
       <c r="R100" t="n">
-        <v>7307238.439993247</v>
+        <v>7307274.571242708</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12156,10 +12156,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112045881</v>
+        <v>112045885</v>
       </c>
       <c r="B101" t="n">
-        <v>89419</v>
+        <v>89686</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12172,21 +12172,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12196,10 +12196,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>561970.17795532</v>
+        <v>561945.9662186772</v>
       </c>
       <c r="R101" t="n">
-        <v>7307274.571242708</v>
+        <v>7307238.439993247</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD101" t="b">

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -3020,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111959819</v>
+        <v>111959834</v>
       </c>
       <c r="B22" t="n">
-        <v>89686</v>
+        <v>81248</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,21 +3036,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>658</v>
+        <v>1312</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3060,10 +3060,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>561894.5894852884</v>
+        <v>562008.8630139148</v>
       </c>
       <c r="R22" t="n">
-        <v>7307264.749940732</v>
+        <v>7307380.181510794</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111959826</v>
+        <v>111959831</v>
       </c>
       <c r="B23" t="n">
-        <v>89747</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3144,25 +3144,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2063</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>561996.1853811271</v>
+        <v>562008.8630139148</v>
       </c>
       <c r="R23" t="n">
-        <v>7307379.088311991</v>
+        <v>7307380.181510794</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3244,10 +3244,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111959810</v>
+        <v>111985426</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3260,34 +3260,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>561893.9245207607</v>
+        <v>562016.495064693</v>
       </c>
       <c r="R24" t="n">
-        <v>7307219.714951258</v>
+        <v>7307406.130124222</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3356,10 +3364,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111959830</v>
+        <v>111959833</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3372,21 +3380,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3396,10 +3404,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>561915.494732538</v>
+        <v>562008.043958648</v>
       </c>
       <c r="R25" t="n">
-        <v>7307340.098521601</v>
+        <v>7307380.163763028</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3468,10 +3476,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111985429</v>
+        <v>111959821</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>77597</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3484,42 +3492,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>561821.7229337355</v>
+        <v>561961.5682746068</v>
       </c>
       <c r="R26" t="n">
-        <v>7307242.711117714</v>
+        <v>7307350.508798505</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111959827</v>
+        <v>111959829</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3604,21 +3604,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3628,10 +3628,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>561870.4005339409</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R27" t="n">
-        <v>7307208.564956765</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111959828</v>
+        <v>111959822</v>
       </c>
       <c r="B28" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3716,21 +3716,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3740,10 +3740,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>561996.2119675929</v>
+        <v>561870.4005339409</v>
       </c>
       <c r="R28" t="n">
-        <v>7307377.861109382</v>
+        <v>7307208.564956765</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3812,10 +3812,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111985426</v>
+        <v>111959819</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3828,42 +3828,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562016.495064693</v>
+        <v>561894.5894852884</v>
       </c>
       <c r="R29" t="n">
-        <v>7307406.130124222</v>
+        <v>7307264.749940732</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3932,10 +3924,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111959815</v>
+        <v>111959820</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>77597</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3948,42 +3940,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562013.8588788129</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R30" t="n">
-        <v>7307395.432326685</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4052,10 +4036,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111959823</v>
+        <v>111985427</v>
       </c>
       <c r="B31" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4068,34 +4052,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562015.4100685909</v>
+        <v>562013.8588788129</v>
       </c>
       <c r="R31" t="n">
-        <v>7307418.384256175</v>
+        <v>7307395.432326685</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4164,10 +4156,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111985424</v>
+        <v>111959809</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4180,42 +4172,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561894.5894852884</v>
+        <v>561926.5963924478</v>
       </c>
       <c r="R32" t="n">
-        <v>7307264.749940732</v>
+        <v>7307338.29241254</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4284,7 +4268,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111959825</v>
+        <v>111959826</v>
       </c>
       <c r="B33" t="n">
         <v>89747</v>
@@ -4324,10 +4308,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561809.3860941484</v>
+        <v>561996.1853811271</v>
       </c>
       <c r="R33" t="n">
-        <v>7307206.837266683</v>
+        <v>7307379.088311991</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4396,10 +4380,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111959818</v>
+        <v>111985429</v>
       </c>
       <c r="B34" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4412,34 +4396,42 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561893.9245207607</v>
+        <v>561821.7229337355</v>
       </c>
       <c r="R34" t="n">
-        <v>7307219.714951258</v>
+        <v>7307242.711117714</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4508,10 +4500,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111985428</v>
+        <v>111959810</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4524,42 +4516,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561915.5212843259</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R35" t="n">
-        <v>7307338.871302457</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4628,10 +4612,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111959824</v>
+        <v>111959823</v>
       </c>
       <c r="B36" t="n">
-        <v>89419</v>
+        <v>89401</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4644,21 +4628,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4668,10 +4652,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>561944.3590813032</v>
+        <v>562015.4100685909</v>
       </c>
       <c r="R36" t="n">
-        <v>7307350.545501226</v>
+        <v>7307418.384256175</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4740,10 +4724,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111959822</v>
+        <v>111959832</v>
       </c>
       <c r="B37" t="n">
-        <v>89401</v>
+        <v>81248</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4756,21 +4740,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1108</v>
+        <v>1312</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4780,10 +4764,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>561870.4005339409</v>
+        <v>561915.5212843259</v>
       </c>
       <c r="R37" t="n">
-        <v>7307208.564956765</v>
+        <v>7307338.871302457</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4964,10 +4948,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111959834</v>
+        <v>111985428</v>
       </c>
       <c r="B39" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4980,34 +4964,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>562008.8630139148</v>
+        <v>561915.5212843259</v>
       </c>
       <c r="R39" t="n">
-        <v>7307380.181510794</v>
+        <v>7307338.871302457</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -5076,10 +5068,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111959832</v>
+        <v>111959830</v>
       </c>
       <c r="B40" t="n">
-        <v>81248</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5092,21 +5084,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5116,10 +5108,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>561915.5212843259</v>
+        <v>561915.494732538</v>
       </c>
       <c r="R40" t="n">
-        <v>7307338.871302457</v>
+        <v>7307340.098521601</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5188,10 +5180,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111959809</v>
+        <v>111959827</v>
       </c>
       <c r="B41" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5204,21 +5196,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5228,10 +5220,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>561926.5963924478</v>
+        <v>561870.4005339409</v>
       </c>
       <c r="R41" t="n">
-        <v>7307338.29241254</v>
+        <v>7307208.564956765</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5300,10 +5292,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111959831</v>
+        <v>111959825</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>89747</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5312,25 +5304,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>2063</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5340,10 +5332,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>562008.8630139148</v>
+        <v>561809.3860941484</v>
       </c>
       <c r="R42" t="n">
-        <v>7307380.181510794</v>
+        <v>7307206.837266683</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5412,10 +5404,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111985425</v>
+        <v>111959818</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5428,42 +5420,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>561986.2927539641</v>
+        <v>561893.9245207607</v>
       </c>
       <c r="R43" t="n">
-        <v>7307362.912851273</v>
+        <v>7307219.714951258</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5532,10 +5516,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111959829</v>
+        <v>111959828</v>
       </c>
       <c r="B44" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5548,21 +5532,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5572,10 +5556,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>561893.9245207607</v>
+        <v>561996.2119675929</v>
       </c>
       <c r="R44" t="n">
-        <v>7307219.714951258</v>
+        <v>7307377.861109382</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5644,10 +5628,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111959820</v>
+        <v>111959824</v>
       </c>
       <c r="B45" t="n">
-        <v>77597</v>
+        <v>89419</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5660,21 +5644,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>864</v>
+        <v>1204</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5684,10 +5668,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>561893.9245207607</v>
+        <v>561944.3590813032</v>
       </c>
       <c r="R45" t="n">
-        <v>7307219.714951258</v>
+        <v>7307350.545501226</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5756,10 +5740,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111959821</v>
+        <v>111985425</v>
       </c>
       <c r="B46" t="n">
-        <v>77597</v>
+        <v>56398</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5772,34 +5756,42 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>561961.5682746068</v>
+        <v>561986.2927539641</v>
       </c>
       <c r="R46" t="n">
-        <v>7307350.508798505</v>
+        <v>7307362.912851273</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5868,10 +5860,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111959833</v>
+        <v>111985424</v>
       </c>
       <c r="B47" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5884,34 +5876,42 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>562008.043958648</v>
+        <v>561894.5894852884</v>
       </c>
       <c r="R47" t="n">
-        <v>7307380.163763028</v>
+        <v>7307264.749940732</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112037006</v>
+        <v>112036972</v>
       </c>
       <c r="B48" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5996,26 +5996,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6023,10 +6028,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>561919.0664192269</v>
+        <v>561902.5679974818</v>
       </c>
       <c r="R48" t="n">
-        <v>7307212.891730816</v>
+        <v>7307274.745094148</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6071,13 +6076,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6096,10 +6105,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112036871</v>
+        <v>112037401</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6112,28 +6121,29 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -6143,10 +6153,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>561834.0063889065</v>
+        <v>561987.7112743729</v>
       </c>
       <c r="R49" t="n">
-        <v>7307224.149654636</v>
+        <v>7307392.001010323</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6193,7 +6203,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Drapperad gran</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6202,7 +6212,6 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6221,10 +6230,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112037760</v>
+        <v>112037519</v>
       </c>
       <c r="B50" t="n">
-        <v>89747</v>
+        <v>89423</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6233,25 +6242,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2063</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6264,10 +6273,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>562042.5094799057</v>
+        <v>562059.0915112555</v>
       </c>
       <c r="R50" t="n">
-        <v>7307415.697631201</v>
+        <v>7307368.992526292</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6337,10 +6346,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112036972</v>
+        <v>112037788</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6353,31 +6362,26 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6385,10 +6389,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>561902.5679974818</v>
+        <v>562039.0131688161</v>
       </c>
       <c r="R51" t="n">
-        <v>7307274.745094148</v>
+        <v>7307444.678754784</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6433,17 +6437,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6462,10 +6462,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112037150</v>
+        <v>112037088</v>
       </c>
       <c r="B52" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6474,25 +6474,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6505,10 +6505,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>561921.6442163675</v>
+        <v>561968.3871263692</v>
       </c>
       <c r="R52" t="n">
-        <v>7307320.996082182</v>
+        <v>7307262.663489194</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6578,10 +6578,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112037831</v>
+        <v>112037509</v>
       </c>
       <c r="B53" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6594,21 +6594,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6621,10 +6621,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>562126.1340000186</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R53" t="n">
-        <v>7307451.479852177</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6667,6 +6667,11 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6694,10 +6699,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112037492</v>
+        <v>112037094</v>
       </c>
       <c r="B54" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6710,21 +6715,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6737,10 +6742,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>562072.3547891638</v>
+        <v>561968.3871263692</v>
       </c>
       <c r="R54" t="n">
-        <v>7307343.087340415</v>
+        <v>7307262.663489194</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6810,10 +6815,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112037825</v>
+        <v>112037653</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6822,25 +6827,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6853,10 +6858,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>562126.1340000186</v>
+        <v>562092.0326057856</v>
       </c>
       <c r="R55" t="n">
-        <v>7307451.479852177</v>
+        <v>7307380.347859782</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6926,10 +6931,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112037088</v>
+        <v>112037075</v>
       </c>
       <c r="B56" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6942,26 +6947,31 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -6969,10 +6979,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>561968.3871263692</v>
+        <v>561980.8929629655</v>
       </c>
       <c r="R56" t="n">
-        <v>7307262.663489194</v>
+        <v>7307233.875576395</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7017,13 +7027,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7042,10 +7056,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112036987</v>
+        <v>112037867</v>
       </c>
       <c r="B57" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7058,26 +7072,31 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7085,10 +7104,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>561902.5679974818</v>
+        <v>562085.128995252</v>
       </c>
       <c r="R57" t="n">
-        <v>7307274.745094148</v>
+        <v>7307453.045411141</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7133,13 +7152,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7158,10 +7181,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112037796</v>
+        <v>112037501</v>
       </c>
       <c r="B58" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7174,21 +7197,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7201,10 +7224,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>562039.0131688161</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R58" t="n">
-        <v>7307444.678754784</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7274,10 +7297,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112037496</v>
+        <v>112036987</v>
       </c>
       <c r="B59" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7290,21 +7313,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7317,10 +7340,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>562072.3547891638</v>
+        <v>561902.5679974818</v>
       </c>
       <c r="R59" t="n">
-        <v>7307343.087340415</v>
+        <v>7307274.745094148</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7390,10 +7413,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112037401</v>
+        <v>112037679</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7406,31 +7429,26 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7438,10 +7456,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>561987.7112743729</v>
+        <v>562115.5287905507</v>
       </c>
       <c r="R60" t="n">
-        <v>7307392.001010323</v>
+        <v>7307411.552107612</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7486,17 +7504,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7515,10 +7529,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112037372</v>
+        <v>112037831</v>
       </c>
       <c r="B61" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7531,21 +7545,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7558,10 +7572,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>561994.1200184894</v>
+        <v>562126.1340000186</v>
       </c>
       <c r="R61" t="n">
-        <v>7307379.862086881</v>
+        <v>7307451.479852177</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7631,10 +7645,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112037714</v>
+        <v>112037108</v>
       </c>
       <c r="B62" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7647,21 +7661,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7674,10 +7688,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>562073.5976993492</v>
+        <v>561975.5463062958</v>
       </c>
       <c r="R62" t="n">
-        <v>7307418.008835915</v>
+        <v>7307272.641123712</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7720,11 +7734,6 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7868,10 +7877,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112037585</v>
+        <v>112037825</v>
       </c>
       <c r="B64" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7884,21 +7893,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7911,10 +7920,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>562059.0915112555</v>
+        <v>562126.1340000186</v>
       </c>
       <c r="R64" t="n">
-        <v>7307368.992526292</v>
+        <v>7307451.479852177</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7984,10 +7993,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112037927</v>
+        <v>112037006</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8000,31 +8009,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8032,10 +8036,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>562084.6675010478</v>
+        <v>561919.0664192269</v>
       </c>
       <c r="R65" t="n">
-        <v>7307474.316293915</v>
+        <v>7307212.891730816</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8080,17 +8084,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112037075</v>
+        <v>112037188</v>
       </c>
       <c r="B66" t="n">
         <v>56398</v>
@@ -8157,10 +8157,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>561980.8929629655</v>
+        <v>561921.6442163675</v>
       </c>
       <c r="R66" t="n">
-        <v>7307233.875576395</v>
+        <v>7307320.996082182</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8234,10 +8234,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112037509</v>
+        <v>112037372</v>
       </c>
       <c r="B67" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8250,21 +8250,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8277,10 +8277,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>562072.3547891638</v>
+        <v>561994.1200184894</v>
       </c>
       <c r="R67" t="n">
-        <v>7307343.087340415</v>
+        <v>7307379.862086881</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8323,11 +8323,6 @@
       <c r="AB67" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8355,10 +8350,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112036996</v>
+        <v>112036981</v>
       </c>
       <c r="B68" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8371,21 +8366,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8398,10 +8393,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>561919.0664192269</v>
+        <v>561902.5679974818</v>
       </c>
       <c r="R68" t="n">
-        <v>7307212.891730816</v>
+        <v>7307274.745094148</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8471,10 +8466,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112037188</v>
+        <v>112037150</v>
       </c>
       <c r="B69" t="n">
-        <v>56398</v>
+        <v>89845</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8483,35 +8478,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -8567,17 +8557,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8596,10 +8582,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112037108</v>
+        <v>112036938</v>
       </c>
       <c r="B70" t="n">
-        <v>89686</v>
+        <v>89419</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8612,21 +8598,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8639,10 +8625,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>561975.5463062958</v>
+        <v>561846.4224085368</v>
       </c>
       <c r="R70" t="n">
-        <v>7307272.641123712</v>
+        <v>7307256.341643833</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8712,10 +8698,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112036909</v>
+        <v>112037714</v>
       </c>
       <c r="B71" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8728,21 +8714,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8755,10 +8741,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>561846.4224085368</v>
+        <v>562073.5976993492</v>
       </c>
       <c r="R71" t="n">
-        <v>7307256.341643833</v>
+        <v>7307418.008835915</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8801,6 +8787,11 @@
       <c r="AB71" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8828,10 +8819,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112037172</v>
+        <v>112037492</v>
       </c>
       <c r="B72" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8844,21 +8835,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8871,10 +8862,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>561921.6442163675</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R72" t="n">
-        <v>7307320.996082182</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8944,10 +8935,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112037788</v>
+        <v>112037364</v>
       </c>
       <c r="B73" t="n">
-        <v>77515</v>
+        <v>89747</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8956,25 +8947,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>2063</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8987,10 +8978,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>562039.0131688161</v>
+        <v>561994.1200184894</v>
       </c>
       <c r="R73" t="n">
-        <v>7307444.678754784</v>
+        <v>7307379.862086881</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9060,10 +9051,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112037773</v>
+        <v>112037877</v>
       </c>
       <c r="B74" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9076,21 +9067,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9103,10 +9094,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>562042.5094799057</v>
+        <v>562085.128995252</v>
       </c>
       <c r="R74" t="n">
-        <v>7307415.697631201</v>
+        <v>7307453.045411141</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9176,10 +9167,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112036938</v>
+        <v>112036909</v>
       </c>
       <c r="B75" t="n">
-        <v>89419</v>
+        <v>89686</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9192,21 +9183,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9292,10 +9283,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112037364</v>
+        <v>112037796</v>
       </c>
       <c r="B76" t="n">
-        <v>89747</v>
+        <v>89423</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9304,25 +9295,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2063</v>
+        <v>5432</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9335,10 +9326,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>561994.1200184894</v>
+        <v>562039.0131688161</v>
       </c>
       <c r="R76" t="n">
-        <v>7307379.862086881</v>
+        <v>7307444.678754784</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9408,10 +9399,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112037501</v>
+        <v>112037760</v>
       </c>
       <c r="B77" t="n">
-        <v>89401</v>
+        <v>89747</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9420,25 +9411,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1108</v>
+        <v>2063</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9451,10 +9442,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562072.3547891638</v>
+        <v>562042.5094799057</v>
       </c>
       <c r="R77" t="n">
-        <v>7307343.087340415</v>
+        <v>7307415.697631201</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9524,10 +9515,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112037000</v>
+        <v>112037927</v>
       </c>
       <c r="B78" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9540,26 +9531,31 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -9567,10 +9563,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>561919.0664192269</v>
+        <v>562084.6675010478</v>
       </c>
       <c r="R78" t="n">
-        <v>7307212.891730816</v>
+        <v>7307474.316293915</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9615,13 +9611,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD78" t="b">
         <v>0</v>
       </c>
       <c r="AE78" t="b">
         <v>0</v>
       </c>
-      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
@@ -9640,7 +9640,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112037877</v>
+        <v>112037172</v>
       </c>
       <c r="B79" t="n">
         <v>77515</v>
@@ -9683,10 +9683,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>562085.128995252</v>
+        <v>561921.6442163675</v>
       </c>
       <c r="R79" t="n">
-        <v>7307453.045411141</v>
+        <v>7307320.996082182</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112037867</v>
+        <v>112036996</v>
       </c>
       <c r="B80" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9772,31 +9772,26 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
@@ -9804,10 +9799,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>562085.128995252</v>
+        <v>561919.0664192269</v>
       </c>
       <c r="R80" t="n">
-        <v>7307453.045411141</v>
+        <v>7307212.891730816</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9852,17 +9847,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9881,10 +9872,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112036981</v>
+        <v>112036871</v>
       </c>
       <c r="B81" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9897,26 +9888,30 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
@@ -9924,10 +9919,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>561902.5679974818</v>
+        <v>561834.0063889065</v>
       </c>
       <c r="R81" t="n">
-        <v>7307274.745094148</v>
+        <v>7307224.149654636</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9970,6 +9965,11 @@
       <c r="AB81" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9997,10 +9997,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112037679</v>
+        <v>112037000</v>
       </c>
       <c r="B82" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10013,21 +10013,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10040,10 +10040,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>562115.5287905507</v>
+        <v>561919.0664192269</v>
       </c>
       <c r="R82" t="n">
-        <v>7307411.552107612</v>
+        <v>7307212.891730816</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10113,7 +10113,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112037094</v>
+        <v>112037585</v>
       </c>
       <c r="B83" t="n">
         <v>77515</v>
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>561968.3871263692</v>
+        <v>562059.0915112555</v>
       </c>
       <c r="R83" t="n">
-        <v>7307262.663489194</v>
+        <v>7307368.992526292</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112037519</v>
+        <v>112037773</v>
       </c>
       <c r="B84" t="n">
         <v>89423</v>
@@ -10272,10 +10272,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>562059.0915112555</v>
+        <v>562042.5094799057</v>
       </c>
       <c r="R84" t="n">
-        <v>7307368.992526292</v>
+        <v>7307415.697631201</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10345,10 +10345,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112037653</v>
+        <v>112037496</v>
       </c>
       <c r="B85" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10357,25 +10357,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10388,10 +10388,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>562092.0326057856</v>
+        <v>562072.3547891638</v>
       </c>
       <c r="R85" t="n">
-        <v>7307380.347859782</v>
+        <v>7307343.087340415</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10461,10 +10461,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112045888</v>
+        <v>112045902</v>
       </c>
       <c r="B86" t="n">
-        <v>89423</v>
+        <v>73696</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10477,21 +10477,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10501,10 +10501,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>561908.2775088041</v>
+        <v>562033.279910825</v>
       </c>
       <c r="R86" t="n">
-        <v>7307294.922941325</v>
+        <v>7307444.554464377</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10573,10 +10573,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112045883</v>
+        <v>112045876</v>
       </c>
       <c r="B87" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10585,25 +10585,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>561972.199092935</v>
+        <v>561966.4920707772</v>
       </c>
       <c r="R87" t="n">
-        <v>7307275.84283188</v>
+        <v>7307274.491430026</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10685,10 +10685,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112045877</v>
+        <v>112045888</v>
       </c>
       <c r="B88" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10701,21 +10701,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10725,10 +10725,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>561966.4920707772</v>
+        <v>561908.2775088041</v>
       </c>
       <c r="R88" t="n">
-        <v>7307274.491430026</v>
+        <v>7307294.922941325</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10770,7 +10770,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10797,10 +10797,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112045878</v>
+        <v>112045885</v>
       </c>
       <c r="B89" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10813,21 +10813,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10837,10 +10837,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>561966.4920707772</v>
+        <v>561945.9662186772</v>
       </c>
       <c r="R89" t="n">
-        <v>7307274.491430026</v>
+        <v>7307238.439993247</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10872,7 +10872,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10882,7 +10882,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10909,10 +10909,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112045894</v>
+        <v>112045897</v>
       </c>
       <c r="B90" t="n">
-        <v>89405</v>
+        <v>73696</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10925,21 +10925,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10949,10 +10949,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>561946.4775806502</v>
+        <v>561955.381015217</v>
       </c>
       <c r="R90" t="n">
-        <v>7307347.317251688</v>
+        <v>7307352.421154647</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10984,7 +10984,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10994,7 +10994,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11021,10 +11021,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112045901</v>
+        <v>112045895</v>
       </c>
       <c r="B91" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11037,21 +11037,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11061,10 +11061,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>562030.260907584</v>
+        <v>561962.2810507246</v>
       </c>
       <c r="R91" t="n">
-        <v>7307432.620735778</v>
+        <v>7307355.435386755</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11096,7 +11096,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11106,7 +11106,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11133,7 +11133,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112045898</v>
+        <v>112045903</v>
       </c>
       <c r="B92" t="n">
         <v>56398</v>
@@ -11169,7 +11169,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -11178,10 +11178,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>561991.8951490093</v>
+        <v>562026.80906996</v>
       </c>
       <c r="R92" t="n">
-        <v>7307387.999063636</v>
+        <v>7307459.556420421</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11250,10 +11250,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112045892</v>
+        <v>112045878</v>
       </c>
       <c r="B93" t="n">
-        <v>73696</v>
+        <v>89405</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11266,21 +11266,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11290,10 +11290,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>561896.0557901509</v>
+        <v>561966.4920707772</v>
       </c>
       <c r="R93" t="n">
-        <v>7307310.620094009</v>
+        <v>7307274.491430026</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11362,10 +11362,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112045882</v>
+        <v>112045890</v>
       </c>
       <c r="B94" t="n">
-        <v>89686</v>
+        <v>89423</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11378,21 +11378,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>561971.3622907655</v>
+        <v>561896.3098358642</v>
       </c>
       <c r="R94" t="n">
-        <v>7307276.643258946</v>
+        <v>7307279.930285611</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11474,10 +11474,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112045895</v>
+        <v>112045894</v>
       </c>
       <c r="B95" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11490,21 +11490,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11514,10 +11514,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>561962.2810507246</v>
+        <v>561946.4775806502</v>
       </c>
       <c r="R95" t="n">
-        <v>7307355.435386755</v>
+        <v>7307347.317251688</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11586,10 +11586,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112045903</v>
+        <v>112045893</v>
       </c>
       <c r="B96" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11602,39 +11602,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>562026.80906996</v>
+        <v>561896.8306256249</v>
       </c>
       <c r="R96" t="n">
-        <v>7307459.556420421</v>
+        <v>7307312.683194658</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11666,7 +11661,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11676,7 +11671,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11815,10 +11810,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112045900</v>
+        <v>112045880</v>
       </c>
       <c r="B98" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11827,25 +11822,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11855,10 +11850,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562022.4606045906</v>
+        <v>561968.539784422</v>
       </c>
       <c r="R98" t="n">
-        <v>7307414.444516678</v>
+        <v>7307274.535769819</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11890,7 +11885,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11900,7 +11895,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11927,10 +11922,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112045884</v>
+        <v>112045881</v>
       </c>
       <c r="B99" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11943,39 +11938,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>561944.0247344724</v>
+        <v>561970.17795532</v>
       </c>
       <c r="R99" t="n">
-        <v>7307233.486615712</v>
+        <v>7307274.571242708</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12007,7 +11997,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12017,7 +12007,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12044,10 +12034,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112045881</v>
+        <v>112045887</v>
       </c>
       <c r="B100" t="n">
-        <v>89419</v>
+        <v>89845</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12056,25 +12046,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12084,10 +12074,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>561970.17795532</v>
+        <v>561864.4451530995</v>
       </c>
       <c r="R100" t="n">
-        <v>7307274.571242708</v>
+        <v>7307275.557820893</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12119,7 +12109,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12129,7 +12119,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12156,7 +12146,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112045885</v>
+        <v>112045891</v>
       </c>
       <c r="B101" t="n">
         <v>89686</v>
@@ -12196,10 +12186,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>561945.9662186772</v>
+        <v>561885.8085055663</v>
       </c>
       <c r="R101" t="n">
-        <v>7307238.439993247</v>
+        <v>7307310.807745616</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12231,7 +12221,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12241,7 +12231,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12268,10 +12258,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112045876</v>
+        <v>112045898</v>
       </c>
       <c r="B102" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12284,34 +12274,39 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>561966.4920707772</v>
+        <v>561991.8951490093</v>
       </c>
       <c r="R102" t="n">
-        <v>7307274.491430026</v>
+        <v>7307387.999063636</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12343,7 +12338,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12353,7 +12348,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12380,10 +12375,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112045890</v>
+        <v>112045877</v>
       </c>
       <c r="B103" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12396,21 +12391,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12420,10 +12415,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>561896.3098358642</v>
+        <v>561966.4920707772</v>
       </c>
       <c r="R103" t="n">
-        <v>7307279.930285611</v>
+        <v>7307274.491430026</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12455,7 +12450,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12465,7 +12460,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12492,10 +12487,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112045887</v>
+        <v>112045884</v>
       </c>
       <c r="B104" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12504,38 +12499,43 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P104" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>561864.4451530995</v>
+        <v>561944.0247344724</v>
       </c>
       <c r="R104" t="n">
-        <v>7307275.557820893</v>
+        <v>7307233.486615712</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12567,7 +12567,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12577,7 +12577,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12604,10 +12604,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112045893</v>
+        <v>112045886</v>
       </c>
       <c r="B105" t="n">
-        <v>76513</v>
+        <v>56398</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12620,34 +12620,39 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>561896.8306256249</v>
+        <v>561825.7477039014</v>
       </c>
       <c r="R105" t="n">
-        <v>7307312.683194658</v>
+        <v>7307246.072283784</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12679,7 +12684,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12689,7 +12694,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12828,10 +12833,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112045899</v>
+        <v>112045892</v>
       </c>
       <c r="B107" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12844,39 +12849,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>562021.8632048024</v>
+        <v>561896.0557901509</v>
       </c>
       <c r="R107" t="n">
-        <v>7307404.200186137</v>
+        <v>7307310.620094009</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12918,7 +12918,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12945,10 +12945,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112045902</v>
+        <v>112045882</v>
       </c>
       <c r="B108" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12961,21 +12961,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12985,10 +12985,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>562033.279910825</v>
+        <v>561971.3622907655</v>
       </c>
       <c r="R108" t="n">
-        <v>7307444.554464377</v>
+        <v>7307276.643258946</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -13057,10 +13057,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112045880</v>
+        <v>112045900</v>
       </c>
       <c r="B109" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13069,25 +13069,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13097,10 +13097,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>561968.539784422</v>
+        <v>562022.4606045906</v>
       </c>
       <c r="R109" t="n">
-        <v>7307274.535769819</v>
+        <v>7307414.444516678</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13132,7 +13132,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -13169,10 +13169,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112045897</v>
+        <v>112045899</v>
       </c>
       <c r="B110" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13185,34 +13185,39 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P110" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>561955.381015217</v>
+        <v>562021.8632048024</v>
       </c>
       <c r="R110" t="n">
-        <v>7307352.421154647</v>
+        <v>7307404.200186137</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13244,7 +13249,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -13254,7 +13259,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -13281,10 +13286,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112045891</v>
+        <v>112045901</v>
       </c>
       <c r="B111" t="n">
-        <v>89686</v>
+        <v>89419</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13297,21 +13302,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13321,10 +13326,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>561885.8085055663</v>
+        <v>562030.260907584</v>
       </c>
       <c r="R111" t="n">
-        <v>7307310.807745616</v>
+        <v>7307432.620735778</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13356,7 +13361,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -13366,7 +13371,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -13393,10 +13398,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112045886</v>
+        <v>112045883</v>
       </c>
       <c r="B112" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13405,43 +13410,38 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P112" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>561825.7477039014</v>
+        <v>561972.199092935</v>
       </c>
       <c r="R112" t="n">
-        <v>7307246.072283784</v>
+        <v>7307275.84283188</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD112" t="b">

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -3020,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111959834</v>
+        <v>111985426</v>
       </c>
       <c r="B22" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,34 +3036,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562008.8630139148</v>
+        <v>562016</v>
       </c>
       <c r="R22" t="n">
-        <v>7307380.181510794</v>
+        <v>7307406</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3093,19 +3101,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3132,10 +3130,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111959831</v>
+        <v>111985428</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3148,34 +3146,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562008.8630139148</v>
+        <v>561916</v>
       </c>
       <c r="R23" t="n">
-        <v>7307380.181510794</v>
+        <v>7307339</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3205,19 +3211,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3244,10 +3240,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111985426</v>
+        <v>111959824</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3260,42 +3256,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562016.495064693</v>
+        <v>561944</v>
       </c>
       <c r="R24" t="n">
-        <v>7307406.130124222</v>
+        <v>7307351</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3325,19 +3313,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3364,7 +3342,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111959833</v>
+        <v>111959834</v>
       </c>
       <c r="B25" t="n">
         <v>81248</v>
@@ -3404,10 +3382,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562008.043958648</v>
+        <v>562009</v>
       </c>
       <c r="R25" t="n">
-        <v>7307380.163763028</v>
+        <v>7307380</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3437,19 +3415,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3476,10 +3444,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111959821</v>
+        <v>111985425</v>
       </c>
       <c r="B26" t="n">
-        <v>77597</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3492,34 +3460,42 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>561961.5682746068</v>
+        <v>561986</v>
       </c>
       <c r="R26" t="n">
-        <v>7307350.508798505</v>
+        <v>7307363</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3549,19 +3525,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3588,10 +3554,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111959829</v>
+        <v>111959821</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>77597</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3604,21 +3570,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3628,10 +3594,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>561893.9245207607</v>
+        <v>561962</v>
       </c>
       <c r="R27" t="n">
-        <v>7307219.714951258</v>
+        <v>7307351</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3661,19 +3627,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3700,10 +3656,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111959822</v>
+        <v>111959809</v>
       </c>
       <c r="B28" t="n">
-        <v>89401</v>
+        <v>73696</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3716,21 +3672,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3740,10 +3696,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>561870.4005339409</v>
+        <v>561927</v>
       </c>
       <c r="R28" t="n">
-        <v>7307208.564956765</v>
+        <v>7307338</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3773,19 +3729,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3812,10 +3758,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111959819</v>
+        <v>111959829</v>
       </c>
       <c r="B29" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3828,21 +3774,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3852,10 +3798,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>561894.5894852884</v>
+        <v>561894</v>
       </c>
       <c r="R29" t="n">
-        <v>7307264.749940732</v>
+        <v>7307220</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3885,19 +3831,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3924,10 +3860,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111959820</v>
+        <v>111959831</v>
       </c>
       <c r="B30" t="n">
-        <v>77597</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3940,21 +3876,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3964,10 +3900,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561893.9245207607</v>
+        <v>562009</v>
       </c>
       <c r="R30" t="n">
-        <v>7307219.714951258</v>
+        <v>7307380</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3997,19 +3933,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4036,10 +3962,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111985427</v>
+        <v>111959822</v>
       </c>
       <c r="B31" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4052,42 +3978,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562013.8588788129</v>
+        <v>561870</v>
       </c>
       <c r="R31" t="n">
-        <v>7307395.432326685</v>
+        <v>7307209</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4117,19 +4035,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4156,10 +4064,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111959809</v>
+        <v>111959819</v>
       </c>
       <c r="B32" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4172,21 +4080,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4196,10 +4104,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561926.5963924478</v>
+        <v>561895</v>
       </c>
       <c r="R32" t="n">
-        <v>7307338.29241254</v>
+        <v>7307265</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4229,19 +4137,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4268,10 +4166,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111959826</v>
+        <v>111985427</v>
       </c>
       <c r="B33" t="n">
-        <v>89747</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4280,38 +4178,46 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561996.1853811271</v>
+        <v>562014</v>
       </c>
       <c r="R33" t="n">
-        <v>7307379.088311991</v>
+        <v>7307395</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4341,19 +4247,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4380,10 +4276,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111985429</v>
+        <v>111959811</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4396,42 +4292,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561821.7229337355</v>
+        <v>561896</v>
       </c>
       <c r="R34" t="n">
-        <v>7307242.711117714</v>
+        <v>7307298</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4461,19 +4349,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4540,10 +4418,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561893.9245207607</v>
+        <v>561894</v>
       </c>
       <c r="R35" t="n">
-        <v>7307219.714951258</v>
+        <v>7307220</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4573,19 +4451,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4612,10 +4480,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111959823</v>
+        <v>111959828</v>
       </c>
       <c r="B36" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4628,21 +4496,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4652,10 +4520,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>562015.4100685909</v>
+        <v>561996</v>
       </c>
       <c r="R36" t="n">
-        <v>7307418.384256175</v>
+        <v>7307378</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4685,19 +4553,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4724,10 +4582,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111959832</v>
+        <v>111959823</v>
       </c>
       <c r="B37" t="n">
-        <v>81248</v>
+        <v>89401</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4740,21 +4598,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1312</v>
+        <v>1108</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4764,10 +4622,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>561915.5212843259</v>
+        <v>562015</v>
       </c>
       <c r="R37" t="n">
-        <v>7307338.871302457</v>
+        <v>7307418</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4797,19 +4655,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4836,10 +4684,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111959811</v>
+        <v>111959820</v>
       </c>
       <c r="B38" t="n">
-        <v>89405</v>
+        <v>77597</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4852,21 +4700,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>864</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4876,10 +4724,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>561895.9205330141</v>
+        <v>561894</v>
       </c>
       <c r="R38" t="n">
-        <v>7307297.929816466</v>
+        <v>7307220</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4909,19 +4757,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4948,10 +4786,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111985428</v>
+        <v>111959825</v>
       </c>
       <c r="B39" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4960,46 +4798,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>561915.5212843259</v>
+        <v>561809</v>
       </c>
       <c r="R39" t="n">
-        <v>7307338.871302457</v>
+        <v>7307207</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -5029,19 +4859,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5068,10 +4888,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111959830</v>
+        <v>111985424</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5084,34 +4904,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>561915.494732538</v>
+        <v>561895</v>
       </c>
       <c r="R40" t="n">
-        <v>7307340.098521601</v>
+        <v>7307265</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5141,19 +4969,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5180,10 +4998,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111959827</v>
+        <v>111959818</v>
       </c>
       <c r="B41" t="n">
-        <v>89423</v>
+        <v>89686</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5196,21 +5014,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5220,10 +5038,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>561870.4005339409</v>
+        <v>561894</v>
       </c>
       <c r="R41" t="n">
-        <v>7307208.564956765</v>
+        <v>7307220</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5253,19 +5071,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5292,10 +5100,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111959825</v>
+        <v>111985429</v>
       </c>
       <c r="B42" t="n">
-        <v>89747</v>
+        <v>56398</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5304,38 +5112,46 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>561809.3860941484</v>
+        <v>561822</v>
       </c>
       <c r="R42" t="n">
-        <v>7307206.837266683</v>
+        <v>7307243</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5365,19 +5181,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5404,10 +5210,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111959818</v>
+        <v>111959826</v>
       </c>
       <c r="B43" t="n">
-        <v>89686</v>
+        <v>89747</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5416,25 +5222,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>658</v>
+        <v>2063</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5444,10 +5250,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>561893.9245207607</v>
+        <v>561996</v>
       </c>
       <c r="R43" t="n">
-        <v>7307219.714951258</v>
+        <v>7307379</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5477,19 +5283,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5516,7 +5312,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111959828</v>
+        <v>111959827</v>
       </c>
       <c r="B44" t="n">
         <v>89423</v>
@@ -5556,10 +5352,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>561996.2119675929</v>
+        <v>561870</v>
       </c>
       <c r="R44" t="n">
-        <v>7307377.861109382</v>
+        <v>7307209</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5589,19 +5385,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5628,10 +5414,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111959824</v>
+        <v>111959830</v>
       </c>
       <c r="B45" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5644,21 +5430,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5668,10 +5454,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>561944.3590813032</v>
+        <v>561915</v>
       </c>
       <c r="R45" t="n">
-        <v>7307350.545501226</v>
+        <v>7307340</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5701,19 +5487,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5740,10 +5516,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111985425</v>
+        <v>111959833</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5756,42 +5532,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>561986.2927539641</v>
+        <v>562008</v>
       </c>
       <c r="R46" t="n">
-        <v>7307362.912851273</v>
+        <v>7307380</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5821,19 +5589,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5860,10 +5618,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111985424</v>
+        <v>111959832</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5876,42 +5634,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>561894.5894852884</v>
+        <v>561916</v>
       </c>
       <c r="R47" t="n">
-        <v>7307264.749940732</v>
+        <v>7307339</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5941,19 +5691,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5980,10 +5720,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112036972</v>
+        <v>112037000</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5996,31 +5736,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6028,10 +5763,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>561902.5679974818</v>
+        <v>561919</v>
       </c>
       <c r="R48" t="n">
-        <v>7307274.745094148</v>
+        <v>7307213</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6061,32 +5796,18 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6105,7 +5826,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112037401</v>
+        <v>112037188</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6143,7 +5864,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -6153,10 +5874,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>561987.7112743729</v>
+        <v>561922</v>
       </c>
       <c r="R49" t="n">
-        <v>7307392.001010323</v>
+        <v>7307321</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6186,19 +5907,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -6230,7 +5941,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112037519</v>
+        <v>112037372</v>
       </c>
       <c r="B50" t="n">
         <v>89423</v>
@@ -6273,10 +5984,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>562059.0915112555</v>
+        <v>561994</v>
       </c>
       <c r="R50" t="n">
-        <v>7307368.992526292</v>
+        <v>7307380</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6306,19 +6017,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6346,10 +6047,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112037788</v>
+        <v>112037927</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6362,26 +6063,31 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6389,10 +6095,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>562039.0131688161</v>
+        <v>562085</v>
       </c>
       <c r="R51" t="n">
-        <v>7307444.678754784</v>
+        <v>7307474</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6422,19 +6128,14 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6443,7 +6144,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6462,7 +6162,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112037088</v>
+        <v>112037492</v>
       </c>
       <c r="B52" t="n">
         <v>89686</v>
@@ -6505,10 +6205,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>561968.3871263692</v>
+        <v>562072</v>
       </c>
       <c r="R52" t="n">
-        <v>7307262.663489194</v>
+        <v>7307343</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6538,19 +6238,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6578,7 +6268,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112037509</v>
+        <v>112037788</v>
       </c>
       <c r="B53" t="n">
         <v>77515</v>
@@ -6621,10 +6311,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>562072.3547891638</v>
+        <v>562039</v>
       </c>
       <c r="R53" t="n">
-        <v>7307343.087340415</v>
+        <v>7307445</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6654,24 +6344,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6699,10 +6374,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112037094</v>
+        <v>112037150</v>
       </c>
       <c r="B54" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6711,25 +6386,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6742,10 +6417,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>561968.3871263692</v>
+        <v>561922</v>
       </c>
       <c r="R54" t="n">
-        <v>7307262.663489194</v>
+        <v>7307321</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6775,19 +6450,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6858,10 +6523,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>562092.0326057856</v>
+        <v>562092</v>
       </c>
       <c r="R55" t="n">
-        <v>7307380.347859782</v>
+        <v>7307380</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6891,19 +6556,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6931,10 +6586,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112037075</v>
+        <v>112037714</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6947,31 +6602,26 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -6979,10 +6629,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>561980.8929629655</v>
+        <v>562074</v>
       </c>
       <c r="R56" t="n">
-        <v>7307233.875576395</v>
+        <v>7307418</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7012,24 +6662,14 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7038,6 +6678,7 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7056,10 +6697,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112037867</v>
+        <v>112036996</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7072,31 +6713,26 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7104,10 +6740,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>562085.128995252</v>
+        <v>561919</v>
       </c>
       <c r="R57" t="n">
-        <v>7307453.045411141</v>
+        <v>7307213</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7137,32 +6773,18 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7181,7 +6803,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112037501</v>
+        <v>112037792</v>
       </c>
       <c r="B58" t="n">
         <v>89401</v>
@@ -7224,10 +6846,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>562072.3547891638</v>
+        <v>562039</v>
       </c>
       <c r="R58" t="n">
-        <v>7307343.087340415</v>
+        <v>7307445</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7257,19 +6879,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7297,7 +6909,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112036987</v>
+        <v>112037773</v>
       </c>
       <c r="B59" t="n">
         <v>89423</v>
@@ -7340,10 +6952,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>561902.5679974818</v>
+        <v>562043</v>
       </c>
       <c r="R59" t="n">
-        <v>7307274.745094148</v>
+        <v>7307416</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7373,19 +6985,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7456,10 +7058,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>562115.5287905507</v>
+        <v>562116</v>
       </c>
       <c r="R60" t="n">
-        <v>7307411.552107612</v>
+        <v>7307412</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7489,19 +7091,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7529,10 +7121,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112037831</v>
+        <v>112037877</v>
       </c>
       <c r="B61" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7545,21 +7137,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7572,10 +7164,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>562126.1340000186</v>
+        <v>562085</v>
       </c>
       <c r="R61" t="n">
-        <v>7307451.479852177</v>
+        <v>7307453</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7605,19 +7197,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7645,10 +7227,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112037108</v>
+        <v>112037825</v>
       </c>
       <c r="B62" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7661,21 +7243,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7688,10 +7270,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>561975.5463062958</v>
+        <v>562126</v>
       </c>
       <c r="R62" t="n">
-        <v>7307272.641123712</v>
+        <v>7307451</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7721,19 +7303,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7761,7 +7333,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112037792</v>
+        <v>112037831</v>
       </c>
       <c r="B63" t="n">
         <v>89401</v>
@@ -7804,10 +7376,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>562039.0131688161</v>
+        <v>562126</v>
       </c>
       <c r="R63" t="n">
-        <v>7307444.678754784</v>
+        <v>7307451</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7837,19 +7409,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7877,10 +7439,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112037825</v>
+        <v>112037509</v>
       </c>
       <c r="B64" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7893,21 +7455,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7920,10 +7482,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>562126.1340000186</v>
+        <v>562072</v>
       </c>
       <c r="R64" t="n">
-        <v>7307451.479852177</v>
+        <v>7307343</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7953,19 +7515,14 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7993,10 +7550,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112037006</v>
+        <v>112037760</v>
       </c>
       <c r="B65" t="n">
-        <v>89686</v>
+        <v>89747</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8005,25 +7562,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>658</v>
+        <v>2063</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8036,10 +7593,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>561919.0664192269</v>
+        <v>562043</v>
       </c>
       <c r="R65" t="n">
-        <v>7307212.891730816</v>
+        <v>7307416</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8069,19 +7626,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8109,10 +7656,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112037188</v>
+        <v>112037006</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8125,31 +7672,26 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -8157,10 +7699,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>561921.6442163675</v>
+        <v>561919</v>
       </c>
       <c r="R66" t="n">
-        <v>7307320.996082182</v>
+        <v>7307213</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8190,32 +7732,18 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -8234,7 +7762,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112037372</v>
+        <v>112037796</v>
       </c>
       <c r="B67" t="n">
         <v>89423</v>
@@ -8277,10 +7805,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>561994.1200184894</v>
+        <v>562039</v>
       </c>
       <c r="R67" t="n">
-        <v>7307379.862086881</v>
+        <v>7307445</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8310,19 +7838,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8350,10 +7868,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112036981</v>
+        <v>112037585</v>
       </c>
       <c r="B68" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8366,21 +7884,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8393,10 +7911,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>561902.5679974818</v>
+        <v>562059</v>
       </c>
       <c r="R68" t="n">
-        <v>7307274.745094148</v>
+        <v>7307369</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8426,19 +7944,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8466,10 +7974,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112037150</v>
+        <v>112037072</v>
       </c>
       <c r="B69" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8478,30 +7986,35 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -8509,10 +8022,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>561921.6442163675</v>
+        <v>561981</v>
       </c>
       <c r="R69" t="n">
-        <v>7307320.996082182</v>
+        <v>7307234</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8542,19 +8055,14 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8563,7 +8071,6 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8582,10 +8089,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112036938</v>
+        <v>112036981</v>
       </c>
       <c r="B70" t="n">
-        <v>89419</v>
+        <v>89401</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8598,21 +8105,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8625,10 +8132,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>561846.4224085368</v>
+        <v>561903</v>
       </c>
       <c r="R70" t="n">
-        <v>7307256.341643833</v>
+        <v>7307275</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8658,19 +8165,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA70" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8698,10 +8195,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112037714</v>
+        <v>112037519</v>
       </c>
       <c r="B71" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8714,21 +8211,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8741,10 +8238,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>562073.5976993492</v>
+        <v>562059</v>
       </c>
       <c r="R71" t="n">
-        <v>7307418.008835915</v>
+        <v>7307369</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8774,24 +8271,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8819,7 +8301,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112037492</v>
+        <v>112036909</v>
       </c>
       <c r="B72" t="n">
         <v>89686</v>
@@ -8862,10 +8344,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562072.3547891638</v>
+        <v>561846</v>
       </c>
       <c r="R72" t="n">
-        <v>7307343.087340415</v>
+        <v>7307256</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8895,19 +8377,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8978,10 +8450,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>561994.1200184894</v>
+        <v>561994</v>
       </c>
       <c r="R73" t="n">
-        <v>7307379.862086881</v>
+        <v>7307380</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9011,19 +8483,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA73" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9051,7 +8513,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112037877</v>
+        <v>112037172</v>
       </c>
       <c r="B74" t="n">
         <v>77515</v>
@@ -9094,10 +8556,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>562085.128995252</v>
+        <v>561922</v>
       </c>
       <c r="R74" t="n">
-        <v>7307453.045411141</v>
+        <v>7307321</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9127,19 +8589,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA74" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9167,7 +8619,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112036909</v>
+        <v>112037108</v>
       </c>
       <c r="B75" t="n">
         <v>89686</v>
@@ -9210,10 +8662,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>561846.4224085368</v>
+        <v>561976</v>
       </c>
       <c r="R75" t="n">
-        <v>7307256.341643833</v>
+        <v>7307273</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9243,19 +8695,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA75" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9283,7 +8725,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112037796</v>
+        <v>112036987</v>
       </c>
       <c r="B76" t="n">
         <v>89423</v>
@@ -9326,10 +8768,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>562039.0131688161</v>
+        <v>561903</v>
       </c>
       <c r="R76" t="n">
-        <v>7307444.678754784</v>
+        <v>7307275</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9359,19 +8801,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA76" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9399,10 +8831,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112037760</v>
+        <v>112037496</v>
       </c>
       <c r="B77" t="n">
-        <v>89747</v>
+        <v>89405</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9411,25 +8843,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2063</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9442,10 +8874,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562042.5094799057</v>
+        <v>562072</v>
       </c>
       <c r="R77" t="n">
-        <v>7307415.697631201</v>
+        <v>7307343</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9475,19 +8907,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9515,7 +8937,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112037927</v>
+        <v>112037867</v>
       </c>
       <c r="B78" t="n">
         <v>56398</v>
@@ -9553,7 +8975,7 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -9563,10 +8985,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>562084.6675010478</v>
+        <v>562085</v>
       </c>
       <c r="R78" t="n">
-        <v>7307474.316293915</v>
+        <v>7307453</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9596,19 +9018,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA78" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
@@ -9640,10 +9052,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112037172</v>
+        <v>112036972</v>
       </c>
       <c r="B79" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9656,26 +9068,31 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
@@ -9683,10 +9100,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>561921.6442163675</v>
+        <v>561903</v>
       </c>
       <c r="R79" t="n">
-        <v>7307320.996082182</v>
+        <v>7307275</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9716,19 +9133,14 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA79" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9737,7 +9149,6 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
@@ -9756,10 +9167,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112036996</v>
+        <v>112037088</v>
       </c>
       <c r="B80" t="n">
-        <v>89423</v>
+        <v>89686</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9772,21 +9183,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9799,10 +9210,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>561919.0664192269</v>
+        <v>561968</v>
       </c>
       <c r="R80" t="n">
-        <v>7307212.891730816</v>
+        <v>7307263</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9832,19 +9243,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA80" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9872,10 +9273,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112036871</v>
+        <v>112037501</v>
       </c>
       <c r="B81" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9888,30 +9289,26 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
@@ -9919,10 +9316,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>561834.0063889065</v>
+        <v>562072</v>
       </c>
       <c r="R81" t="n">
-        <v>7307224.149654636</v>
+        <v>7307343</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9952,24 +9349,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA81" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC81" t="inlineStr">
-        <is>
-          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9997,10 +9379,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112037000</v>
+        <v>112037401</v>
       </c>
       <c r="B82" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10013,26 +9395,31 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
@@ -10040,10 +9427,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>561919.0664192269</v>
+        <v>561988</v>
       </c>
       <c r="R82" t="n">
-        <v>7307212.891730816</v>
+        <v>7307392</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10073,19 +9460,14 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA82" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10094,7 +9476,6 @@
       <c r="AE82" t="b">
         <v>0</v>
       </c>
-      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
       </c>
@@ -10113,7 +9494,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112037585</v>
+        <v>112037094</v>
       </c>
       <c r="B83" t="n">
         <v>77515</v>
@@ -10156,10 +9537,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>562059.0915112555</v>
+        <v>561968</v>
       </c>
       <c r="R83" t="n">
-        <v>7307368.992526292</v>
+        <v>7307263</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10189,19 +9570,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA83" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB83" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10229,10 +9600,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112037773</v>
+        <v>112036871</v>
       </c>
       <c r="B84" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10245,26 +9616,30 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -10272,10 +9647,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>562042.5094799057</v>
+        <v>561834</v>
       </c>
       <c r="R84" t="n">
-        <v>7307415.697631201</v>
+        <v>7307224</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10305,19 +9680,14 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA84" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10345,10 +9715,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112037496</v>
+        <v>112036938</v>
       </c>
       <c r="B85" t="n">
-        <v>89405</v>
+        <v>89419</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10361,21 +9731,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10388,10 +9758,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>562072.3547891638</v>
+        <v>561846</v>
       </c>
       <c r="R85" t="n">
-        <v>7307343.087340415</v>
+        <v>7307256</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10421,19 +9791,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA85" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10461,10 +9821,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112045902</v>
+        <v>112045899</v>
       </c>
       <c r="B86" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10477,34 +9837,39 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>562033.279910825</v>
+        <v>562022</v>
       </c>
       <c r="R86" t="n">
-        <v>7307444.554464377</v>
+        <v>7307404</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10536,7 +9901,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10546,7 +9911,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10573,10 +9938,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112045876</v>
+        <v>112045887</v>
       </c>
       <c r="B87" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10585,25 +9950,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10613,10 +9978,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>561966.4920707772</v>
+        <v>561864</v>
       </c>
       <c r="R87" t="n">
-        <v>7307274.491430026</v>
+        <v>7307276</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10648,7 +10013,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10658,7 +10023,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10685,10 +10050,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112045888</v>
+        <v>112045891</v>
       </c>
       <c r="B88" t="n">
-        <v>89423</v>
+        <v>89686</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10701,21 +10066,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10725,10 +10090,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>561908.2775088041</v>
+        <v>561886</v>
       </c>
       <c r="R88" t="n">
-        <v>7307294.922941325</v>
+        <v>7307311</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10760,7 +10125,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10770,7 +10135,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10797,10 +10162,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112045885</v>
+        <v>112045880</v>
       </c>
       <c r="B89" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10809,25 +10174,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10837,10 +10202,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>561945.9662186772</v>
+        <v>561969</v>
       </c>
       <c r="R89" t="n">
-        <v>7307238.439993247</v>
+        <v>7307275</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10872,7 +10237,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10882,7 +10247,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10909,10 +10274,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112045897</v>
+        <v>112045895</v>
       </c>
       <c r="B90" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10925,21 +10290,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10949,10 +10314,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>561955.381015217</v>
+        <v>561962</v>
       </c>
       <c r="R90" t="n">
-        <v>7307352.421154647</v>
+        <v>7307355</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10984,7 +10349,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10994,7 +10359,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11021,10 +10386,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112045895</v>
+        <v>112045886</v>
       </c>
       <c r="B91" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11037,34 +10402,39 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>561962.2810507246</v>
+        <v>561826</v>
       </c>
       <c r="R91" t="n">
-        <v>7307355.435386755</v>
+        <v>7307246</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11096,7 +10466,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11106,7 +10476,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11133,10 +10503,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112045903</v>
+        <v>112045902</v>
       </c>
       <c r="B92" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11149,39 +10519,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>562026.80906996</v>
+        <v>562033</v>
       </c>
       <c r="R92" t="n">
-        <v>7307459.556420421</v>
+        <v>7307445</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11213,7 +10578,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11223,7 +10588,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11250,10 +10615,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112045878</v>
+        <v>112045900</v>
       </c>
       <c r="B93" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11266,21 +10631,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11290,10 +10655,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>561966.4920707772</v>
+        <v>562022</v>
       </c>
       <c r="R93" t="n">
-        <v>7307274.491430026</v>
+        <v>7307414</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11325,7 +10690,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11335,7 +10700,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11362,10 +10727,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112045890</v>
+        <v>112045876</v>
       </c>
       <c r="B94" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11378,21 +10743,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11402,10 +10767,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>561896.3098358642</v>
+        <v>561966</v>
       </c>
       <c r="R94" t="n">
-        <v>7307279.930285611</v>
+        <v>7307274</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11437,7 +10802,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11447,7 +10812,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11474,10 +10839,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112045894</v>
+        <v>112045882</v>
       </c>
       <c r="B95" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11490,21 +10855,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11514,10 +10879,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>561946.4775806502</v>
+        <v>561971</v>
       </c>
       <c r="R95" t="n">
-        <v>7307347.317251688</v>
+        <v>7307277</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11549,7 +10914,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11559,7 +10924,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11586,10 +10951,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112045893</v>
+        <v>112045885</v>
       </c>
       <c r="B96" t="n">
-        <v>76513</v>
+        <v>89686</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11602,21 +10967,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>314</v>
+        <v>658</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11626,10 +10991,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>561896.8306256249</v>
+        <v>561946</v>
       </c>
       <c r="R96" t="n">
-        <v>7307312.683194658</v>
+        <v>7307238</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11661,7 +11026,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11671,7 +11036,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11698,10 +11063,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112045889</v>
+        <v>112045892</v>
       </c>
       <c r="B97" t="n">
-        <v>89401</v>
+        <v>73696</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11714,21 +11079,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11738,10 +11103,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>561897.2641743869</v>
+        <v>561896</v>
       </c>
       <c r="R97" t="n">
-        <v>7307292.638358502</v>
+        <v>7307311</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11773,7 +11138,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11783,7 +11148,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11810,10 +11175,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112045880</v>
+        <v>112045883</v>
       </c>
       <c r="B98" t="n">
-        <v>89845</v>
+        <v>90087</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11822,25 +11187,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1209</v>
+        <v>3298</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11850,10 +11215,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>561968.539784422</v>
+        <v>561972</v>
       </c>
       <c r="R98" t="n">
-        <v>7307274.535769819</v>
+        <v>7307276</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11885,7 +11250,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11895,7 +11260,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11922,10 +11287,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112045881</v>
+        <v>112045890</v>
       </c>
       <c r="B99" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11938,21 +11303,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11962,10 +11327,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>561970.17795532</v>
+        <v>561896</v>
       </c>
       <c r="R99" t="n">
-        <v>7307274.571242708</v>
+        <v>7307280</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11997,7 +11362,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12007,7 +11372,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12034,10 +11399,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112045887</v>
+        <v>112045889</v>
       </c>
       <c r="B100" t="n">
-        <v>89845</v>
+        <v>89401</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12046,25 +11411,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1209</v>
+        <v>1108</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12074,10 +11439,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>561864.4451530995</v>
+        <v>561897</v>
       </c>
       <c r="R100" t="n">
-        <v>7307275.557820893</v>
+        <v>7307293</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12109,7 +11474,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12119,7 +11484,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12146,10 +11511,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112045891</v>
+        <v>112045878</v>
       </c>
       <c r="B101" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12162,21 +11527,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12186,10 +11551,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>561885.8085055663</v>
+        <v>561966</v>
       </c>
       <c r="R101" t="n">
-        <v>7307310.807745616</v>
+        <v>7307274</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12221,7 +11586,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12231,7 +11596,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12258,10 +11623,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112045898</v>
+        <v>112045897</v>
       </c>
       <c r="B102" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12274,39 +11639,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>561991.8951490093</v>
+        <v>561955</v>
       </c>
       <c r="R102" t="n">
-        <v>7307387.999063636</v>
+        <v>7307352</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12338,7 +11698,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12348,7 +11708,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12375,10 +11735,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112045877</v>
+        <v>112045893</v>
       </c>
       <c r="B103" t="n">
-        <v>89401</v>
+        <v>76513</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12391,21 +11751,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1108</v>
+        <v>314</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12415,10 +11775,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>561966.4920707772</v>
+        <v>561897</v>
       </c>
       <c r="R103" t="n">
-        <v>7307274.491430026</v>
+        <v>7307313</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12450,7 +11810,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12460,7 +11820,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12487,10 +11847,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112045884</v>
+        <v>112045881</v>
       </c>
       <c r="B104" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12503,39 +11863,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P104" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>561944.0247344724</v>
+        <v>561970</v>
       </c>
       <c r="R104" t="n">
-        <v>7307233.486615712</v>
+        <v>7307275</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12567,7 +11922,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12577,7 +11932,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12604,10 +11959,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112045886</v>
+        <v>112045901</v>
       </c>
       <c r="B105" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12620,39 +11975,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>561825.7477039014</v>
+        <v>562030</v>
       </c>
       <c r="R105" t="n">
-        <v>7307246.072283784</v>
+        <v>7307433</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12684,7 +12034,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12694,7 +12044,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12721,10 +12071,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112045896</v>
+        <v>112045898</v>
       </c>
       <c r="B106" t="n">
-        <v>76513</v>
+        <v>56398</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12737,34 +12087,39 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>561957.5349522973</v>
+        <v>561992</v>
       </c>
       <c r="R106" t="n">
-        <v>7307347.556627862</v>
+        <v>7307388</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12796,7 +12151,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12806,7 +12161,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12833,10 +12188,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112045892</v>
+        <v>112045884</v>
       </c>
       <c r="B107" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12849,34 +12204,39 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>561896.0557901509</v>
+        <v>561944</v>
       </c>
       <c r="R107" t="n">
-        <v>7307310.620094009</v>
+        <v>7307233</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12908,7 +12268,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12918,7 +12278,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12945,10 +12305,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112045882</v>
+        <v>112045903</v>
       </c>
       <c r="B108" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12961,34 +12321,39 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>561971.3622907655</v>
+        <v>562027</v>
       </c>
       <c r="R108" t="n">
-        <v>7307276.643258946</v>
+        <v>7307460</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13020,7 +12385,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -13030,7 +12395,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -13057,10 +12422,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112045900</v>
+        <v>112045894</v>
       </c>
       <c r="B109" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13073,21 +12438,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13097,10 +12462,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>562022.4606045906</v>
+        <v>561946</v>
       </c>
       <c r="R109" t="n">
-        <v>7307414.444516678</v>
+        <v>7307347</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13132,7 +12497,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -13142,7 +12507,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -13169,10 +12534,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112045899</v>
+        <v>112045896</v>
       </c>
       <c r="B110" t="n">
-        <v>56398</v>
+        <v>76513</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13185,39 +12550,34 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P110" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>562021.8632048024</v>
+        <v>561958</v>
       </c>
       <c r="R110" t="n">
-        <v>7307404.200186137</v>
+        <v>7307348</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13249,7 +12609,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -13259,7 +12619,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -13286,10 +12646,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112045901</v>
+        <v>112045888</v>
       </c>
       <c r="B111" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13302,21 +12662,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13326,10 +12686,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>562030.260907584</v>
+        <v>561908</v>
       </c>
       <c r="R111" t="n">
-        <v>7307432.620735778</v>
+        <v>7307295</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13361,7 +12721,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -13371,7 +12731,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -13398,10 +12758,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112045883</v>
+        <v>112045877</v>
       </c>
       <c r="B112" t="n">
-        <v>90087</v>
+        <v>89401</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13410,25 +12770,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3298</v>
+        <v>1108</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13438,10 +12798,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>561972.199092935</v>
+        <v>561966</v>
       </c>
       <c r="R112" t="n">
-        <v>7307275.84283188</v>
+        <v>7307274</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13473,7 +12833,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -13483,7 +12843,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD112" t="b">

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -3020,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111985426</v>
+        <v>111985427</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562016</v>
+        <v>562014</v>
       </c>
       <c r="R22" t="n">
-        <v>7307406</v>
+        <v>7307395</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3130,10 +3130,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111985428</v>
+        <v>111959811</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>89539</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3146,42 +3146,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>561916</v>
+        <v>561896</v>
       </c>
       <c r="R23" t="n">
-        <v>7307339</v>
+        <v>7307298</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3240,10 +3232,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111959824</v>
+        <v>111959823</v>
       </c>
       <c r="B24" t="n">
-        <v>89419</v>
+        <v>89535</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3256,21 +3248,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3280,10 +3272,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>561944</v>
+        <v>562015</v>
       </c>
       <c r="R24" t="n">
-        <v>7307351</v>
+        <v>7307418</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3342,10 +3334,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111959834</v>
+        <v>111959810</v>
       </c>
       <c r="B25" t="n">
-        <v>81248</v>
+        <v>89539</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3358,21 +3350,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3382,10 +3374,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562009</v>
+        <v>561894</v>
       </c>
       <c r="R25" t="n">
-        <v>7307380</v>
+        <v>7307220</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3444,10 +3436,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111985425</v>
+        <v>111959822</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>89535</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3460,42 +3452,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>561986</v>
+        <v>561870</v>
       </c>
       <c r="R26" t="n">
-        <v>7307363</v>
+        <v>7307209</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3554,10 +3538,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111959821</v>
+        <v>111959832</v>
       </c>
       <c r="B27" t="n">
-        <v>77597</v>
+        <v>81371</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3570,21 +3554,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3594,10 +3578,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>561962</v>
+        <v>561916</v>
       </c>
       <c r="R27" t="n">
-        <v>7307351</v>
+        <v>7307339</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3656,10 +3640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111959809</v>
+        <v>111959827</v>
       </c>
       <c r="B28" t="n">
-        <v>73696</v>
+        <v>89557</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3672,21 +3656,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3696,10 +3680,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>561927</v>
+        <v>561870</v>
       </c>
       <c r="R28" t="n">
-        <v>7307338</v>
+        <v>7307209</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3758,10 +3742,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111959829</v>
+        <v>111959821</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>77717</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3774,21 +3758,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3798,10 +3782,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>561894</v>
+        <v>561962</v>
       </c>
       <c r="R29" t="n">
-        <v>7307220</v>
+        <v>7307351</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3860,10 +3844,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111959831</v>
+        <v>111959829</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3900,10 +3884,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562009</v>
+        <v>561894</v>
       </c>
       <c r="R30" t="n">
-        <v>7307380</v>
+        <v>7307220</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3962,10 +3946,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111959822</v>
+        <v>111959819</v>
       </c>
       <c r="B31" t="n">
-        <v>89401</v>
+        <v>89820</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3978,21 +3962,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4002,10 +3986,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561870</v>
+        <v>561895</v>
       </c>
       <c r="R31" t="n">
-        <v>7307209</v>
+        <v>7307265</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4064,10 +4048,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111959819</v>
+        <v>111959831</v>
       </c>
       <c r="B32" t="n">
-        <v>89686</v>
+        <v>77636</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4080,21 +4064,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4104,10 +4088,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561895</v>
+        <v>562009</v>
       </c>
       <c r="R32" t="n">
-        <v>7307265</v>
+        <v>7307380</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4166,10 +4150,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111985427</v>
+        <v>111959826</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>89881</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4178,46 +4162,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562014</v>
+        <v>561996</v>
       </c>
       <c r="R33" t="n">
-        <v>7307395</v>
+        <v>7307379</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4276,10 +4252,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111959811</v>
+        <v>111959833</v>
       </c>
       <c r="B34" t="n">
-        <v>89405</v>
+        <v>81371</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4292,21 +4268,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4316,10 +4292,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561896</v>
+        <v>562008</v>
       </c>
       <c r="R34" t="n">
-        <v>7307298</v>
+        <v>7307380</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4378,10 +4354,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111959810</v>
+        <v>111959828</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>89557</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4394,21 +4370,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4418,10 +4394,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561894</v>
+        <v>561996</v>
       </c>
       <c r="R35" t="n">
-        <v>7307220</v>
+        <v>7307378</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4480,10 +4456,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111959828</v>
+        <v>111985424</v>
       </c>
       <c r="B36" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4496,34 +4472,42 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>561996</v>
+        <v>561895</v>
       </c>
       <c r="R36" t="n">
-        <v>7307378</v>
+        <v>7307265</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4582,10 +4566,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111959823</v>
+        <v>111985428</v>
       </c>
       <c r="B37" t="n">
-        <v>89401</v>
+        <v>56430</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4598,34 +4582,42 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>562015</v>
+        <v>561916</v>
       </c>
       <c r="R37" t="n">
-        <v>7307418</v>
+        <v>7307339</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4684,10 +4676,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111959820</v>
+        <v>111985426</v>
       </c>
       <c r="B38" t="n">
-        <v>77597</v>
+        <v>56430</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4700,34 +4692,42 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>561894</v>
+        <v>562016</v>
       </c>
       <c r="R38" t="n">
-        <v>7307220</v>
+        <v>7307406</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111959825</v>
+        <v>111959834</v>
       </c>
       <c r="B39" t="n">
-        <v>89747</v>
+        <v>81371</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4798,25 +4798,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2063</v>
+        <v>1312</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4826,10 +4826,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>561809</v>
+        <v>562009</v>
       </c>
       <c r="R39" t="n">
-        <v>7307207</v>
+        <v>7307380</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4888,10 +4888,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111985424</v>
+        <v>111959824</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>89553</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4904,42 +4904,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>561895</v>
+        <v>561944</v>
       </c>
       <c r="R40" t="n">
-        <v>7307265</v>
+        <v>7307351</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -4998,10 +4990,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111959818</v>
+        <v>111959820</v>
       </c>
       <c r="B41" t="n">
-        <v>89686</v>
+        <v>77717</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5014,21 +5006,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>658</v>
+        <v>864</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5100,10 +5092,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111985429</v>
+        <v>111959809</v>
       </c>
       <c r="B42" t="n">
-        <v>56398</v>
+        <v>73820</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5116,42 +5108,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>561822</v>
+        <v>561927</v>
       </c>
       <c r="R42" t="n">
-        <v>7307243</v>
+        <v>7307338</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5210,10 +5194,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111959826</v>
+        <v>111959818</v>
       </c>
       <c r="B43" t="n">
-        <v>89747</v>
+        <v>89820</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5222,25 +5206,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2063</v>
+        <v>658</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5250,10 +5234,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>561996</v>
+        <v>561894</v>
       </c>
       <c r="R43" t="n">
-        <v>7307379</v>
+        <v>7307220</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5312,10 +5296,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111959827</v>
+        <v>111959830</v>
       </c>
       <c r="B44" t="n">
-        <v>89423</v>
+        <v>77636</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5328,21 +5312,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5352,10 +5336,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>561870</v>
+        <v>561915</v>
       </c>
       <c r="R44" t="n">
-        <v>7307209</v>
+        <v>7307340</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5414,10 +5398,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111959830</v>
+        <v>111985425</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>56430</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5430,34 +5414,42 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>561915</v>
+        <v>561986</v>
       </c>
       <c r="R45" t="n">
-        <v>7307340</v>
+        <v>7307363</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5516,10 +5508,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111959833</v>
+        <v>111985429</v>
       </c>
       <c r="B46" t="n">
-        <v>81248</v>
+        <v>56430</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5532,34 +5524,42 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>562008</v>
+        <v>561822</v>
       </c>
       <c r="R46" t="n">
-        <v>7307380</v>
+        <v>7307243</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5618,10 +5618,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111959832</v>
+        <v>111959825</v>
       </c>
       <c r="B47" t="n">
-        <v>81248</v>
+        <v>89881</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5630,25 +5630,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1312</v>
+        <v>2063</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>561916</v>
+        <v>561809</v>
       </c>
       <c r="R47" t="n">
-        <v>7307339</v>
+        <v>7307207</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5720,10 +5720,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112037000</v>
+        <v>112037501</v>
       </c>
       <c r="B48" t="n">
-        <v>89405</v>
+        <v>89535</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5736,21 +5736,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5763,10 +5763,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>561919</v>
+        <v>562072</v>
       </c>
       <c r="R48" t="n">
-        <v>7307213</v>
+        <v>7307343</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5826,10 +5826,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112037188</v>
+        <v>112037000</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>89539</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5842,31 +5842,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -5874,10 +5869,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>561922</v>
+        <v>561919</v>
       </c>
       <c r="R49" t="n">
-        <v>7307321</v>
+        <v>7307213</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5912,17 +5907,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -5941,10 +5932,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112037372</v>
+        <v>112037792</v>
       </c>
       <c r="B50" t="n">
-        <v>89423</v>
+        <v>89535</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5957,21 +5948,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5984,10 +5975,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>561994</v>
+        <v>562039</v>
       </c>
       <c r="R50" t="n">
-        <v>7307380</v>
+        <v>7307445</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6047,10 +6038,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112037927</v>
+        <v>112037401</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6085,7 +6076,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -6095,10 +6086,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>562085</v>
+        <v>561988</v>
       </c>
       <c r="R51" t="n">
-        <v>7307474</v>
+        <v>7307392</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6162,10 +6153,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112037492</v>
+        <v>112037927</v>
       </c>
       <c r="B52" t="n">
-        <v>89686</v>
+        <v>56430</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6178,26 +6169,31 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6205,10 +6201,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>562072</v>
+        <v>562085</v>
       </c>
       <c r="R52" t="n">
-        <v>7307343</v>
+        <v>7307474</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6243,13 +6239,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6268,10 +6268,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112037788</v>
+        <v>112037188</v>
       </c>
       <c r="B53" t="n">
-        <v>77515</v>
+        <v>56430</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6284,26 +6284,31 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6311,10 +6316,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>562039</v>
+        <v>561922</v>
       </c>
       <c r="R53" t="n">
-        <v>7307445</v>
+        <v>7307321</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6349,13 +6354,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6374,10 +6383,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112037150</v>
+        <v>112037075</v>
       </c>
       <c r="B54" t="n">
-        <v>89845</v>
+        <v>56430</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6386,30 +6395,35 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6417,10 +6431,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>561922</v>
+        <v>561981</v>
       </c>
       <c r="R54" t="n">
-        <v>7307321</v>
+        <v>7307234</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6455,13 +6469,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6480,10 +6498,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112037653</v>
+        <v>112037496</v>
       </c>
       <c r="B55" t="n">
-        <v>89845</v>
+        <v>89539</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6492,25 +6510,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6523,10 +6541,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>562092</v>
+        <v>562072</v>
       </c>
       <c r="R55" t="n">
-        <v>7307380</v>
+        <v>7307343</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6586,10 +6604,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112037714</v>
+        <v>112037509</v>
       </c>
       <c r="B56" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6629,10 +6647,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>562074</v>
+        <v>562072</v>
       </c>
       <c r="R56" t="n">
-        <v>7307418</v>
+        <v>7307343</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6669,7 +6687,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Drapperat</t>
+          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6697,10 +6715,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112036996</v>
+        <v>112036909</v>
       </c>
       <c r="B57" t="n">
-        <v>89423</v>
+        <v>89820</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6713,21 +6731,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6740,10 +6758,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>561919</v>
+        <v>561846</v>
       </c>
       <c r="R57" t="n">
-        <v>7307213</v>
+        <v>7307256</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6803,10 +6821,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112037792</v>
+        <v>112036987</v>
       </c>
       <c r="B58" t="n">
-        <v>89401</v>
+        <v>89557</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6819,21 +6837,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6846,10 +6864,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>562039</v>
+        <v>561903</v>
       </c>
       <c r="R58" t="n">
-        <v>7307445</v>
+        <v>7307275</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6909,10 +6927,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112037773</v>
+        <v>112036972</v>
       </c>
       <c r="B59" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6925,26 +6943,31 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -6952,10 +6975,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>562043</v>
+        <v>561903</v>
       </c>
       <c r="R59" t="n">
-        <v>7307416</v>
+        <v>7307275</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6990,13 +7013,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7015,10 +7042,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112037679</v>
+        <v>112036871</v>
       </c>
       <c r="B60" t="n">
-        <v>89423</v>
+        <v>77636</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7031,26 +7058,30 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7058,10 +7089,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>562116</v>
+        <v>561834</v>
       </c>
       <c r="R60" t="n">
-        <v>7307412</v>
+        <v>7307224</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7094,6 +7125,11 @@
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7121,10 +7157,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112037877</v>
+        <v>112037796</v>
       </c>
       <c r="B61" t="n">
-        <v>77515</v>
+        <v>89557</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7137,21 +7173,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7164,10 +7200,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>562085</v>
+        <v>562039</v>
       </c>
       <c r="R61" t="n">
-        <v>7307453</v>
+        <v>7307445</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7227,10 +7263,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112037825</v>
+        <v>112037760</v>
       </c>
       <c r="B62" t="n">
-        <v>89405</v>
+        <v>89881</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7239,25 +7275,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>2063</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7270,10 +7306,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>562126</v>
+        <v>562043</v>
       </c>
       <c r="R62" t="n">
-        <v>7307451</v>
+        <v>7307416</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7333,10 +7369,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112037831</v>
+        <v>112037773</v>
       </c>
       <c r="B63" t="n">
-        <v>89401</v>
+        <v>89557</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7349,21 +7385,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7376,10 +7412,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>562126</v>
+        <v>562043</v>
       </c>
       <c r="R63" t="n">
-        <v>7307451</v>
+        <v>7307416</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7439,10 +7475,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112037509</v>
+        <v>112036996</v>
       </c>
       <c r="B64" t="n">
-        <v>77515</v>
+        <v>89557</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7455,21 +7491,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7482,10 +7518,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>562072</v>
+        <v>561919</v>
       </c>
       <c r="R64" t="n">
-        <v>7307343</v>
+        <v>7307213</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7518,11 +7554,6 @@
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7550,10 +7581,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112037760</v>
+        <v>112037094</v>
       </c>
       <c r="B65" t="n">
-        <v>89747</v>
+        <v>77636</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7562,25 +7593,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2063</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7593,10 +7624,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>562043</v>
+        <v>561968</v>
       </c>
       <c r="R65" t="n">
-        <v>7307416</v>
+        <v>7307263</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7656,10 +7687,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112037006</v>
+        <v>112037831</v>
       </c>
       <c r="B66" t="n">
-        <v>89686</v>
+        <v>89535</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7672,21 +7703,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7699,10 +7730,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>561919</v>
+        <v>562126</v>
       </c>
       <c r="R66" t="n">
-        <v>7307213</v>
+        <v>7307451</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7762,10 +7793,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112037796</v>
+        <v>112037108</v>
       </c>
       <c r="B67" t="n">
-        <v>89423</v>
+        <v>89820</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7778,21 +7809,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7805,10 +7836,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>562039</v>
+        <v>561976</v>
       </c>
       <c r="R67" t="n">
-        <v>7307445</v>
+        <v>7307273</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7868,10 +7899,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112037585</v>
+        <v>112036938</v>
       </c>
       <c r="B68" t="n">
-        <v>77515</v>
+        <v>89553</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7884,21 +7915,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7911,10 +7942,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>562059</v>
+        <v>561846</v>
       </c>
       <c r="R68" t="n">
-        <v>7307369</v>
+        <v>7307256</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7974,10 +8005,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112037072</v>
+        <v>112037788</v>
       </c>
       <c r="B69" t="n">
-        <v>56398</v>
+        <v>77636</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7990,31 +8021,26 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -8022,10 +8048,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>561981</v>
+        <v>562039</v>
       </c>
       <c r="R69" t="n">
-        <v>7307234</v>
+        <v>7307445</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8060,17 +8086,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8089,10 +8111,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112036981</v>
+        <v>112037364</v>
       </c>
       <c r="B70" t="n">
-        <v>89401</v>
+        <v>89881</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8101,25 +8123,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1108</v>
+        <v>2063</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8132,10 +8154,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>561903</v>
+        <v>561994</v>
       </c>
       <c r="R70" t="n">
-        <v>7307275</v>
+        <v>7307380</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8195,10 +8217,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112037519</v>
+        <v>112037877</v>
       </c>
       <c r="B71" t="n">
-        <v>89423</v>
+        <v>77636</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8211,21 +8233,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8238,10 +8260,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>562059</v>
+        <v>562085</v>
       </c>
       <c r="R71" t="n">
-        <v>7307369</v>
+        <v>7307453</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8301,10 +8323,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112036909</v>
+        <v>112037172</v>
       </c>
       <c r="B72" t="n">
-        <v>89686</v>
+        <v>77636</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8317,21 +8339,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8344,10 +8366,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>561846</v>
+        <v>561922</v>
       </c>
       <c r="R72" t="n">
-        <v>7307256</v>
+        <v>7307321</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8407,10 +8429,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112037364</v>
+        <v>112037679</v>
       </c>
       <c r="B73" t="n">
-        <v>89747</v>
+        <v>89557</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8419,25 +8441,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2063</v>
+        <v>5432</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8450,10 +8472,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>561994</v>
+        <v>562116</v>
       </c>
       <c r="R73" t="n">
-        <v>7307380</v>
+        <v>7307412</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8513,10 +8535,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112037172</v>
+        <v>112037585</v>
       </c>
       <c r="B74" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8556,10 +8578,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>561922</v>
+        <v>562059</v>
       </c>
       <c r="R74" t="n">
-        <v>7307321</v>
+        <v>7307369</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8619,10 +8641,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112037108</v>
+        <v>112037867</v>
       </c>
       <c r="B75" t="n">
-        <v>89686</v>
+        <v>56430</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8635,26 +8657,31 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -8662,10 +8689,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>561976</v>
+        <v>562085</v>
       </c>
       <c r="R75" t="n">
-        <v>7307273</v>
+        <v>7307453</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8700,13 +8727,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
       <c r="AE75" t="b">
         <v>0</v>
       </c>
-      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -8725,10 +8756,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112036987</v>
+        <v>112037519</v>
       </c>
       <c r="B76" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8768,10 +8799,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>561903</v>
+        <v>562059</v>
       </c>
       <c r="R76" t="n">
-        <v>7307275</v>
+        <v>7307369</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8831,10 +8862,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112037496</v>
+        <v>112037150</v>
       </c>
       <c r="B77" t="n">
-        <v>89405</v>
+        <v>89979</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8843,25 +8874,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8874,10 +8905,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562072</v>
+        <v>561922</v>
       </c>
       <c r="R77" t="n">
-        <v>7307343</v>
+        <v>7307321</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8937,10 +8968,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112037867</v>
+        <v>112037653</v>
       </c>
       <c r="B78" t="n">
-        <v>56398</v>
+        <v>89979</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8949,35 +8980,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -8985,10 +9011,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>562085</v>
+        <v>562092</v>
       </c>
       <c r="R78" t="n">
-        <v>7307453</v>
+        <v>7307380</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9023,17 +9049,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD78" t="b">
         <v>0</v>
       </c>
       <c r="AE78" t="b">
         <v>0</v>
       </c>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
@@ -9052,10 +9074,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112036972</v>
+        <v>112037372</v>
       </c>
       <c r="B79" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9068,31 +9090,26 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
@@ -9100,10 +9117,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>561903</v>
+        <v>561994</v>
       </c>
       <c r="R79" t="n">
-        <v>7307275</v>
+        <v>7307380</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9138,17 +9155,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD79" t="b">
         <v>0</v>
       </c>
       <c r="AE79" t="b">
         <v>0</v>
       </c>
+      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
@@ -9170,7 +9183,7 @@
         <v>112037088</v>
       </c>
       <c r="B80" t="n">
-        <v>89686</v>
+        <v>89820</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9273,10 +9286,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112037501</v>
+        <v>112037006</v>
       </c>
       <c r="B81" t="n">
-        <v>89401</v>
+        <v>89820</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9289,21 +9302,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9316,10 +9329,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>562072</v>
+        <v>561919</v>
       </c>
       <c r="R81" t="n">
-        <v>7307343</v>
+        <v>7307213</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9379,10 +9392,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112037401</v>
+        <v>112037825</v>
       </c>
       <c r="B82" t="n">
-        <v>56398</v>
+        <v>89539</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9395,31 +9408,26 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
@@ -9427,10 +9435,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>561988</v>
+        <v>562126</v>
       </c>
       <c r="R82" t="n">
-        <v>7307392</v>
+        <v>7307451</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9465,17 +9473,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD82" t="b">
         <v>0</v>
       </c>
       <c r="AE82" t="b">
         <v>0</v>
       </c>
+      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
       </c>
@@ -9494,10 +9498,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112037094</v>
+        <v>112037492</v>
       </c>
       <c r="B83" t="n">
-        <v>77515</v>
+        <v>89820</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9510,21 +9514,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9537,10 +9541,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>561968</v>
+        <v>562072</v>
       </c>
       <c r="R83" t="n">
-        <v>7307263</v>
+        <v>7307343</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9600,10 +9604,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112036871</v>
+        <v>112036981</v>
       </c>
       <c r="B84" t="n">
-        <v>77515</v>
+        <v>89535</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9616,30 +9620,26 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9647,10 +9647,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>561834</v>
+        <v>561903</v>
       </c>
       <c r="R84" t="n">
-        <v>7307224</v>
+        <v>7307275</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9683,11 +9683,6 @@
       <c r="AA84" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9715,10 +9710,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112036938</v>
+        <v>112037714</v>
       </c>
       <c r="B85" t="n">
-        <v>89419</v>
+        <v>77636</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9731,21 +9726,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9758,10 +9753,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>561846</v>
+        <v>562074</v>
       </c>
       <c r="R85" t="n">
-        <v>7307256</v>
+        <v>7307418</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9794,6 +9789,11 @@
       <c r="AA85" t="inlineStr">
         <is>
           <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9821,10 +9821,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112045899</v>
+        <v>112045880</v>
       </c>
       <c r="B86" t="n">
-        <v>56398</v>
+        <v>89979</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9833,43 +9833,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>562022</v>
+        <v>561969</v>
       </c>
       <c r="R86" t="n">
-        <v>7307404</v>
+        <v>7307275</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -9901,7 +9896,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9911,7 +9906,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9938,10 +9933,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112045887</v>
+        <v>112045895</v>
       </c>
       <c r="B87" t="n">
-        <v>89845</v>
+        <v>77636</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9950,25 +9945,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9978,10 +9973,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>561864</v>
+        <v>561962</v>
       </c>
       <c r="R87" t="n">
-        <v>7307276</v>
+        <v>7307355</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10013,7 +10008,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10023,7 +10018,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10050,10 +10045,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112045891</v>
+        <v>112045900</v>
       </c>
       <c r="B88" t="n">
-        <v>89686</v>
+        <v>77636</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10066,21 +10061,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10090,10 +10085,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>561886</v>
+        <v>562022</v>
       </c>
       <c r="R88" t="n">
-        <v>7307311</v>
+        <v>7307414</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10125,7 +10120,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10135,7 +10130,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10162,10 +10157,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112045880</v>
+        <v>112045882</v>
       </c>
       <c r="B89" t="n">
-        <v>89845</v>
+        <v>89820</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10174,25 +10169,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10202,10 +10197,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>561969</v>
+        <v>561971</v>
       </c>
       <c r="R89" t="n">
-        <v>7307275</v>
+        <v>7307277</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10237,7 +10232,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10247,7 +10242,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10274,10 +10269,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112045895</v>
+        <v>112045903</v>
       </c>
       <c r="B90" t="n">
-        <v>77515</v>
+        <v>56430</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10290,34 +10285,39 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>561962</v>
+        <v>562027</v>
       </c>
       <c r="R90" t="n">
-        <v>7307355</v>
+        <v>7307460</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10386,10 +10386,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112045886</v>
+        <v>112045885</v>
       </c>
       <c r="B91" t="n">
-        <v>56398</v>
+        <v>89820</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10402,39 +10402,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>561826</v>
+        <v>561946</v>
       </c>
       <c r="R91" t="n">
-        <v>7307246</v>
+        <v>7307238</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10466,7 +10461,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10476,7 +10471,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10503,10 +10498,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112045902</v>
+        <v>112045878</v>
       </c>
       <c r="B92" t="n">
-        <v>73696</v>
+        <v>89539</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10519,21 +10514,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10543,10 +10538,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>562033</v>
+        <v>561966</v>
       </c>
       <c r="R92" t="n">
-        <v>7307445</v>
+        <v>7307274</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -10578,7 +10573,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10588,7 +10583,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10615,10 +10610,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112045900</v>
+        <v>112045889</v>
       </c>
       <c r="B93" t="n">
-        <v>77515</v>
+        <v>89535</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10631,21 +10626,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10655,10 +10650,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>562022</v>
+        <v>561897</v>
       </c>
       <c r="R93" t="n">
-        <v>7307414</v>
+        <v>7307293</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -10690,7 +10685,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10700,7 +10695,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10727,10 +10722,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112045876</v>
+        <v>112045901</v>
       </c>
       <c r="B94" t="n">
-        <v>77515</v>
+        <v>89553</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10743,21 +10738,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10767,10 +10762,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>561966</v>
+        <v>562030</v>
       </c>
       <c r="R94" t="n">
-        <v>7307274</v>
+        <v>7307433</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -10802,7 +10797,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10812,7 +10807,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10839,10 +10834,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112045882</v>
+        <v>112045894</v>
       </c>
       <c r="B95" t="n">
-        <v>89686</v>
+        <v>89539</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10855,21 +10850,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10879,10 +10874,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>561971</v>
+        <v>561946</v>
       </c>
       <c r="R95" t="n">
-        <v>7307277</v>
+        <v>7307347</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -10914,7 +10909,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10924,7 +10919,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10951,10 +10946,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112045885</v>
+        <v>112045887</v>
       </c>
       <c r="B96" t="n">
-        <v>89686</v>
+        <v>89979</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10963,25 +10958,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10991,10 +10986,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>561946</v>
+        <v>561864</v>
       </c>
       <c r="R96" t="n">
-        <v>7307238</v>
+        <v>7307276</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11026,7 +11021,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11036,7 +11031,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11063,10 +11058,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112045892</v>
+        <v>112045890</v>
       </c>
       <c r="B97" t="n">
-        <v>73696</v>
+        <v>89557</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11079,21 +11074,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11106,7 +11101,7 @@
         <v>561896</v>
       </c>
       <c r="R97" t="n">
-        <v>7307311</v>
+        <v>7307280</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11138,7 +11133,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11148,7 +11143,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11175,10 +11170,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112045883</v>
+        <v>112045886</v>
       </c>
       <c r="B98" t="n">
-        <v>90087</v>
+        <v>56430</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11187,38 +11182,43 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>561972</v>
+        <v>561826</v>
       </c>
       <c r="R98" t="n">
-        <v>7307276</v>
+        <v>7307246</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11250,7 +11250,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11287,10 +11287,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112045890</v>
+        <v>112045891</v>
       </c>
       <c r="B99" t="n">
-        <v>89423</v>
+        <v>89820</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11303,21 +11303,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11327,10 +11327,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>561896</v>
+        <v>561886</v>
       </c>
       <c r="R99" t="n">
-        <v>7307280</v>
+        <v>7307311</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11372,7 +11372,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11399,10 +11399,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112045889</v>
+        <v>112045888</v>
       </c>
       <c r="B100" t="n">
-        <v>89401</v>
+        <v>89557</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11415,21 +11415,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11439,10 +11439,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>561897</v>
+        <v>561908</v>
       </c>
       <c r="R100" t="n">
-        <v>7307293</v>
+        <v>7307295</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11484,7 +11484,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11511,10 +11511,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112045878</v>
+        <v>112045898</v>
       </c>
       <c r="B101" t="n">
-        <v>89405</v>
+        <v>56430</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11527,34 +11527,39 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>561966</v>
+        <v>561992</v>
       </c>
       <c r="R101" t="n">
-        <v>7307274</v>
+        <v>7307388</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -11586,7 +11591,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11596,7 +11601,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11623,10 +11628,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112045897</v>
+        <v>112045876</v>
       </c>
       <c r="B102" t="n">
-        <v>73696</v>
+        <v>77636</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11639,21 +11644,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11663,10 +11668,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>561955</v>
+        <v>561966</v>
       </c>
       <c r="R102" t="n">
-        <v>7307352</v>
+        <v>7307274</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -11698,7 +11703,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11708,7 +11713,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11735,10 +11740,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112045893</v>
+        <v>112045884</v>
       </c>
       <c r="B103" t="n">
-        <v>76513</v>
+        <v>56430</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11751,34 +11756,39 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P103" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>561897</v>
+        <v>561944</v>
       </c>
       <c r="R103" t="n">
-        <v>7307313</v>
+        <v>7307233</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -11810,7 +11820,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11820,7 +11830,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11847,10 +11857,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112045881</v>
+        <v>112045902</v>
       </c>
       <c r="B104" t="n">
-        <v>89419</v>
+        <v>73820</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11863,21 +11873,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1204</v>
+        <v>6440</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -11887,10 +11897,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>561970</v>
+        <v>562033</v>
       </c>
       <c r="R104" t="n">
-        <v>7307275</v>
+        <v>7307445</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -11922,7 +11932,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -11932,7 +11942,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11959,10 +11969,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112045901</v>
+        <v>112045896</v>
       </c>
       <c r="B105" t="n">
-        <v>89419</v>
+        <v>76634</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -11975,21 +11985,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1204</v>
+        <v>314</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -11999,10 +12009,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562030</v>
+        <v>561958</v>
       </c>
       <c r="R105" t="n">
-        <v>7307433</v>
+        <v>7307348</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12034,7 +12044,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12044,7 +12054,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12071,10 +12081,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112045898</v>
+        <v>112045881</v>
       </c>
       <c r="B106" t="n">
-        <v>56398</v>
+        <v>89553</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12087,39 +12097,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>561992</v>
+        <v>561970</v>
       </c>
       <c r="R106" t="n">
-        <v>7307388</v>
+        <v>7307275</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12151,7 +12156,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12161,7 +12166,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12188,10 +12193,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112045884</v>
+        <v>112045893</v>
       </c>
       <c r="B107" t="n">
-        <v>56398</v>
+        <v>76634</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12204,39 +12209,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>561944</v>
+        <v>561897</v>
       </c>
       <c r="R107" t="n">
-        <v>7307233</v>
+        <v>7307313</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12305,10 +12305,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112045903</v>
+        <v>112045892</v>
       </c>
       <c r="B108" t="n">
-        <v>56398</v>
+        <v>73820</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12321,39 +12321,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>562027</v>
+        <v>561896</v>
       </c>
       <c r="R108" t="n">
-        <v>7307460</v>
+        <v>7307311</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -12385,7 +12380,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12395,7 +12390,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12422,10 +12417,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112045894</v>
+        <v>112045897</v>
       </c>
       <c r="B109" t="n">
-        <v>89405</v>
+        <v>73820</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12438,21 +12433,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12462,10 +12457,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>561946</v>
+        <v>561955</v>
       </c>
       <c r="R109" t="n">
-        <v>7307347</v>
+        <v>7307352</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -12497,7 +12492,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -12507,7 +12502,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12534,10 +12529,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112045896</v>
+        <v>112045883</v>
       </c>
       <c r="B110" t="n">
-        <v>76513</v>
+        <v>90221</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12546,25 +12541,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>314</v>
+        <v>3298</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12574,10 +12569,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>561958</v>
+        <v>561972</v>
       </c>
       <c r="R110" t="n">
-        <v>7307348</v>
+        <v>7307276</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -12609,7 +12604,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -12619,7 +12614,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12646,10 +12641,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112045888</v>
+        <v>112045877</v>
       </c>
       <c r="B111" t="n">
-        <v>89423</v>
+        <v>89535</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12662,21 +12657,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12686,10 +12681,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>561908</v>
+        <v>561966</v>
       </c>
       <c r="R111" t="n">
-        <v>7307295</v>
+        <v>7307274</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -12721,7 +12716,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -12731,7 +12726,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -12758,10 +12753,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112045877</v>
+        <v>112045899</v>
       </c>
       <c r="B112" t="n">
-        <v>89401</v>
+        <v>56430</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12774,34 +12769,39 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P112" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>561966</v>
+        <v>562022</v>
       </c>
       <c r="R112" t="n">
-        <v>7307274</v>
+        <v>7307404</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD112" t="b">

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -3436,10 +3436,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111959822</v>
+        <v>111959832</v>
       </c>
       <c r="B26" t="n">
-        <v>89535</v>
+        <v>81371</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3452,21 +3452,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1108</v>
+        <v>1312</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>561870</v>
+        <v>561916</v>
       </c>
       <c r="R26" t="n">
-        <v>7307209</v>
+        <v>7307339</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3538,10 +3538,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111959832</v>
+        <v>111959827</v>
       </c>
       <c r="B27" t="n">
-        <v>81371</v>
+        <v>89557</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3554,21 +3554,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3578,10 +3578,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>561916</v>
+        <v>561870</v>
       </c>
       <c r="R27" t="n">
-        <v>7307339</v>
+        <v>7307209</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111959827</v>
+        <v>111959822</v>
       </c>
       <c r="B28" t="n">
-        <v>89557</v>
+        <v>89535</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3656,21 +3656,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112037188</v>
+        <v>112037075</v>
       </c>
       <c r="B53" t="n">
         <v>56430</v>
@@ -6316,10 +6316,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>561922</v>
+        <v>561981</v>
       </c>
       <c r="R53" t="n">
-        <v>7307321</v>
+        <v>7307234</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112037075</v>
+        <v>112037188</v>
       </c>
       <c r="B54" t="n">
         <v>56430</v>
@@ -6431,10 +6431,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>561981</v>
+        <v>561922</v>
       </c>
       <c r="R54" t="n">
-        <v>7307234</v>
+        <v>7307321</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6927,10 +6927,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112036972</v>
+        <v>112037773</v>
       </c>
       <c r="B59" t="n">
-        <v>56430</v>
+        <v>89557</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6943,31 +6943,26 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -6975,10 +6970,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>561903</v>
+        <v>562043</v>
       </c>
       <c r="R59" t="n">
-        <v>7307275</v>
+        <v>7307416</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7013,17 +7008,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7042,10 +7033,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112036871</v>
+        <v>112036972</v>
       </c>
       <c r="B60" t="n">
-        <v>77636</v>
+        <v>56430</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7058,28 +7049,29 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -7089,10 +7081,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>561834</v>
+        <v>561903</v>
       </c>
       <c r="R60" t="n">
-        <v>7307224</v>
+        <v>7307275</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7129,7 +7121,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Drapperad gran</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7138,7 +7130,6 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7157,10 +7148,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112037796</v>
+        <v>112036871</v>
       </c>
       <c r="B61" t="n">
-        <v>89557</v>
+        <v>77636</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7173,26 +7164,30 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7200,10 +7195,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>562039</v>
+        <v>561834</v>
       </c>
       <c r="R61" t="n">
-        <v>7307445</v>
+        <v>7307224</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7236,6 +7231,11 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7263,10 +7263,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112037760</v>
+        <v>112037796</v>
       </c>
       <c r="B62" t="n">
-        <v>89881</v>
+        <v>89557</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7275,25 +7275,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2063</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>562043</v>
+        <v>562039</v>
       </c>
       <c r="R62" t="n">
-        <v>7307416</v>
+        <v>7307445</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7369,10 +7369,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112037773</v>
+        <v>112037760</v>
       </c>
       <c r="B63" t="n">
-        <v>89557</v>
+        <v>89881</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7381,25 +7381,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>2063</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -8429,10 +8429,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112037679</v>
+        <v>112037867</v>
       </c>
       <c r="B73" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8445,26 +8445,31 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -8472,10 +8477,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>562116</v>
+        <v>562085</v>
       </c>
       <c r="R73" t="n">
-        <v>7307412</v>
+        <v>7307453</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8510,13 +8515,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -8535,10 +8544,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112037585</v>
+        <v>112037519</v>
       </c>
       <c r="B74" t="n">
-        <v>77636</v>
+        <v>89557</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8551,21 +8560,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8641,10 +8650,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112037867</v>
+        <v>112037679</v>
       </c>
       <c r="B75" t="n">
-        <v>56430</v>
+        <v>89557</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8657,31 +8666,26 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -8689,10 +8693,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>562085</v>
+        <v>562116</v>
       </c>
       <c r="R75" t="n">
-        <v>7307453</v>
+        <v>7307412</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8727,17 +8731,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -8756,10 +8756,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112037519</v>
+        <v>112037585</v>
       </c>
       <c r="B76" t="n">
-        <v>89557</v>
+        <v>77636</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8772,21 +8772,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -3020,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111985427</v>
+        <v>111959828</v>
       </c>
       <c r="B22" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,42 +3036,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562014</v>
+        <v>561996</v>
       </c>
       <c r="R22" t="n">
-        <v>7307395</v>
+        <v>7307378</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3130,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111959811</v>
+        <v>111985426</v>
       </c>
       <c r="B23" t="n">
-        <v>89539</v>
+        <v>56430</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3146,34 +3138,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>561896</v>
+        <v>562016</v>
       </c>
       <c r="R23" t="n">
-        <v>7307298</v>
+        <v>7307406</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111959823</v>
+        <v>111959819</v>
       </c>
       <c r="B24" t="n">
-        <v>89535</v>
+        <v>89834</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3248,21 +3248,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562015</v>
+        <v>561895</v>
       </c>
       <c r="R24" t="n">
-        <v>7307418</v>
+        <v>7307265</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111959810</v>
+        <v>111959824</v>
       </c>
       <c r="B25" t="n">
-        <v>89539</v>
+        <v>89567</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3350,21 +3350,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>561894</v>
+        <v>561944</v>
       </c>
       <c r="R25" t="n">
-        <v>7307220</v>
+        <v>7307351</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111959832</v>
+        <v>111959809</v>
       </c>
       <c r="B26" t="n">
-        <v>81371</v>
+        <v>73834</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3452,21 +3452,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>561916</v>
+        <v>561927</v>
       </c>
       <c r="R26" t="n">
-        <v>7307339</v>
+        <v>7307338</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3538,10 +3538,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111959827</v>
+        <v>111985429</v>
       </c>
       <c r="B27" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3554,34 +3554,42 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>561870</v>
+        <v>561822</v>
       </c>
       <c r="R27" t="n">
-        <v>7307209</v>
+        <v>7307243</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3640,10 +3648,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111959822</v>
+        <v>111959834</v>
       </c>
       <c r="B28" t="n">
-        <v>89535</v>
+        <v>81385</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3656,21 +3664,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1108</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3680,10 +3688,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>561870</v>
+        <v>562009</v>
       </c>
       <c r="R28" t="n">
-        <v>7307209</v>
+        <v>7307380</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3742,10 +3750,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111959821</v>
+        <v>111959832</v>
       </c>
       <c r="B29" t="n">
-        <v>77717</v>
+        <v>81385</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3758,21 +3766,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3782,10 +3790,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>561962</v>
+        <v>561916</v>
       </c>
       <c r="R29" t="n">
-        <v>7307351</v>
+        <v>7307339</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3844,10 +3852,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111959829</v>
+        <v>111959833</v>
       </c>
       <c r="B30" t="n">
-        <v>77636</v>
+        <v>81385</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3860,21 +3868,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3884,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561894</v>
+        <v>562008</v>
       </c>
       <c r="R30" t="n">
-        <v>7307220</v>
+        <v>7307380</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3946,10 +3954,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111959819</v>
+        <v>111959810</v>
       </c>
       <c r="B31" t="n">
-        <v>89820</v>
+        <v>89553</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3962,21 +3970,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3986,10 +3994,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561895</v>
+        <v>561894</v>
       </c>
       <c r="R31" t="n">
-        <v>7307265</v>
+        <v>7307220</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4048,10 +4056,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111959831</v>
+        <v>111959829</v>
       </c>
       <c r="B32" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4088,10 +4096,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562009</v>
+        <v>561894</v>
       </c>
       <c r="R32" t="n">
-        <v>7307380</v>
+        <v>7307220</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4150,10 +4158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111959826</v>
+        <v>111959831</v>
       </c>
       <c r="B33" t="n">
-        <v>89881</v>
+        <v>77650</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4162,25 +4170,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2063</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4190,10 +4198,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561996</v>
+        <v>562009</v>
       </c>
       <c r="R33" t="n">
-        <v>7307379</v>
+        <v>7307380</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4252,10 +4260,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111959833</v>
+        <v>111959826</v>
       </c>
       <c r="B34" t="n">
-        <v>81371</v>
+        <v>89895</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4264,25 +4272,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1312</v>
+        <v>2063</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4292,10 +4300,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>562008</v>
+        <v>561996</v>
       </c>
       <c r="R34" t="n">
-        <v>7307380</v>
+        <v>7307379</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4354,10 +4362,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111959828</v>
+        <v>111985428</v>
       </c>
       <c r="B35" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4370,34 +4378,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561996</v>
+        <v>561916</v>
       </c>
       <c r="R35" t="n">
-        <v>7307378</v>
+        <v>7307339</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4456,10 +4472,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111985424</v>
+        <v>111959823</v>
       </c>
       <c r="B36" t="n">
-        <v>56430</v>
+        <v>89549</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4472,42 +4488,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>561895</v>
+        <v>562015</v>
       </c>
       <c r="R36" t="n">
-        <v>7307265</v>
+        <v>7307418</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4566,10 +4574,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111985428</v>
+        <v>111959822</v>
       </c>
       <c r="B37" t="n">
-        <v>56430</v>
+        <v>89549</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4582,42 +4590,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>561916</v>
+        <v>561870</v>
       </c>
       <c r="R37" t="n">
-        <v>7307339</v>
+        <v>7307209</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111985426</v>
+        <v>111959820</v>
       </c>
       <c r="B38" t="n">
-        <v>56430</v>
+        <v>77731</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4692,42 +4692,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>562016</v>
+        <v>561894</v>
       </c>
       <c r="R38" t="n">
-        <v>7307406</v>
+        <v>7307220</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4786,10 +4778,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111959834</v>
+        <v>111985425</v>
       </c>
       <c r="B39" t="n">
-        <v>81371</v>
+        <v>56430</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4802,34 +4794,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>562009</v>
+        <v>561986</v>
       </c>
       <c r="R39" t="n">
-        <v>7307380</v>
+        <v>7307363</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4888,10 +4888,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111959824</v>
+        <v>111959827</v>
       </c>
       <c r="B40" t="n">
-        <v>89553</v>
+        <v>89571</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4904,21 +4904,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4928,10 +4928,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>561944</v>
+        <v>561870</v>
       </c>
       <c r="R40" t="n">
-        <v>7307351</v>
+        <v>7307209</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -4990,10 +4990,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111959820</v>
+        <v>111959811</v>
       </c>
       <c r="B41" t="n">
-        <v>77717</v>
+        <v>89553</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5006,21 +5006,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>864</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5030,10 +5030,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>561894</v>
+        <v>561896</v>
       </c>
       <c r="R41" t="n">
-        <v>7307220</v>
+        <v>7307298</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111959809</v>
+        <v>111985424</v>
       </c>
       <c r="B42" t="n">
-        <v>73820</v>
+        <v>56430</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5108,34 +5108,42 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>561927</v>
+        <v>561895</v>
       </c>
       <c r="R42" t="n">
-        <v>7307338</v>
+        <v>7307265</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5197,7 +5205,7 @@
         <v>111959818</v>
       </c>
       <c r="B43" t="n">
-        <v>89820</v>
+        <v>89834</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5296,10 +5304,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111959830</v>
+        <v>111959825</v>
       </c>
       <c r="B44" t="n">
-        <v>77636</v>
+        <v>89895</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5308,25 +5316,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>2063</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5336,10 +5344,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>561915</v>
+        <v>561809</v>
       </c>
       <c r="R44" t="n">
-        <v>7307340</v>
+        <v>7307207</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5398,10 +5406,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111985425</v>
+        <v>111959821</v>
       </c>
       <c r="B45" t="n">
-        <v>56430</v>
+        <v>77731</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5414,42 +5422,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>561986</v>
+        <v>561962</v>
       </c>
       <c r="R45" t="n">
-        <v>7307363</v>
+        <v>7307351</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111985429</v>
+        <v>111959815</v>
       </c>
       <c r="B46" t="n">
         <v>56430</v>
@@ -5546,7 +5546,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -5556,10 +5556,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>561822</v>
+        <v>562014</v>
       </c>
       <c r="R46" t="n">
-        <v>7307243</v>
+        <v>7307395</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5618,10 +5618,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111959825</v>
+        <v>111959830</v>
       </c>
       <c r="B47" t="n">
-        <v>89881</v>
+        <v>77650</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5630,25 +5630,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2063</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>561809</v>
+        <v>561915</v>
       </c>
       <c r="R47" t="n">
-        <v>7307207</v>
+        <v>7307340</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5720,10 +5720,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112037501</v>
+        <v>112037401</v>
       </c>
       <c r="B48" t="n">
-        <v>89535</v>
+        <v>56430</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5736,26 +5736,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -5763,10 +5768,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>562072</v>
+        <v>561988</v>
       </c>
       <c r="R48" t="n">
-        <v>7307343</v>
+        <v>7307392</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5801,13 +5806,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5826,10 +5835,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112037000</v>
+        <v>112037108</v>
       </c>
       <c r="B49" t="n">
-        <v>89539</v>
+        <v>89834</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5842,21 +5851,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5869,10 +5878,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>561919</v>
+        <v>561976</v>
       </c>
       <c r="R49" t="n">
-        <v>7307213</v>
+        <v>7307273</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5932,10 +5941,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112037792</v>
+        <v>112037188</v>
       </c>
       <c r="B50" t="n">
-        <v>89535</v>
+        <v>56430</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5948,26 +5957,31 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -5975,10 +5989,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>562039</v>
+        <v>561922</v>
       </c>
       <c r="R50" t="n">
-        <v>7307445</v>
+        <v>7307321</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6013,13 +6027,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6038,10 +6056,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112037401</v>
+        <v>112037679</v>
       </c>
       <c r="B51" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6054,31 +6072,26 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6086,10 +6099,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>561988</v>
+        <v>562116</v>
       </c>
       <c r="R51" t="n">
-        <v>7307392</v>
+        <v>7307412</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6124,17 +6137,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6153,10 +6162,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112037927</v>
+        <v>112037006</v>
       </c>
       <c r="B52" t="n">
-        <v>56430</v>
+        <v>89834</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6169,31 +6178,26 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6201,10 +6205,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>562085</v>
+        <v>561919</v>
       </c>
       <c r="R52" t="n">
-        <v>7307474</v>
+        <v>7307213</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6239,17 +6243,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6268,10 +6268,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112037075</v>
+        <v>112037000</v>
       </c>
       <c r="B53" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6284,31 +6284,26 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6316,10 +6311,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>561981</v>
+        <v>561919</v>
       </c>
       <c r="R53" t="n">
-        <v>7307234</v>
+        <v>7307213</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6354,17 +6349,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6383,10 +6374,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112037188</v>
+        <v>112037509</v>
       </c>
       <c r="B54" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6399,31 +6390,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6431,10 +6417,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>561922</v>
+        <v>562072</v>
       </c>
       <c r="R54" t="n">
-        <v>7307321</v>
+        <v>7307343</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6471,7 +6457,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6480,6 +6466,7 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6498,10 +6485,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112037496</v>
+        <v>112037867</v>
       </c>
       <c r="B55" t="n">
-        <v>89539</v>
+        <v>56430</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6514,26 +6501,31 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6541,10 +6533,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>562072</v>
+        <v>562085</v>
       </c>
       <c r="R55" t="n">
-        <v>7307343</v>
+        <v>7307453</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6579,13 +6571,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -6604,10 +6600,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112037509</v>
+        <v>112037492</v>
       </c>
       <c r="B56" t="n">
-        <v>77636</v>
+        <v>89834</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6620,21 +6616,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6685,11 +6681,6 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Riktigt</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -6715,10 +6706,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112036909</v>
+        <v>112037796</v>
       </c>
       <c r="B57" t="n">
-        <v>89820</v>
+        <v>89571</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6731,21 +6722,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6758,10 +6749,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>561846</v>
+        <v>562039</v>
       </c>
       <c r="R57" t="n">
-        <v>7307256</v>
+        <v>7307445</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6821,10 +6812,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112036987</v>
+        <v>112036871</v>
       </c>
       <c r="B58" t="n">
-        <v>89557</v>
+        <v>77650</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6837,26 +6828,30 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -6864,10 +6859,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>561903</v>
+        <v>561834</v>
       </c>
       <c r="R58" t="n">
-        <v>7307275</v>
+        <v>7307224</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6900,6 +6895,11 @@
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6927,10 +6927,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112037773</v>
+        <v>112037075</v>
       </c>
       <c r="B59" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6943,26 +6943,31 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -6970,10 +6975,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>562043</v>
+        <v>561981</v>
       </c>
       <c r="R59" t="n">
-        <v>7307416</v>
+        <v>7307234</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7008,13 +7013,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7033,10 +7042,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112036972</v>
+        <v>112036996</v>
       </c>
       <c r="B60" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7049,31 +7058,26 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7081,10 +7085,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>561903</v>
+        <v>561919</v>
       </c>
       <c r="R60" t="n">
-        <v>7307275</v>
+        <v>7307213</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7119,17 +7123,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7148,10 +7148,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112036871</v>
+        <v>112036981</v>
       </c>
       <c r="B61" t="n">
-        <v>77636</v>
+        <v>89549</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7164,30 +7164,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7195,10 +7191,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>561834</v>
+        <v>561903</v>
       </c>
       <c r="R61" t="n">
-        <v>7307224</v>
+        <v>7307275</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7231,11 +7227,6 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7263,10 +7254,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112037796</v>
+        <v>112037372</v>
       </c>
       <c r="B62" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7306,10 +7297,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>562039</v>
+        <v>561994</v>
       </c>
       <c r="R62" t="n">
-        <v>7307445</v>
+        <v>7307380</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7369,10 +7360,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112037760</v>
+        <v>112037585</v>
       </c>
       <c r="B63" t="n">
-        <v>89881</v>
+        <v>77650</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7381,25 +7372,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2063</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7412,10 +7403,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>562043</v>
+        <v>562059</v>
       </c>
       <c r="R63" t="n">
-        <v>7307416</v>
+        <v>7307369</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7475,10 +7466,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112036996</v>
+        <v>112037519</v>
       </c>
       <c r="B64" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7518,10 +7509,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>561919</v>
+        <v>562059</v>
       </c>
       <c r="R64" t="n">
-        <v>7307213</v>
+        <v>7307369</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7581,10 +7572,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112037094</v>
+        <v>112036938</v>
       </c>
       <c r="B65" t="n">
-        <v>77636</v>
+        <v>89567</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7597,21 +7588,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7624,10 +7615,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>561968</v>
+        <v>561846</v>
       </c>
       <c r="R65" t="n">
-        <v>7307263</v>
+        <v>7307256</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7687,10 +7678,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112037831</v>
+        <v>112037760</v>
       </c>
       <c r="B66" t="n">
-        <v>89535</v>
+        <v>89895</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7699,25 +7690,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1108</v>
+        <v>2063</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7730,10 +7721,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>562126</v>
+        <v>562043</v>
       </c>
       <c r="R66" t="n">
-        <v>7307451</v>
+        <v>7307416</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7793,10 +7784,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112037108</v>
+        <v>112037714</v>
       </c>
       <c r="B67" t="n">
-        <v>89820</v>
+        <v>77650</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7809,21 +7800,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7836,10 +7827,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>561976</v>
+        <v>562074</v>
       </c>
       <c r="R67" t="n">
-        <v>7307273</v>
+        <v>7307418</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7872,6 +7863,11 @@
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7899,10 +7895,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112036938</v>
+        <v>112037172</v>
       </c>
       <c r="B68" t="n">
-        <v>89553</v>
+        <v>77650</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7915,21 +7911,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7942,10 +7938,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>561846</v>
+        <v>561922</v>
       </c>
       <c r="R68" t="n">
-        <v>7307256</v>
+        <v>7307321</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8005,10 +8001,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112037788</v>
+        <v>112037831</v>
       </c>
       <c r="B69" t="n">
-        <v>77636</v>
+        <v>89549</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8021,21 +8017,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8048,10 +8044,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>562039</v>
+        <v>562126</v>
       </c>
       <c r="R69" t="n">
-        <v>7307445</v>
+        <v>7307451</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8111,10 +8107,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112037364</v>
+        <v>112036909</v>
       </c>
       <c r="B70" t="n">
-        <v>89881</v>
+        <v>89834</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8123,25 +8119,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2063</v>
+        <v>658</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8154,10 +8150,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>561994</v>
+        <v>561846</v>
       </c>
       <c r="R70" t="n">
-        <v>7307380</v>
+        <v>7307256</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8217,10 +8213,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112037877</v>
+        <v>112037088</v>
       </c>
       <c r="B71" t="n">
-        <v>77636</v>
+        <v>89834</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8233,21 +8229,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8260,10 +8256,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>562085</v>
+        <v>561968</v>
       </c>
       <c r="R71" t="n">
-        <v>7307453</v>
+        <v>7307263</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8323,10 +8319,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112037172</v>
+        <v>112037825</v>
       </c>
       <c r="B72" t="n">
-        <v>77636</v>
+        <v>89553</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8339,21 +8335,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8366,10 +8362,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>561922</v>
+        <v>562126</v>
       </c>
       <c r="R72" t="n">
-        <v>7307321</v>
+        <v>7307451</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8429,10 +8425,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112037867</v>
+        <v>112037653</v>
       </c>
       <c r="B73" t="n">
-        <v>56430</v>
+        <v>89993</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8441,35 +8437,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -8477,10 +8468,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>562085</v>
+        <v>562092</v>
       </c>
       <c r="R73" t="n">
-        <v>7307453</v>
+        <v>7307380</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8515,17 +8506,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -8544,10 +8531,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112037519</v>
+        <v>112037792</v>
       </c>
       <c r="B74" t="n">
-        <v>89557</v>
+        <v>89549</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8560,21 +8547,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8587,10 +8574,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>562059</v>
+        <v>562039</v>
       </c>
       <c r="R74" t="n">
-        <v>7307369</v>
+        <v>7307445</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8650,10 +8637,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112037679</v>
+        <v>112037927</v>
       </c>
       <c r="B75" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8666,26 +8653,31 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -8693,10 +8685,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>562116</v>
+        <v>562085</v>
       </c>
       <c r="R75" t="n">
-        <v>7307412</v>
+        <v>7307474</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8731,13 +8723,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
       <c r="AE75" t="b">
         <v>0</v>
       </c>
-      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -8756,10 +8752,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112037585</v>
+        <v>112037501</v>
       </c>
       <c r="B76" t="n">
-        <v>77636</v>
+        <v>89549</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8772,21 +8768,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8799,10 +8795,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>562059</v>
+        <v>562072</v>
       </c>
       <c r="R76" t="n">
-        <v>7307369</v>
+        <v>7307343</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8862,10 +8858,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112037150</v>
+        <v>112037496</v>
       </c>
       <c r="B77" t="n">
-        <v>89979</v>
+        <v>89553</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8874,25 +8870,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8905,10 +8901,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>561922</v>
+        <v>562072</v>
       </c>
       <c r="R77" t="n">
-        <v>7307321</v>
+        <v>7307343</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8968,10 +8964,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112037653</v>
+        <v>112037150</v>
       </c>
       <c r="B78" t="n">
-        <v>89979</v>
+        <v>89993</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9011,10 +9007,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>562092</v>
+        <v>561922</v>
       </c>
       <c r="R78" t="n">
-        <v>7307380</v>
+        <v>7307321</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9074,10 +9070,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112037372</v>
+        <v>112037094</v>
       </c>
       <c r="B79" t="n">
-        <v>89557</v>
+        <v>77650</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9090,21 +9086,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9117,10 +9113,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>561994</v>
+        <v>561968</v>
       </c>
       <c r="R79" t="n">
-        <v>7307380</v>
+        <v>7307263</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9180,10 +9176,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112037088</v>
+        <v>112036987</v>
       </c>
       <c r="B80" t="n">
-        <v>89820</v>
+        <v>89571</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9196,21 +9192,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9223,10 +9219,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>561968</v>
+        <v>561903</v>
       </c>
       <c r="R80" t="n">
-        <v>7307263</v>
+        <v>7307275</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9286,10 +9282,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112037006</v>
+        <v>112037364</v>
       </c>
       <c r="B81" t="n">
-        <v>89820</v>
+        <v>89895</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9298,25 +9294,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>658</v>
+        <v>2063</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9329,10 +9325,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>561919</v>
+        <v>561994</v>
       </c>
       <c r="R81" t="n">
-        <v>7307213</v>
+        <v>7307380</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9392,10 +9388,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112037825</v>
+        <v>112037788</v>
       </c>
       <c r="B82" t="n">
-        <v>89539</v>
+        <v>77650</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9408,21 +9404,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9435,10 +9431,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>562126</v>
+        <v>562039</v>
       </c>
       <c r="R82" t="n">
-        <v>7307451</v>
+        <v>7307445</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9498,10 +9494,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112037492</v>
+        <v>112037877</v>
       </c>
       <c r="B83" t="n">
-        <v>89820</v>
+        <v>77650</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9514,21 +9510,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9541,10 +9537,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>562072</v>
+        <v>562085</v>
       </c>
       <c r="R83" t="n">
-        <v>7307343</v>
+        <v>7307453</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9604,10 +9600,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112036981</v>
+        <v>112036972</v>
       </c>
       <c r="B84" t="n">
-        <v>89535</v>
+        <v>56430</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9620,26 +9616,31 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9685,13 +9686,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
       <c r="AE84" t="b">
         <v>0</v>
       </c>
-      <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="b">
         <v>0</v>
       </c>
@@ -9710,10 +9715,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112037714</v>
+        <v>112037773</v>
       </c>
       <c r="B85" t="n">
-        <v>77636</v>
+        <v>89571</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9726,21 +9731,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9753,10 +9758,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>562074</v>
+        <v>562043</v>
       </c>
       <c r="R85" t="n">
-        <v>7307418</v>
+        <v>7307416</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9789,11 +9794,6 @@
       <c r="AA85" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9821,10 +9821,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112045880</v>
+        <v>112045896</v>
       </c>
       <c r="B86" t="n">
-        <v>89979</v>
+        <v>76648</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9833,25 +9833,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1209</v>
+        <v>314</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9861,10 +9861,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>561969</v>
+        <v>561958</v>
       </c>
       <c r="R86" t="n">
-        <v>7307275</v>
+        <v>7307348</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9933,10 +9933,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112045895</v>
+        <v>112045878</v>
       </c>
       <c r="B87" t="n">
-        <v>77636</v>
+        <v>89553</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9949,21 +9949,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9973,10 +9973,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>561962</v>
+        <v>561966</v>
       </c>
       <c r="R87" t="n">
-        <v>7307355</v>
+        <v>7307274</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10018,7 +10018,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10045,10 +10045,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112045900</v>
+        <v>112045890</v>
       </c>
       <c r="B88" t="n">
-        <v>77636</v>
+        <v>89571</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10061,21 +10061,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10085,10 +10085,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>562022</v>
+        <v>561896</v>
       </c>
       <c r="R88" t="n">
-        <v>7307414</v>
+        <v>7307280</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10130,7 +10130,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10157,10 +10157,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112045882</v>
+        <v>112045887</v>
       </c>
       <c r="B89" t="n">
-        <v>89820</v>
+        <v>89993</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10169,25 +10169,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10197,10 +10197,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>561971</v>
+        <v>561864</v>
       </c>
       <c r="R89" t="n">
-        <v>7307277</v>
+        <v>7307276</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10232,7 +10232,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10269,10 +10269,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112045903</v>
+        <v>112045900</v>
       </c>
       <c r="B90" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10285,39 +10285,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562027</v>
+        <v>562022</v>
       </c>
       <c r="R90" t="n">
-        <v>7307460</v>
+        <v>7307414</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10349,7 +10344,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10359,7 +10354,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10386,10 +10381,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112045885</v>
+        <v>112045886</v>
       </c>
       <c r="B91" t="n">
-        <v>89820</v>
+        <v>56430</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10402,34 +10397,39 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>561946</v>
+        <v>561826</v>
       </c>
       <c r="R91" t="n">
-        <v>7307238</v>
+        <v>7307246</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10498,10 +10498,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112045878</v>
+        <v>112045876</v>
       </c>
       <c r="B92" t="n">
-        <v>89539</v>
+        <v>77650</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10514,21 +10514,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10610,10 +10610,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112045889</v>
+        <v>112045882</v>
       </c>
       <c r="B93" t="n">
-        <v>89535</v>
+        <v>89834</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10626,21 +10626,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10650,10 +10650,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>561897</v>
+        <v>561971</v>
       </c>
       <c r="R93" t="n">
-        <v>7307293</v>
+        <v>7307277</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10722,7 +10722,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112045901</v>
+        <v>112045894</v>
       </c>
       <c r="B94" t="n">
         <v>89553</v>
@@ -10738,21 +10738,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10762,10 +10762,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562030</v>
+        <v>561946</v>
       </c>
       <c r="R94" t="n">
-        <v>7307433</v>
+        <v>7307347</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10834,10 +10834,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112045894</v>
+        <v>112045891</v>
       </c>
       <c r="B95" t="n">
-        <v>89539</v>
+        <v>89834</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10850,21 +10850,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10874,10 +10874,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>561946</v>
+        <v>561886</v>
       </c>
       <c r="R95" t="n">
-        <v>7307347</v>
+        <v>7307311</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10946,10 +10946,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112045887</v>
+        <v>112045893</v>
       </c>
       <c r="B96" t="n">
-        <v>89979</v>
+        <v>76648</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10958,25 +10958,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1209</v>
+        <v>314</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10986,10 +10986,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>561864</v>
+        <v>561897</v>
       </c>
       <c r="R96" t="n">
-        <v>7307276</v>
+        <v>7307313</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11058,10 +11058,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112045890</v>
+        <v>112045902</v>
       </c>
       <c r="B97" t="n">
-        <v>89557</v>
+        <v>73834</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11074,21 +11074,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11098,10 +11098,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>561896</v>
+        <v>562033</v>
       </c>
       <c r="R97" t="n">
-        <v>7307280</v>
+        <v>7307445</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11170,10 +11170,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112045886</v>
+        <v>112045895</v>
       </c>
       <c r="B98" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11186,39 +11186,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>561826</v>
+        <v>561962</v>
       </c>
       <c r="R98" t="n">
-        <v>7307246</v>
+        <v>7307355</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11250,7 +11245,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11260,7 +11255,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11287,10 +11282,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112045891</v>
+        <v>112045897</v>
       </c>
       <c r="B99" t="n">
-        <v>89820</v>
+        <v>73834</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11303,21 +11298,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11327,10 +11322,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>561886</v>
+        <v>561955</v>
       </c>
       <c r="R99" t="n">
-        <v>7307311</v>
+        <v>7307352</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11362,7 +11357,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11372,7 +11367,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11399,10 +11394,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112045888</v>
+        <v>112045889</v>
       </c>
       <c r="B100" t="n">
-        <v>89557</v>
+        <v>89549</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11415,21 +11410,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11439,10 +11434,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>561908</v>
+        <v>561897</v>
       </c>
       <c r="R100" t="n">
-        <v>7307295</v>
+        <v>7307293</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11474,7 +11469,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11484,7 +11479,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11511,10 +11506,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112045898</v>
+        <v>112045892</v>
       </c>
       <c r="B101" t="n">
-        <v>56430</v>
+        <v>73834</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11527,39 +11522,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>561992</v>
+        <v>561896</v>
       </c>
       <c r="R101" t="n">
-        <v>7307388</v>
+        <v>7307311</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -11591,7 +11581,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11601,7 +11591,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11628,10 +11618,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112045876</v>
+        <v>112045880</v>
       </c>
       <c r="B102" t="n">
-        <v>77636</v>
+        <v>89993</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11640,25 +11630,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11668,10 +11658,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>561966</v>
+        <v>561969</v>
       </c>
       <c r="R102" t="n">
-        <v>7307274</v>
+        <v>7307275</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -11703,7 +11693,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11713,7 +11703,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11740,7 +11730,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112045884</v>
+        <v>112045899</v>
       </c>
       <c r="B103" t="n">
         <v>56430</v>
@@ -11785,10 +11775,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>561944</v>
+        <v>562022</v>
       </c>
       <c r="R103" t="n">
-        <v>7307233</v>
+        <v>7307404</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -11820,7 +11810,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11830,7 +11820,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11857,10 +11847,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112045902</v>
+        <v>112045898</v>
       </c>
       <c r="B104" t="n">
-        <v>73820</v>
+        <v>56430</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11873,34 +11863,39 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P104" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>562033</v>
+        <v>561992</v>
       </c>
       <c r="R104" t="n">
-        <v>7307445</v>
+        <v>7307388</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -11932,7 +11927,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -11942,7 +11937,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11969,10 +11964,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112045896</v>
+        <v>112045901</v>
       </c>
       <c r="B105" t="n">
-        <v>76634</v>
+        <v>89567</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -11985,21 +11980,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>314</v>
+        <v>1204</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12009,10 +12004,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>561958</v>
+        <v>562030</v>
       </c>
       <c r="R105" t="n">
-        <v>7307348</v>
+        <v>7307433</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12044,7 +12039,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12054,7 +12049,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12081,10 +12076,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112045881</v>
+        <v>112045884</v>
       </c>
       <c r="B106" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12097,34 +12092,39 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>561970</v>
+        <v>561944</v>
       </c>
       <c r="R106" t="n">
-        <v>7307275</v>
+        <v>7307233</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12193,10 +12193,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112045893</v>
+        <v>112045881</v>
       </c>
       <c r="B107" t="n">
-        <v>76634</v>
+        <v>89567</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12209,21 +12209,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>314</v>
+        <v>1204</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12233,10 +12233,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>561897</v>
+        <v>561970</v>
       </c>
       <c r="R107" t="n">
-        <v>7307313</v>
+        <v>7307275</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12305,10 +12305,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112045892</v>
+        <v>112045883</v>
       </c>
       <c r="B108" t="n">
-        <v>73820</v>
+        <v>90235</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12317,25 +12317,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6440</v>
+        <v>3298</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12345,10 +12345,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>561896</v>
+        <v>561972</v>
       </c>
       <c r="R108" t="n">
-        <v>7307311</v>
+        <v>7307276</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -12380,7 +12380,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12417,10 +12417,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112045897</v>
+        <v>112045903</v>
       </c>
       <c r="B109" t="n">
-        <v>73820</v>
+        <v>56430</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12433,34 +12433,39 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P109" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>561955</v>
+        <v>562027</v>
       </c>
       <c r="R109" t="n">
-        <v>7307352</v>
+        <v>7307460</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -12492,7 +12497,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -12502,7 +12507,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12529,10 +12534,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112045883</v>
+        <v>112045888</v>
       </c>
       <c r="B110" t="n">
-        <v>90221</v>
+        <v>89571</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12541,25 +12546,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12569,10 +12574,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>561972</v>
+        <v>561908</v>
       </c>
       <c r="R110" t="n">
-        <v>7307276</v>
+        <v>7307295</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -12604,7 +12609,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -12614,7 +12619,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12644,7 +12649,7 @@
         <v>112045877</v>
       </c>
       <c r="B111" t="n">
-        <v>89535</v>
+        <v>89549</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12753,10 +12758,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112045899</v>
+        <v>112045885</v>
       </c>
       <c r="B112" t="n">
-        <v>56430</v>
+        <v>89834</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12769,39 +12774,34 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P112" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>562022</v>
+        <v>561946</v>
       </c>
       <c r="R112" t="n">
-        <v>7307404</v>
+        <v>7307238</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD112" t="b">

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -3020,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111959828</v>
+        <v>111959811</v>
       </c>
       <c r="B22" t="n">
-        <v>89571</v>
+        <v>89553</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,21 +3036,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3060,10 +3060,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>561996</v>
+        <v>561896</v>
       </c>
       <c r="R22" t="n">
-        <v>7307378</v>
+        <v>7307298</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111985426</v>
+        <v>111959810</v>
       </c>
       <c r="B23" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3138,42 +3138,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562016</v>
+        <v>561894</v>
       </c>
       <c r="R23" t="n">
-        <v>7307406</v>
+        <v>7307220</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3232,10 +3224,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111959819</v>
+        <v>111959833</v>
       </c>
       <c r="B24" t="n">
-        <v>89834</v>
+        <v>81385</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3248,21 +3240,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>1312</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3272,10 +3264,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>561895</v>
+        <v>562008</v>
       </c>
       <c r="R24" t="n">
-        <v>7307265</v>
+        <v>7307380</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3334,10 +3326,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111959824</v>
+        <v>111959820</v>
       </c>
       <c r="B25" t="n">
-        <v>89567</v>
+        <v>77731</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3350,21 +3342,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1204</v>
+        <v>864</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3374,10 +3366,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>561944</v>
+        <v>561894</v>
       </c>
       <c r="R25" t="n">
-        <v>7307351</v>
+        <v>7307220</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3436,10 +3428,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111959809</v>
+        <v>111959822</v>
       </c>
       <c r="B26" t="n">
-        <v>73834</v>
+        <v>89549</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3452,21 +3444,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6440</v>
+        <v>1108</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3476,10 +3468,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>561927</v>
+        <v>561870</v>
       </c>
       <c r="R26" t="n">
-        <v>7307338</v>
+        <v>7307209</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3538,10 +3530,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111985429</v>
+        <v>111959826</v>
       </c>
       <c r="B27" t="n">
-        <v>56430</v>
+        <v>89895</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3550,46 +3542,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>561822</v>
+        <v>561996</v>
       </c>
       <c r="R27" t="n">
-        <v>7307243</v>
+        <v>7307379</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3648,10 +3632,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111959834</v>
+        <v>111959831</v>
       </c>
       <c r="B28" t="n">
-        <v>81385</v>
+        <v>77650</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3664,21 +3648,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3750,10 +3734,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111959832</v>
+        <v>111959830</v>
       </c>
       <c r="B29" t="n">
-        <v>81385</v>
+        <v>77650</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3766,21 +3750,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3790,10 +3774,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>561916</v>
+        <v>561915</v>
       </c>
       <c r="R29" t="n">
-        <v>7307339</v>
+        <v>7307340</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3852,7 +3836,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111959833</v>
+        <v>111959832</v>
       </c>
       <c r="B30" t="n">
         <v>81385</v>
@@ -3892,10 +3876,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562008</v>
+        <v>561916</v>
       </c>
       <c r="R30" t="n">
-        <v>7307380</v>
+        <v>7307339</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3954,10 +3938,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111959810</v>
+        <v>111985429</v>
       </c>
       <c r="B31" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3970,34 +3954,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561894</v>
+        <v>561822</v>
       </c>
       <c r="R31" t="n">
-        <v>7307220</v>
+        <v>7307243</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4056,10 +4048,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111959829</v>
+        <v>111985426</v>
       </c>
       <c r="B32" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4072,34 +4064,42 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561894</v>
+        <v>562016</v>
       </c>
       <c r="R32" t="n">
-        <v>7307220</v>
+        <v>7307406</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111959831</v>
+        <v>111985428</v>
       </c>
       <c r="B33" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4174,34 +4174,42 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562009</v>
+        <v>561916</v>
       </c>
       <c r="R33" t="n">
-        <v>7307380</v>
+        <v>7307339</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4260,10 +4268,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111959826</v>
+        <v>111959819</v>
       </c>
       <c r="B34" t="n">
-        <v>89895</v>
+        <v>89834</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4272,25 +4280,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2063</v>
+        <v>658</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4300,10 +4308,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561996</v>
+        <v>561895</v>
       </c>
       <c r="R34" t="n">
-        <v>7307379</v>
+        <v>7307265</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4362,10 +4370,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111985428</v>
+        <v>111959829</v>
       </c>
       <c r="B35" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4378,42 +4386,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561916</v>
+        <v>561894</v>
       </c>
       <c r="R35" t="n">
-        <v>7307339</v>
+        <v>7307220</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4472,10 +4472,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111959823</v>
+        <v>111985427</v>
       </c>
       <c r="B36" t="n">
-        <v>89549</v>
+        <v>56430</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4488,34 +4488,42 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>562015</v>
+        <v>562014</v>
       </c>
       <c r="R36" t="n">
-        <v>7307418</v>
+        <v>7307395</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4574,10 +4582,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111959822</v>
+        <v>111959828</v>
       </c>
       <c r="B37" t="n">
-        <v>89549</v>
+        <v>89571</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4590,21 +4598,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4614,10 +4622,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>561870</v>
+        <v>561996</v>
       </c>
       <c r="R37" t="n">
-        <v>7307209</v>
+        <v>7307378</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4676,10 +4684,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111959820</v>
+        <v>111959824</v>
       </c>
       <c r="B38" t="n">
-        <v>77731</v>
+        <v>89567</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4692,21 +4700,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>864</v>
+        <v>1204</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4716,10 +4724,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>561894</v>
+        <v>561944</v>
       </c>
       <c r="R38" t="n">
-        <v>7307220</v>
+        <v>7307351</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4778,10 +4786,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111985425</v>
+        <v>111959825</v>
       </c>
       <c r="B39" t="n">
-        <v>56430</v>
+        <v>89895</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4790,46 +4798,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>561986</v>
+        <v>561809</v>
       </c>
       <c r="R39" t="n">
-        <v>7307363</v>
+        <v>7307207</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4888,10 +4888,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111959827</v>
+        <v>111959823</v>
       </c>
       <c r="B40" t="n">
-        <v>89571</v>
+        <v>89549</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4904,21 +4904,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4928,10 +4928,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>561870</v>
+        <v>562015</v>
       </c>
       <c r="R40" t="n">
-        <v>7307209</v>
+        <v>7307418</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -4990,10 +4990,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111959811</v>
+        <v>111959818</v>
       </c>
       <c r="B41" t="n">
-        <v>89553</v>
+        <v>89834</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5006,21 +5006,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5030,10 +5030,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>561896</v>
+        <v>561894</v>
       </c>
       <c r="R41" t="n">
-        <v>7307298</v>
+        <v>7307220</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111985424</v>
+        <v>111959834</v>
       </c>
       <c r="B42" t="n">
-        <v>56430</v>
+        <v>81385</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5108,42 +5108,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>561895</v>
+        <v>562009</v>
       </c>
       <c r="R42" t="n">
-        <v>7307265</v>
+        <v>7307380</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5202,10 +5194,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111959818</v>
+        <v>111959809</v>
       </c>
       <c r="B43" t="n">
-        <v>89834</v>
+        <v>73834</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5218,21 +5210,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5242,10 +5234,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>561894</v>
+        <v>561927</v>
       </c>
       <c r="R43" t="n">
-        <v>7307220</v>
+        <v>7307338</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5304,10 +5296,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111959825</v>
+        <v>111985424</v>
       </c>
       <c r="B44" t="n">
-        <v>89895</v>
+        <v>56430</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5316,38 +5308,46 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>561809</v>
+        <v>561895</v>
       </c>
       <c r="R44" t="n">
-        <v>7307207</v>
+        <v>7307265</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5406,10 +5406,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111959821</v>
+        <v>111959827</v>
       </c>
       <c r="B45" t="n">
-        <v>77731</v>
+        <v>89571</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5422,21 +5422,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5446,10 +5446,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>561962</v>
+        <v>561870</v>
       </c>
       <c r="R45" t="n">
-        <v>7307351</v>
+        <v>7307209</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5508,10 +5508,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111959815</v>
+        <v>111959821</v>
       </c>
       <c r="B46" t="n">
-        <v>56430</v>
+        <v>77731</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5524,42 +5524,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>562014</v>
+        <v>561962</v>
       </c>
       <c r="R46" t="n">
-        <v>7307395</v>
+        <v>7307351</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5618,10 +5610,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111959830</v>
+        <v>111985425</v>
       </c>
       <c r="B47" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5634,34 +5626,42 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>561915</v>
+        <v>561986</v>
       </c>
       <c r="R47" t="n">
-        <v>7307340</v>
+        <v>7307363</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5720,10 +5720,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112037401</v>
+        <v>112037679</v>
       </c>
       <c r="B48" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5736,31 +5736,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -5768,10 +5763,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>561988</v>
+        <v>562116</v>
       </c>
       <c r="R48" t="n">
-        <v>7307392</v>
+        <v>7307412</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5806,17 +5801,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5835,10 +5826,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112037108</v>
+        <v>112037509</v>
       </c>
       <c r="B49" t="n">
-        <v>89834</v>
+        <v>77650</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5851,21 +5842,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5878,10 +5869,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>561976</v>
+        <v>562072</v>
       </c>
       <c r="R49" t="n">
-        <v>7307273</v>
+        <v>7307343</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5914,6 +5905,11 @@
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5941,10 +5937,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112037188</v>
+        <v>112037150</v>
       </c>
       <c r="B50" t="n">
-        <v>56430</v>
+        <v>89993</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5953,35 +5949,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6027,17 +6018,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6056,10 +6043,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112037679</v>
+        <v>112037108</v>
       </c>
       <c r="B51" t="n">
-        <v>89571</v>
+        <v>89834</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6072,21 +6059,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6099,10 +6086,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>562116</v>
+        <v>561976</v>
       </c>
       <c r="R51" t="n">
-        <v>7307412</v>
+        <v>7307273</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6162,10 +6149,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112037006</v>
+        <v>112037825</v>
       </c>
       <c r="B52" t="n">
-        <v>89834</v>
+        <v>89553</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6178,21 +6165,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6205,10 +6192,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>561919</v>
+        <v>562126</v>
       </c>
       <c r="R52" t="n">
-        <v>7307213</v>
+        <v>7307451</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6268,10 +6255,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112037000</v>
+        <v>112036987</v>
       </c>
       <c r="B53" t="n">
-        <v>89553</v>
+        <v>89571</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6284,21 +6271,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6311,10 +6298,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>561919</v>
+        <v>561903</v>
       </c>
       <c r="R53" t="n">
-        <v>7307213</v>
+        <v>7307275</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6374,10 +6361,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112037509</v>
+        <v>112037501</v>
       </c>
       <c r="B54" t="n">
-        <v>77650</v>
+        <v>89549</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6390,21 +6377,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6455,11 +6442,6 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Riktigt</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
@@ -6485,7 +6467,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112037867</v>
+        <v>112037188</v>
       </c>
       <c r="B55" t="n">
         <v>56430</v>
@@ -6523,7 +6505,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -6533,10 +6515,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>562085</v>
+        <v>561922</v>
       </c>
       <c r="R55" t="n">
-        <v>7307453</v>
+        <v>7307321</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6600,10 +6582,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112037492</v>
+        <v>112037172</v>
       </c>
       <c r="B56" t="n">
-        <v>89834</v>
+        <v>77650</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6616,21 +6598,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6643,10 +6625,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>562072</v>
+        <v>561922</v>
       </c>
       <c r="R56" t="n">
-        <v>7307343</v>
+        <v>7307321</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6706,10 +6688,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112037796</v>
+        <v>112037714</v>
       </c>
       <c r="B57" t="n">
-        <v>89571</v>
+        <v>77650</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6722,21 +6704,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6749,10 +6731,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>562039</v>
+        <v>562074</v>
       </c>
       <c r="R57" t="n">
-        <v>7307445</v>
+        <v>7307418</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6785,6 +6767,11 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6812,10 +6799,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112036871</v>
+        <v>112036996</v>
       </c>
       <c r="B58" t="n">
-        <v>77650</v>
+        <v>89571</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6828,30 +6815,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -6859,10 +6842,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>561834</v>
+        <v>561919</v>
       </c>
       <c r="R58" t="n">
-        <v>7307224</v>
+        <v>7307213</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6895,11 +6878,6 @@
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6927,10 +6905,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112037075</v>
+        <v>112037372</v>
       </c>
       <c r="B59" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6943,31 +6921,26 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -6975,10 +6948,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>561981</v>
+        <v>561994</v>
       </c>
       <c r="R59" t="n">
-        <v>7307234</v>
+        <v>7307380</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7013,17 +6986,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7042,7 +7011,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112036996</v>
+        <v>112037773</v>
       </c>
       <c r="B60" t="n">
         <v>89571</v>
@@ -7085,10 +7054,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>561919</v>
+        <v>562043</v>
       </c>
       <c r="R60" t="n">
-        <v>7307213</v>
+        <v>7307416</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7148,10 +7117,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112036981</v>
+        <v>112036938</v>
       </c>
       <c r="B61" t="n">
-        <v>89549</v>
+        <v>89567</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7164,21 +7133,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1108</v>
+        <v>1204</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7191,10 +7160,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>561903</v>
+        <v>561846</v>
       </c>
       <c r="R61" t="n">
-        <v>7307275</v>
+        <v>7307256</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7254,10 +7223,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112037372</v>
+        <v>112036981</v>
       </c>
       <c r="B62" t="n">
-        <v>89571</v>
+        <v>89549</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7270,21 +7239,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7297,10 +7266,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>561994</v>
+        <v>561903</v>
       </c>
       <c r="R62" t="n">
-        <v>7307380</v>
+        <v>7307275</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7360,10 +7329,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112037585</v>
+        <v>112037792</v>
       </c>
       <c r="B63" t="n">
-        <v>77650</v>
+        <v>89549</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7376,21 +7345,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7403,10 +7372,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>562059</v>
+        <v>562039</v>
       </c>
       <c r="R63" t="n">
-        <v>7307369</v>
+        <v>7307445</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7572,10 +7541,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112036938</v>
+        <v>112037088</v>
       </c>
       <c r="B65" t="n">
-        <v>89567</v>
+        <v>89834</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7588,21 +7557,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7615,10 +7584,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>561846</v>
+        <v>561968</v>
       </c>
       <c r="R65" t="n">
-        <v>7307256</v>
+        <v>7307263</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7678,10 +7647,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112037760</v>
+        <v>112037867</v>
       </c>
       <c r="B66" t="n">
-        <v>89895</v>
+        <v>56430</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7690,30 +7659,35 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -7721,10 +7695,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>562043</v>
+        <v>562085</v>
       </c>
       <c r="R66" t="n">
-        <v>7307416</v>
+        <v>7307453</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7759,13 +7733,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -7784,10 +7762,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112037714</v>
+        <v>112037364</v>
       </c>
       <c r="B67" t="n">
-        <v>77650</v>
+        <v>89895</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7796,25 +7774,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>2063</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7827,10 +7805,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>562074</v>
+        <v>561994</v>
       </c>
       <c r="R67" t="n">
-        <v>7307418</v>
+        <v>7307380</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7863,11 +7841,6 @@
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7895,10 +7868,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112037172</v>
+        <v>112037760</v>
       </c>
       <c r="B68" t="n">
-        <v>77650</v>
+        <v>89895</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7907,25 +7880,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>2063</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7938,10 +7911,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>561922</v>
+        <v>562043</v>
       </c>
       <c r="R68" t="n">
-        <v>7307321</v>
+        <v>7307416</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8001,10 +7974,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112037831</v>
+        <v>112037094</v>
       </c>
       <c r="B69" t="n">
-        <v>89549</v>
+        <v>77650</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8017,21 +7990,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8044,10 +8017,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>562126</v>
+        <v>561968</v>
       </c>
       <c r="R69" t="n">
-        <v>7307451</v>
+        <v>7307263</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8107,10 +8080,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112036909</v>
+        <v>112037788</v>
       </c>
       <c r="B70" t="n">
-        <v>89834</v>
+        <v>77650</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8123,21 +8096,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8150,10 +8123,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>561846</v>
+        <v>562039</v>
       </c>
       <c r="R70" t="n">
-        <v>7307256</v>
+        <v>7307445</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8213,10 +8186,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112037088</v>
+        <v>112037585</v>
       </c>
       <c r="B71" t="n">
-        <v>89834</v>
+        <v>77650</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8229,21 +8202,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8256,10 +8229,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>561968</v>
+        <v>562059</v>
       </c>
       <c r="R71" t="n">
-        <v>7307263</v>
+        <v>7307369</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8319,7 +8292,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112037825</v>
+        <v>112037496</v>
       </c>
       <c r="B72" t="n">
         <v>89553</v>
@@ -8362,10 +8335,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562126</v>
+        <v>562072</v>
       </c>
       <c r="R72" t="n">
-        <v>7307451</v>
+        <v>7307343</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8425,10 +8398,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112037653</v>
+        <v>112036972</v>
       </c>
       <c r="B73" t="n">
-        <v>89993</v>
+        <v>56430</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8437,30 +8410,35 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -8468,10 +8446,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>562092</v>
+        <v>561903</v>
       </c>
       <c r="R73" t="n">
-        <v>7307380</v>
+        <v>7307275</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8506,13 +8484,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -8531,10 +8513,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112037792</v>
+        <v>112037072</v>
       </c>
       <c r="B74" t="n">
-        <v>89549</v>
+        <v>56430</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8547,26 +8529,31 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -8574,10 +8561,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>562039</v>
+        <v>561981</v>
       </c>
       <c r="R74" t="n">
-        <v>7307445</v>
+        <v>7307234</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8612,13 +8599,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -8637,10 +8628,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112037927</v>
+        <v>112037796</v>
       </c>
       <c r="B75" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8653,31 +8644,26 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -8685,10 +8671,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>562085</v>
+        <v>562039</v>
       </c>
       <c r="R75" t="n">
-        <v>7307474</v>
+        <v>7307445</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8723,17 +8709,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -8752,10 +8734,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112037501</v>
+        <v>112037492</v>
       </c>
       <c r="B76" t="n">
-        <v>89549</v>
+        <v>89834</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8768,21 +8750,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8858,10 +8840,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112037496</v>
+        <v>112037653</v>
       </c>
       <c r="B77" t="n">
-        <v>89553</v>
+        <v>89993</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8870,25 +8852,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8901,10 +8883,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562072</v>
+        <v>562092</v>
       </c>
       <c r="R77" t="n">
-        <v>7307343</v>
+        <v>7307380</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8964,10 +8946,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112037150</v>
+        <v>112036871</v>
       </c>
       <c r="B78" t="n">
-        <v>89993</v>
+        <v>77650</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8976,30 +8958,34 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -9007,10 +8993,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>561922</v>
+        <v>561834</v>
       </c>
       <c r="R78" t="n">
-        <v>7307321</v>
+        <v>7307224</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9043,6 +9029,11 @@
       <c r="AA78" t="inlineStr">
         <is>
           <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9070,10 +9061,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112037094</v>
+        <v>112037000</v>
       </c>
       <c r="B79" t="n">
-        <v>77650</v>
+        <v>89553</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9086,21 +9077,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9113,10 +9104,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>561968</v>
+        <v>561919</v>
       </c>
       <c r="R79" t="n">
-        <v>7307263</v>
+        <v>7307213</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9176,10 +9167,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112036987</v>
+        <v>112037877</v>
       </c>
       <c r="B80" t="n">
-        <v>89571</v>
+        <v>77650</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9192,21 +9183,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9219,10 +9210,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>561903</v>
+        <v>562085</v>
       </c>
       <c r="R80" t="n">
-        <v>7307275</v>
+        <v>7307453</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9282,10 +9273,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112037364</v>
+        <v>112037927</v>
       </c>
       <c r="B81" t="n">
-        <v>89895</v>
+        <v>56430</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9294,30 +9285,35 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
@@ -9325,10 +9321,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>561994</v>
+        <v>562085</v>
       </c>
       <c r="R81" t="n">
-        <v>7307380</v>
+        <v>7307474</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9363,13 +9359,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD81" t="b">
         <v>0</v>
       </c>
       <c r="AE81" t="b">
         <v>0</v>
       </c>
-      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
@@ -9388,10 +9388,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112037788</v>
+        <v>112037006</v>
       </c>
       <c r="B82" t="n">
-        <v>77650</v>
+        <v>89834</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9404,21 +9404,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9431,10 +9431,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>562039</v>
+        <v>561919</v>
       </c>
       <c r="R82" t="n">
-        <v>7307445</v>
+        <v>7307213</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9494,10 +9494,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112037877</v>
+        <v>112037831</v>
       </c>
       <c r="B83" t="n">
-        <v>77650</v>
+        <v>89549</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9510,21 +9510,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9537,10 +9537,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>562085</v>
+        <v>562126</v>
       </c>
       <c r="R83" t="n">
-        <v>7307453</v>
+        <v>7307451</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112036972</v>
+        <v>112037401</v>
       </c>
       <c r="B84" t="n">
         <v>56430</v>
@@ -9638,7 +9638,7 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -9648,10 +9648,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>561903</v>
+        <v>561988</v>
       </c>
       <c r="R84" t="n">
-        <v>7307275</v>
+        <v>7307392</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9715,10 +9715,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112037773</v>
+        <v>112036909</v>
       </c>
       <c r="B85" t="n">
-        <v>89571</v>
+        <v>89834</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9731,21 +9731,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9758,10 +9758,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>562043</v>
+        <v>561846</v>
       </c>
       <c r="R85" t="n">
-        <v>7307416</v>
+        <v>7307256</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9821,10 +9821,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112045896</v>
+        <v>112045880</v>
       </c>
       <c r="B86" t="n">
-        <v>76648</v>
+        <v>89993</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9833,25 +9833,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>314</v>
+        <v>1209</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9861,10 +9861,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>561958</v>
+        <v>561969</v>
       </c>
       <c r="R86" t="n">
-        <v>7307348</v>
+        <v>7307275</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9933,10 +9933,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112045878</v>
+        <v>112045886</v>
       </c>
       <c r="B87" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9949,34 +9949,39 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>561966</v>
+        <v>561826</v>
       </c>
       <c r="R87" t="n">
-        <v>7307274</v>
+        <v>7307246</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10008,7 +10013,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10018,7 +10023,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10045,10 +10050,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112045890</v>
+        <v>112045882</v>
       </c>
       <c r="B88" t="n">
-        <v>89571</v>
+        <v>89834</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10061,21 +10066,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10085,10 +10090,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>561896</v>
+        <v>561971</v>
       </c>
       <c r="R88" t="n">
-        <v>7307280</v>
+        <v>7307277</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10120,7 +10125,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10130,7 +10135,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10157,10 +10162,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112045887</v>
+        <v>112045902</v>
       </c>
       <c r="B89" t="n">
-        <v>89993</v>
+        <v>73834</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10169,25 +10174,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1209</v>
+        <v>6440</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10197,10 +10202,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>561864</v>
+        <v>562033</v>
       </c>
       <c r="R89" t="n">
-        <v>7307276</v>
+        <v>7307445</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10232,7 +10237,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10242,7 +10247,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10269,10 +10274,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112045900</v>
+        <v>112045890</v>
       </c>
       <c r="B90" t="n">
-        <v>77650</v>
+        <v>89571</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10285,21 +10290,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10309,10 +10314,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562022</v>
+        <v>561896</v>
       </c>
       <c r="R90" t="n">
-        <v>7307414</v>
+        <v>7307280</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10344,7 +10349,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10354,7 +10359,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10381,10 +10386,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112045886</v>
+        <v>112045895</v>
       </c>
       <c r="B91" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10397,39 +10402,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>561826</v>
+        <v>561962</v>
       </c>
       <c r="R91" t="n">
-        <v>7307246</v>
+        <v>7307355</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10498,10 +10498,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112045876</v>
+        <v>112045883</v>
       </c>
       <c r="B92" t="n">
-        <v>77650</v>
+        <v>90235</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10510,25 +10510,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10538,10 +10538,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>561966</v>
+        <v>561972</v>
       </c>
       <c r="R92" t="n">
-        <v>7307274</v>
+        <v>7307276</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10610,10 +10610,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112045882</v>
+        <v>112045893</v>
       </c>
       <c r="B93" t="n">
-        <v>89834</v>
+        <v>76648</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10626,21 +10626,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>658</v>
+        <v>314</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10650,10 +10650,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>561971</v>
+        <v>561897</v>
       </c>
       <c r="R93" t="n">
-        <v>7307277</v>
+        <v>7307313</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10722,10 +10722,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112045894</v>
+        <v>112045884</v>
       </c>
       <c r="B94" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10738,34 +10738,39 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>561946</v>
+        <v>561944</v>
       </c>
       <c r="R94" t="n">
-        <v>7307347</v>
+        <v>7307233</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -10797,7 +10802,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10807,7 +10812,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10834,10 +10839,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112045891</v>
+        <v>112045901</v>
       </c>
       <c r="B95" t="n">
-        <v>89834</v>
+        <v>89567</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10850,21 +10855,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10874,10 +10879,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>561886</v>
+        <v>562030</v>
       </c>
       <c r="R95" t="n">
-        <v>7307311</v>
+        <v>7307433</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -10909,7 +10914,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10919,7 +10924,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10946,10 +10951,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112045893</v>
+        <v>112045889</v>
       </c>
       <c r="B96" t="n">
-        <v>76648</v>
+        <v>89549</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10962,21 +10967,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>314</v>
+        <v>1108</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10989,7 +10994,7 @@
         <v>561897</v>
       </c>
       <c r="R96" t="n">
-        <v>7307313</v>
+        <v>7307293</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11021,7 +11026,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11031,7 +11036,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11058,10 +11063,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112045902</v>
+        <v>112045881</v>
       </c>
       <c r="B97" t="n">
-        <v>73834</v>
+        <v>89567</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11074,21 +11079,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6440</v>
+        <v>1204</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11098,10 +11103,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>562033</v>
+        <v>561970</v>
       </c>
       <c r="R97" t="n">
-        <v>7307445</v>
+        <v>7307275</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11133,7 +11138,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11143,7 +11148,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11170,10 +11175,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112045895</v>
+        <v>112045903</v>
       </c>
       <c r="B98" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11186,34 +11191,39 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>561962</v>
+        <v>562027</v>
       </c>
       <c r="R98" t="n">
-        <v>7307355</v>
+        <v>7307460</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11245,7 +11255,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11255,7 +11265,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11282,10 +11292,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112045897</v>
+        <v>112045896</v>
       </c>
       <c r="B99" t="n">
-        <v>73834</v>
+        <v>76648</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11298,21 +11308,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6440</v>
+        <v>314</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11322,10 +11332,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>561955</v>
+        <v>561958</v>
       </c>
       <c r="R99" t="n">
-        <v>7307352</v>
+        <v>7307348</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11357,7 +11367,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11367,7 +11377,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11394,10 +11404,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112045889</v>
+        <v>112045891</v>
       </c>
       <c r="B100" t="n">
-        <v>89549</v>
+        <v>89834</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11410,21 +11420,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11434,10 +11444,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>561897</v>
+        <v>561886</v>
       </c>
       <c r="R100" t="n">
-        <v>7307293</v>
+        <v>7307311</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11469,7 +11479,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11479,7 +11489,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11506,10 +11516,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112045892</v>
+        <v>112045885</v>
       </c>
       <c r="B101" t="n">
-        <v>73834</v>
+        <v>89834</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11522,21 +11532,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11546,10 +11556,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>561896</v>
+        <v>561946</v>
       </c>
       <c r="R101" t="n">
-        <v>7307311</v>
+        <v>7307238</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -11581,7 +11591,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11591,7 +11601,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11618,10 +11628,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112045880</v>
+        <v>112045877</v>
       </c>
       <c r="B102" t="n">
-        <v>89993</v>
+        <v>89549</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11630,25 +11640,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1209</v>
+        <v>1108</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11658,10 +11668,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>561969</v>
+        <v>561966</v>
       </c>
       <c r="R102" t="n">
-        <v>7307275</v>
+        <v>7307274</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -11730,10 +11740,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112045899</v>
+        <v>112045894</v>
       </c>
       <c r="B103" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11746,39 +11756,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P103" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>562022</v>
+        <v>561946</v>
       </c>
       <c r="R103" t="n">
-        <v>7307404</v>
+        <v>7307347</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -11810,7 +11815,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11820,7 +11825,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11847,10 +11852,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112045898</v>
+        <v>112045887</v>
       </c>
       <c r="B104" t="n">
-        <v>56430</v>
+        <v>89993</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11859,43 +11864,38 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P104" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>561992</v>
+        <v>561864</v>
       </c>
       <c r="R104" t="n">
-        <v>7307388</v>
+        <v>7307276</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -11927,7 +11927,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11964,10 +11964,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112045901</v>
+        <v>112045899</v>
       </c>
       <c r="B105" t="n">
-        <v>89567</v>
+        <v>56430</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -11980,34 +11980,39 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562030</v>
+        <v>562022</v>
       </c>
       <c r="R105" t="n">
-        <v>7307433</v>
+        <v>7307404</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12039,7 +12044,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12049,7 +12054,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12076,10 +12081,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112045884</v>
+        <v>112045892</v>
       </c>
       <c r="B106" t="n">
-        <v>56430</v>
+        <v>73834</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12092,39 +12097,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>561944</v>
+        <v>561896</v>
       </c>
       <c r="R106" t="n">
-        <v>7307233</v>
+        <v>7307311</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12193,10 +12193,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112045881</v>
+        <v>112045888</v>
       </c>
       <c r="B107" t="n">
-        <v>89567</v>
+        <v>89571</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12209,21 +12209,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12233,10 +12233,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>561970</v>
+        <v>561908</v>
       </c>
       <c r="R107" t="n">
-        <v>7307275</v>
+        <v>7307295</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12305,10 +12305,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112045883</v>
+        <v>112045876</v>
       </c>
       <c r="B108" t="n">
-        <v>90235</v>
+        <v>77650</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12317,25 +12317,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12345,10 +12345,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>561972</v>
+        <v>561966</v>
       </c>
       <c r="R108" t="n">
-        <v>7307276</v>
+        <v>7307274</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -12380,7 +12380,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12417,7 +12417,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112045903</v>
+        <v>112045898</v>
       </c>
       <c r="B109" t="n">
         <v>56430</v>
@@ -12453,7 +12453,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -12462,10 +12462,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>562027</v>
+        <v>561992</v>
       </c>
       <c r="R109" t="n">
-        <v>7307460</v>
+        <v>7307388</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12534,10 +12534,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112045888</v>
+        <v>112045897</v>
       </c>
       <c r="B110" t="n">
-        <v>89571</v>
+        <v>73834</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12550,21 +12550,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>561908</v>
+        <v>561955</v>
       </c>
       <c r="R110" t="n">
-        <v>7307295</v>
+        <v>7307352</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -12619,7 +12619,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12646,10 +12646,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112045877</v>
+        <v>112045878</v>
       </c>
       <c r="B111" t="n">
-        <v>89549</v>
+        <v>89553</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12662,21 +12662,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12758,10 +12758,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112045885</v>
+        <v>112045900</v>
       </c>
       <c r="B112" t="n">
-        <v>89834</v>
+        <v>77650</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12774,21 +12774,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12798,10 +12798,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>561946</v>
+        <v>562022</v>
       </c>
       <c r="R112" t="n">
-        <v>7307238</v>
+        <v>7307414</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD112" t="b">

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -4158,10 +4158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111985428</v>
+        <v>111959819</v>
       </c>
       <c r="B33" t="n">
-        <v>56430</v>
+        <v>89834</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4174,42 +4174,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561916</v>
+        <v>561895</v>
       </c>
       <c r="R33" t="n">
-        <v>7307339</v>
+        <v>7307265</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4268,10 +4260,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111959819</v>
+        <v>111959829</v>
       </c>
       <c r="B34" t="n">
-        <v>89834</v>
+        <v>77650</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4284,21 +4276,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4308,10 +4300,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561895</v>
+        <v>561894</v>
       </c>
       <c r="R34" t="n">
-        <v>7307265</v>
+        <v>7307220</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4370,10 +4362,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111959829</v>
+        <v>111985428</v>
       </c>
       <c r="B35" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4386,34 +4378,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561894</v>
+        <v>561916</v>
       </c>
       <c r="R35" t="n">
-        <v>7307220</v>
+        <v>7307339</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -5406,10 +5406,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111959827</v>
+        <v>111985425</v>
       </c>
       <c r="B45" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5422,34 +5422,42 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>561870</v>
+        <v>561986</v>
       </c>
       <c r="R45" t="n">
-        <v>7307209</v>
+        <v>7307363</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5508,10 +5516,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111959821</v>
+        <v>111959827</v>
       </c>
       <c r="B46" t="n">
-        <v>77731</v>
+        <v>89571</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5524,21 +5532,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5548,10 +5556,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>561962</v>
+        <v>561870</v>
       </c>
       <c r="R46" t="n">
-        <v>7307351</v>
+        <v>7307209</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5610,10 +5618,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111985425</v>
+        <v>111959821</v>
       </c>
       <c r="B47" t="n">
-        <v>56430</v>
+        <v>77731</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5626,42 +5634,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>561986</v>
+        <v>561962</v>
       </c>
       <c r="R47" t="n">
-        <v>7307363</v>
+        <v>7307351</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -9821,10 +9821,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112045880</v>
+        <v>112045886</v>
       </c>
       <c r="B86" t="n">
-        <v>89993</v>
+        <v>56430</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9833,38 +9833,43 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>561969</v>
+        <v>561826</v>
       </c>
       <c r="R86" t="n">
-        <v>7307275</v>
+        <v>7307246</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -9896,7 +9901,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9906,7 +9911,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9933,10 +9938,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112045886</v>
+        <v>112045880</v>
       </c>
       <c r="B87" t="n">
-        <v>56430</v>
+        <v>89993</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9945,43 +9950,38 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>561826</v>
+        <v>561969</v>
       </c>
       <c r="R87" t="n">
-        <v>7307246</v>
+        <v>7307275</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -12305,10 +12305,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112045876</v>
+        <v>112045898</v>
       </c>
       <c r="B108" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12321,34 +12321,39 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>561966</v>
+        <v>561992</v>
       </c>
       <c r="R108" t="n">
-        <v>7307274</v>
+        <v>7307388</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -12380,7 +12385,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12390,7 +12395,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12417,10 +12422,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112045898</v>
+        <v>112045897</v>
       </c>
       <c r="B109" t="n">
-        <v>56430</v>
+        <v>73834</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12433,39 +12438,34 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P109" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>561992</v>
+        <v>561955</v>
       </c>
       <c r="R109" t="n">
-        <v>7307388</v>
+        <v>7307352</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12534,10 +12534,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112045897</v>
+        <v>112045878</v>
       </c>
       <c r="B110" t="n">
-        <v>73834</v>
+        <v>89553</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12550,21 +12550,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>561955</v>
+        <v>561966</v>
       </c>
       <c r="R110" t="n">
-        <v>7307352</v>
+        <v>7307274</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -12619,7 +12619,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12646,10 +12646,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112045878</v>
+        <v>112045876</v>
       </c>
       <c r="B111" t="n">
-        <v>89553</v>
+        <v>77650</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12662,21 +12662,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD111" t="b">

--- a/artfynd/A 50909-2022.xlsx
+++ b/artfynd/A 50909-2022.xlsx
@@ -3020,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111959811</v>
+        <v>111959830</v>
       </c>
       <c r="B22" t="n">
-        <v>89553</v>
+        <v>77650</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,21 +3036,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3060,10 +3060,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>561896</v>
+        <v>561915</v>
       </c>
       <c r="R22" t="n">
-        <v>7307298</v>
+        <v>7307340</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111959810</v>
+        <v>111959824</v>
       </c>
       <c r="B23" t="n">
-        <v>89553</v>
+        <v>89567</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3138,21 +3138,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>561894</v>
+        <v>561944</v>
       </c>
       <c r="R23" t="n">
-        <v>7307220</v>
+        <v>7307351</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111959833</v>
+        <v>111985424</v>
       </c>
       <c r="B24" t="n">
-        <v>81385</v>
+        <v>56430</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3240,34 +3240,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562008</v>
+        <v>561895</v>
       </c>
       <c r="R24" t="n">
-        <v>7307380</v>
+        <v>7307265</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3326,10 +3334,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111959820</v>
+        <v>111959834</v>
       </c>
       <c r="B25" t="n">
-        <v>77731</v>
+        <v>81385</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3342,21 +3350,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3366,10 +3374,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>561894</v>
+        <v>562009</v>
       </c>
       <c r="R25" t="n">
-        <v>7307220</v>
+        <v>7307380</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3428,10 +3436,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111959822</v>
+        <v>111959828</v>
       </c>
       <c r="B26" t="n">
-        <v>89549</v>
+        <v>89571</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3444,21 +3452,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3468,10 +3476,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>561870</v>
+        <v>561996</v>
       </c>
       <c r="R26" t="n">
-        <v>7307209</v>
+        <v>7307378</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3530,10 +3538,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111959826</v>
+        <v>111985426</v>
       </c>
       <c r="B27" t="n">
-        <v>89895</v>
+        <v>56430</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3542,38 +3550,46 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>561996</v>
+        <v>562016</v>
       </c>
       <c r="R27" t="n">
-        <v>7307379</v>
+        <v>7307406</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3632,10 +3648,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111959831</v>
+        <v>111959827</v>
       </c>
       <c r="B28" t="n">
-        <v>77650</v>
+        <v>89571</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3648,21 +3664,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3672,10 +3688,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562009</v>
+        <v>561870</v>
       </c>
       <c r="R28" t="n">
-        <v>7307380</v>
+        <v>7307209</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3734,10 +3750,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111959830</v>
+        <v>111959820</v>
       </c>
       <c r="B29" t="n">
-        <v>77650</v>
+        <v>77731</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3750,21 +3766,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3774,10 +3790,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>561915</v>
+        <v>561894</v>
       </c>
       <c r="R29" t="n">
-        <v>7307340</v>
+        <v>7307220</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3836,7 +3852,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111959832</v>
+        <v>111959833</v>
       </c>
       <c r="B30" t="n">
         <v>81385</v>
@@ -3876,10 +3892,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561916</v>
+        <v>562008</v>
       </c>
       <c r="R30" t="n">
-        <v>7307339</v>
+        <v>7307380</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3938,10 +3954,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111985429</v>
+        <v>111959823</v>
       </c>
       <c r="B31" t="n">
-        <v>56430</v>
+        <v>89549</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3954,42 +3970,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561822</v>
+        <v>562015</v>
       </c>
       <c r="R31" t="n">
-        <v>7307243</v>
+        <v>7307418</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4048,10 +4056,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111985426</v>
+        <v>111959826</v>
       </c>
       <c r="B32" t="n">
-        <v>56430</v>
+        <v>89895</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4060,46 +4068,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562016</v>
+        <v>561996</v>
       </c>
       <c r="R32" t="n">
-        <v>7307406</v>
+        <v>7307379</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111959819</v>
+        <v>111959810</v>
       </c>
       <c r="B33" t="n">
-        <v>89834</v>
+        <v>89553</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4174,21 +4174,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561895</v>
+        <v>561894</v>
       </c>
       <c r="R33" t="n">
-        <v>7307265</v>
+        <v>7307220</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4260,10 +4260,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111959829</v>
+        <v>111959832</v>
       </c>
       <c r="B34" t="n">
-        <v>77650</v>
+        <v>81385</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4276,21 +4276,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4300,10 +4300,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561894</v>
+        <v>561916</v>
       </c>
       <c r="R34" t="n">
-        <v>7307220</v>
+        <v>7307339</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111985428</v>
+        <v>111985425</v>
       </c>
       <c r="B35" t="n">
         <v>56430</v>
@@ -4400,7 +4400,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561916</v>
+        <v>561986</v>
       </c>
       <c r="R35" t="n">
-        <v>7307339</v>
+        <v>7307363</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4472,10 +4472,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111985427</v>
+        <v>111959809</v>
       </c>
       <c r="B36" t="n">
-        <v>56430</v>
+        <v>73834</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4488,42 +4488,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>562014</v>
+        <v>561927</v>
       </c>
       <c r="R36" t="n">
-        <v>7307395</v>
+        <v>7307338</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4582,10 +4574,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111959828</v>
+        <v>111959831</v>
       </c>
       <c r="B37" t="n">
-        <v>89571</v>
+        <v>77650</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4598,21 +4590,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4622,10 +4614,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>561996</v>
+        <v>562009</v>
       </c>
       <c r="R37" t="n">
-        <v>7307378</v>
+        <v>7307380</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4684,10 +4676,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111959824</v>
+        <v>111985428</v>
       </c>
       <c r="B38" t="n">
-        <v>89567</v>
+        <v>56430</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4700,34 +4692,42 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>561944</v>
+        <v>561916</v>
       </c>
       <c r="R38" t="n">
-        <v>7307351</v>
+        <v>7307339</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4888,10 +4888,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111959823</v>
+        <v>111959829</v>
       </c>
       <c r="B40" t="n">
-        <v>89549</v>
+        <v>77650</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4904,21 +4904,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4928,10 +4928,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>562015</v>
+        <v>561894</v>
       </c>
       <c r="R40" t="n">
-        <v>7307418</v>
+        <v>7307220</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -4990,10 +4990,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111959818</v>
+        <v>111959815</v>
       </c>
       <c r="B41" t="n">
-        <v>89834</v>
+        <v>56430</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5006,34 +5006,42 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>561894</v>
+        <v>562014</v>
       </c>
       <c r="R41" t="n">
-        <v>7307220</v>
+        <v>7307395</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5092,10 +5100,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111959834</v>
+        <v>111959819</v>
       </c>
       <c r="B42" t="n">
-        <v>81385</v>
+        <v>89834</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5108,21 +5116,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5132,10 +5140,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>562009</v>
+        <v>561895</v>
       </c>
       <c r="R42" t="n">
-        <v>7307380</v>
+        <v>7307265</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5194,10 +5202,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111959809</v>
+        <v>111959821</v>
       </c>
       <c r="B43" t="n">
-        <v>73834</v>
+        <v>77731</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5210,21 +5218,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6440</v>
+        <v>864</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5234,10 +5242,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>561927</v>
+        <v>561962</v>
       </c>
       <c r="R43" t="n">
-        <v>7307338</v>
+        <v>7307351</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5296,7 +5304,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111985424</v>
+        <v>111985429</v>
       </c>
       <c r="B44" t="n">
         <v>56430</v>
@@ -5334,7 +5342,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -5344,10 +5352,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>561895</v>
+        <v>561822</v>
       </c>
       <c r="R44" t="n">
-        <v>7307265</v>
+        <v>7307243</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5406,10 +5414,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111985425</v>
+        <v>111959822</v>
       </c>
       <c r="B45" t="n">
-        <v>56430</v>
+        <v>89549</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5422,42 +5430,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>561986</v>
+        <v>561870</v>
       </c>
       <c r="R45" t="n">
-        <v>7307363</v>
+        <v>7307209</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5516,10 +5516,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111959827</v>
+        <v>111959818</v>
       </c>
       <c r="B46" t="n">
-        <v>89571</v>
+        <v>89834</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5532,21 +5532,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5556,10 +5556,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>561870</v>
+        <v>561894</v>
       </c>
       <c r="R46" t="n">
-        <v>7307209</v>
+        <v>7307220</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5618,10 +5618,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111959821</v>
+        <v>111959811</v>
       </c>
       <c r="B47" t="n">
-        <v>77731</v>
+        <v>89553</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5634,21 +5634,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>864</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>561962</v>
+        <v>561896</v>
       </c>
       <c r="R47" t="n">
-        <v>7307351</v>
+        <v>7307298</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5720,10 +5720,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112037679</v>
+        <v>112036909</v>
       </c>
       <c r="B48" t="n">
-        <v>89571</v>
+        <v>89834</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5736,21 +5736,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5763,10 +5763,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>562116</v>
+        <v>561846</v>
       </c>
       <c r="R48" t="n">
-        <v>7307412</v>
+        <v>7307256</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5826,10 +5826,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112037509</v>
+        <v>112037088</v>
       </c>
       <c r="B49" t="n">
-        <v>77650</v>
+        <v>89834</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5842,21 +5842,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>562072</v>
+        <v>561968</v>
       </c>
       <c r="R49" t="n">
-        <v>7307343</v>
+        <v>7307263</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5905,11 +5905,6 @@
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5937,10 +5932,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112037150</v>
+        <v>112037796</v>
       </c>
       <c r="B50" t="n">
-        <v>89993</v>
+        <v>89571</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5949,25 +5944,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5980,10 +5975,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>561922</v>
+        <v>562039</v>
       </c>
       <c r="R50" t="n">
-        <v>7307321</v>
+        <v>7307445</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6043,10 +6038,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112037108</v>
+        <v>112036987</v>
       </c>
       <c r="B51" t="n">
-        <v>89834</v>
+        <v>89571</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6059,21 +6054,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6086,10 +6081,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>561976</v>
+        <v>561903</v>
       </c>
       <c r="R51" t="n">
-        <v>7307273</v>
+        <v>7307275</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6149,10 +6144,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112037825</v>
+        <v>112037072</v>
       </c>
       <c r="B52" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6165,26 +6160,31 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6192,10 +6192,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>562126</v>
+        <v>561981</v>
       </c>
       <c r="R52" t="n">
-        <v>7307451</v>
+        <v>7307234</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6230,13 +6230,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6255,10 +6259,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112036987</v>
+        <v>112037496</v>
       </c>
       <c r="B53" t="n">
-        <v>89571</v>
+        <v>89553</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6271,21 +6275,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6298,10 +6302,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>561903</v>
+        <v>562072</v>
       </c>
       <c r="R53" t="n">
-        <v>7307275</v>
+        <v>7307343</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6361,10 +6365,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112037501</v>
+        <v>112037188</v>
       </c>
       <c r="B54" t="n">
-        <v>89549</v>
+        <v>56430</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6377,26 +6381,31 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6404,10 +6413,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>562072</v>
+        <v>561922</v>
       </c>
       <c r="R54" t="n">
-        <v>7307343</v>
+        <v>7307321</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6442,13 +6451,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6467,10 +6480,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112037188</v>
+        <v>112037825</v>
       </c>
       <c r="B55" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6483,31 +6496,26 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6515,10 +6523,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>561922</v>
+        <v>562126</v>
       </c>
       <c r="R55" t="n">
-        <v>7307321</v>
+        <v>7307451</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6553,17 +6561,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -6582,10 +6586,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112037172</v>
+        <v>112037492</v>
       </c>
       <c r="B56" t="n">
-        <v>77650</v>
+        <v>89834</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6598,21 +6602,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6625,10 +6629,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>561922</v>
+        <v>562072</v>
       </c>
       <c r="R56" t="n">
-        <v>7307321</v>
+        <v>7307343</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6688,7 +6692,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112037714</v>
+        <v>112036871</v>
       </c>
       <c r="B57" t="n">
         <v>77650</v>
@@ -6723,7 +6727,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -6731,10 +6739,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>562074</v>
+        <v>561834</v>
       </c>
       <c r="R57" t="n">
-        <v>7307418</v>
+        <v>7307224</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6771,7 +6779,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Drapperat</t>
+          <t>Drapperad gran</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6799,10 +6807,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112036996</v>
+        <v>112037509</v>
       </c>
       <c r="B58" t="n">
-        <v>89571</v>
+        <v>77650</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6815,21 +6823,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6842,10 +6850,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>561919</v>
+        <v>562072</v>
       </c>
       <c r="R58" t="n">
-        <v>7307213</v>
+        <v>7307343</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6878,6 +6886,11 @@
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Riktigt</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6905,10 +6918,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112037372</v>
+        <v>112036981</v>
       </c>
       <c r="B59" t="n">
-        <v>89571</v>
+        <v>89549</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6921,21 +6934,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6948,10 +6961,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>561994</v>
+        <v>561903</v>
       </c>
       <c r="R59" t="n">
-        <v>7307380</v>
+        <v>7307275</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7011,7 +7024,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112037773</v>
+        <v>112036996</v>
       </c>
       <c r="B60" t="n">
         <v>89571</v>
@@ -7054,10 +7067,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>562043</v>
+        <v>561919</v>
       </c>
       <c r="R60" t="n">
-        <v>7307416</v>
+        <v>7307213</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7117,10 +7130,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112036938</v>
+        <v>112037364</v>
       </c>
       <c r="B61" t="n">
-        <v>89567</v>
+        <v>89895</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7129,25 +7142,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1204</v>
+        <v>2063</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7160,10 +7173,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>561846</v>
+        <v>561994</v>
       </c>
       <c r="R61" t="n">
-        <v>7307256</v>
+        <v>7307380</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7223,10 +7236,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112036981</v>
+        <v>112037653</v>
       </c>
       <c r="B62" t="n">
-        <v>89549</v>
+        <v>89993</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7235,25 +7248,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1108</v>
+        <v>1209</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7266,10 +7279,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>561903</v>
+        <v>562092</v>
       </c>
       <c r="R62" t="n">
-        <v>7307275</v>
+        <v>7307380</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7329,10 +7342,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112037792</v>
+        <v>112037150</v>
       </c>
       <c r="B63" t="n">
-        <v>89549</v>
+        <v>89993</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7341,25 +7354,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1108</v>
+        <v>1209</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7372,10 +7385,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>562039</v>
+        <v>561922</v>
       </c>
       <c r="R63" t="n">
-        <v>7307445</v>
+        <v>7307321</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7435,7 +7448,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112037519</v>
+        <v>112037372</v>
       </c>
       <c r="B64" t="n">
         <v>89571</v>
@@ -7478,10 +7491,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>562059</v>
+        <v>561994</v>
       </c>
       <c r="R64" t="n">
-        <v>7307369</v>
+        <v>7307380</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7541,10 +7554,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112037088</v>
+        <v>112037831</v>
       </c>
       <c r="B65" t="n">
-        <v>89834</v>
+        <v>89549</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7557,21 +7570,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7584,10 +7597,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>561968</v>
+        <v>562126</v>
       </c>
       <c r="R65" t="n">
-        <v>7307263</v>
+        <v>7307451</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7647,10 +7660,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112037867</v>
+        <v>112037501</v>
       </c>
       <c r="B66" t="n">
-        <v>56430</v>
+        <v>89549</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7663,31 +7676,26 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -7695,10 +7703,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>562085</v>
+        <v>562072</v>
       </c>
       <c r="R66" t="n">
-        <v>7307453</v>
+        <v>7307343</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7733,17 +7741,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -7762,10 +7766,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112037364</v>
+        <v>112037585</v>
       </c>
       <c r="B67" t="n">
-        <v>89895</v>
+        <v>77650</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7774,25 +7778,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2063</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7805,10 +7809,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>561994</v>
+        <v>562059</v>
       </c>
       <c r="R67" t="n">
-        <v>7307380</v>
+        <v>7307369</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7868,10 +7872,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112037760</v>
+        <v>112037792</v>
       </c>
       <c r="B68" t="n">
-        <v>89895</v>
+        <v>89549</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7880,25 +7884,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2063</v>
+        <v>1108</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7911,10 +7915,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>562043</v>
+        <v>562039</v>
       </c>
       <c r="R68" t="n">
-        <v>7307416</v>
+        <v>7307445</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7974,10 +7978,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112037094</v>
+        <v>112037108</v>
       </c>
       <c r="B69" t="n">
-        <v>77650</v>
+        <v>89834</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7990,21 +7994,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8017,10 +8021,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>561968</v>
+        <v>561976</v>
       </c>
       <c r="R69" t="n">
-        <v>7307263</v>
+        <v>7307273</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8080,10 +8084,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112037788</v>
+        <v>112037401</v>
       </c>
       <c r="B70" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8096,26 +8100,31 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -8123,10 +8132,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>562039</v>
+        <v>561988</v>
       </c>
       <c r="R70" t="n">
-        <v>7307445</v>
+        <v>7307392</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8161,13 +8170,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
       <c r="AE70" t="b">
         <v>0</v>
       </c>
-      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -8186,7 +8199,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112037585</v>
+        <v>112037094</v>
       </c>
       <c r="B71" t="n">
         <v>77650</v>
@@ -8229,10 +8242,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>562059</v>
+        <v>561968</v>
       </c>
       <c r="R71" t="n">
-        <v>7307369</v>
+        <v>7307263</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8292,10 +8305,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112037496</v>
+        <v>112037760</v>
       </c>
       <c r="B72" t="n">
-        <v>89553</v>
+        <v>89895</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8304,25 +8317,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1202</v>
+        <v>2063</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8335,10 +8348,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562072</v>
+        <v>562043</v>
       </c>
       <c r="R72" t="n">
-        <v>7307343</v>
+        <v>7307416</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8398,7 +8411,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112036972</v>
+        <v>112037867</v>
       </c>
       <c r="B73" t="n">
         <v>56430</v>
@@ -8436,7 +8449,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -8446,10 +8459,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>561903</v>
+        <v>562085</v>
       </c>
       <c r="R73" t="n">
-        <v>7307275</v>
+        <v>7307453</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8513,10 +8526,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112037072</v>
+        <v>112037714</v>
       </c>
       <c r="B74" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8529,31 +8542,26 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -8561,10 +8569,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>561981</v>
+        <v>562074</v>
       </c>
       <c r="R74" t="n">
-        <v>7307234</v>
+        <v>7307418</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8601,7 +8609,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Drapperat</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8610,6 +8618,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -8628,10 +8637,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112037796</v>
+        <v>112037172</v>
       </c>
       <c r="B75" t="n">
-        <v>89571</v>
+        <v>77650</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8644,21 +8653,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8671,10 +8680,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>562039</v>
+        <v>561922</v>
       </c>
       <c r="R75" t="n">
-        <v>7307445</v>
+        <v>7307321</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8734,10 +8743,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112037492</v>
+        <v>112037877</v>
       </c>
       <c r="B76" t="n">
-        <v>89834</v>
+        <v>77650</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8750,21 +8759,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8777,10 +8786,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>562072</v>
+        <v>562085</v>
       </c>
       <c r="R76" t="n">
-        <v>7307343</v>
+        <v>7307453</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8840,10 +8849,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112037653</v>
+        <v>112036972</v>
       </c>
       <c r="B77" t="n">
-        <v>89993</v>
+        <v>56430</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8852,30 +8861,35 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -8883,10 +8897,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562092</v>
+        <v>561903</v>
       </c>
       <c r="R77" t="n">
-        <v>7307380</v>
+        <v>7307275</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8921,13 +8935,17 @@
           <t>2023-09-03</t>
         </is>
       </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
@@ -8946,10 +8964,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112036871</v>
+        <v>112037927</v>
       </c>
       <c r="B78" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8962,28 +8980,29 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -8993,10 +9012,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>561834</v>
+        <v>562085</v>
       </c>
       <c r="R78" t="n">
-        <v>7307224</v>
+        <v>7307474</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9033,7 +9052,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>Drapperad gran</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9042,7 +9061,6 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
-      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
@@ -9061,10 +9079,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112037000</v>
+        <v>112037788</v>
       </c>
       <c r="B79" t="n">
-        <v>89553</v>
+        <v>77650</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9077,21 +9095,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9104,10 +9122,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>561919</v>
+        <v>562039</v>
       </c>
       <c r="R79" t="n">
-        <v>7307213</v>
+        <v>7307445</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9167,10 +9185,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112037877</v>
+        <v>112037679</v>
       </c>
       <c r="B80" t="n">
-        <v>77650</v>
+        <v>89571</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9183,21 +9201,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9210,10 +9228,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>562085</v>
+        <v>562116</v>
       </c>
       <c r="R80" t="n">
-        <v>7307453</v>
+        <v>7307412</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9273,10 +9291,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112037927</v>
+        <v>112037773</v>
       </c>
       <c r="B81" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9289,31 +9307,26 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
@@ -9321,10 +9334,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>562085</v>
+        <v>562043</v>
       </c>
       <c r="R81" t="n">
-        <v>7307474</v>
+        <v>7307416</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9359,17 +9372,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC81" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD81" t="b">
         <v>0</v>
       </c>
       <c r="AE81" t="b">
         <v>0</v>
       </c>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
@@ -9494,10 +9503,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112037831</v>
+        <v>112037519</v>
       </c>
       <c r="B83" t="n">
-        <v>89549</v>
+        <v>89571</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9510,21 +9519,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9537,10 +9546,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>562126</v>
+        <v>562059</v>
       </c>
       <c r="R83" t="n">
-        <v>7307451</v>
+        <v>7307369</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9600,10 +9609,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112037401</v>
+        <v>112036938</v>
       </c>
       <c r="B84" t="n">
-        <v>56430</v>
+        <v>89567</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9616,31 +9625,26 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9648,10 +9652,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>561988</v>
+        <v>561846</v>
       </c>
       <c r="R84" t="n">
-        <v>7307392</v>
+        <v>7307256</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9686,17 +9690,13 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
       <c r="AE84" t="b">
         <v>0</v>
       </c>
+      <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="b">
         <v>0</v>
       </c>
@@ -9715,10 +9715,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112036909</v>
+        <v>112037000</v>
       </c>
       <c r="B85" t="n">
-        <v>89834</v>
+        <v>89553</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9731,21 +9731,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9758,10 +9758,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>561846</v>
+        <v>561919</v>
       </c>
       <c r="R85" t="n">
-        <v>7307256</v>
+        <v>7307213</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9821,10 +9821,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112045886</v>
+        <v>112045880</v>
       </c>
       <c r="B86" t="n">
-        <v>56430</v>
+        <v>89993</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9833,43 +9833,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>561826</v>
+        <v>561969</v>
       </c>
       <c r="R86" t="n">
-        <v>7307246</v>
+        <v>7307275</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -9901,7 +9896,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9911,7 +9906,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9938,10 +9933,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112045880</v>
+        <v>112045897</v>
       </c>
       <c r="B87" t="n">
-        <v>89993</v>
+        <v>73834</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9950,25 +9945,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1209</v>
+        <v>6440</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9978,10 +9973,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>561969</v>
+        <v>561955</v>
       </c>
       <c r="R87" t="n">
-        <v>7307275</v>
+        <v>7307352</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10013,7 +10008,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10023,7 +10018,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10050,10 +10045,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112045882</v>
+        <v>112045895</v>
       </c>
       <c r="B88" t="n">
-        <v>89834</v>
+        <v>77650</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10066,21 +10061,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10090,10 +10085,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>561971</v>
+        <v>561962</v>
       </c>
       <c r="R88" t="n">
-        <v>7307277</v>
+        <v>7307355</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10125,7 +10120,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10135,7 +10130,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10162,10 +10157,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112045902</v>
+        <v>112045886</v>
       </c>
       <c r="B89" t="n">
-        <v>73834</v>
+        <v>56430</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10178,34 +10173,39 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>562033</v>
+        <v>561826</v>
       </c>
       <c r="R89" t="n">
-        <v>7307445</v>
+        <v>7307246</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10274,7 +10274,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112045890</v>
+        <v>112045888</v>
       </c>
       <c r="B90" t="n">
         <v>89571</v>
@@ -10314,10 +10314,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>561896</v>
+        <v>561908</v>
       </c>
       <c r="R90" t="n">
-        <v>7307280</v>
+        <v>7307295</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10386,7 +10386,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112045895</v>
+        <v>112045876</v>
       </c>
       <c r="B91" t="n">
         <v>77650</v>
@@ -10426,10 +10426,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>561962</v>
+        <v>561966</v>
       </c>
       <c r="R91" t="n">
-        <v>7307355</v>
+        <v>7307274</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10498,10 +10498,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112045883</v>
+        <v>112045893</v>
       </c>
       <c r="B92" t="n">
-        <v>90235</v>
+        <v>76648</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10510,25 +10510,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3298</v>
+        <v>314</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10538,10 +10538,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>561972</v>
+        <v>561897</v>
       </c>
       <c r="R92" t="n">
-        <v>7307276</v>
+        <v>7307313</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10610,7 +10610,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112045893</v>
+        <v>112045896</v>
       </c>
       <c r="B93" t="n">
         <v>76648</v>
@@ -10650,10 +10650,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>561897</v>
+        <v>561958</v>
       </c>
       <c r="R93" t="n">
-        <v>7307313</v>
+        <v>7307348</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10722,7 +10722,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112045884</v>
+        <v>112045899</v>
       </c>
       <c r="B94" t="n">
         <v>56430</v>
@@ -10767,10 +10767,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>561944</v>
+        <v>562022</v>
       </c>
       <c r="R94" t="n">
-        <v>7307233</v>
+        <v>7307404</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10839,10 +10839,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112045901</v>
+        <v>112045885</v>
       </c>
       <c r="B95" t="n">
-        <v>89567</v>
+        <v>89834</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10855,21 +10855,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10879,10 +10879,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>562030</v>
+        <v>561946</v>
       </c>
       <c r="R95" t="n">
-        <v>7307433</v>
+        <v>7307238</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -10914,7 +10914,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10951,10 +10951,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112045889</v>
+        <v>112045902</v>
       </c>
       <c r="B96" t="n">
-        <v>89549</v>
+        <v>73834</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10967,21 +10967,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10991,10 +10991,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>561897</v>
+        <v>562033</v>
       </c>
       <c r="R96" t="n">
-        <v>7307293</v>
+        <v>7307445</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11063,10 +11063,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112045881</v>
+        <v>112045887</v>
       </c>
       <c r="B97" t="n">
-        <v>89567</v>
+        <v>89993</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11075,25 +11075,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11103,10 +11103,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>561970</v>
+        <v>561864</v>
       </c>
       <c r="R97" t="n">
-        <v>7307275</v>
+        <v>7307276</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11148,7 +11148,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11175,10 +11175,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112045903</v>
+        <v>112045894</v>
       </c>
       <c r="B98" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11191,39 +11191,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562027</v>
+        <v>561946</v>
       </c>
       <c r="R98" t="n">
-        <v>7307460</v>
+        <v>7307347</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11255,7 +11250,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11265,7 +11260,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>10:59</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11292,10 +11287,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112045896</v>
+        <v>112045890</v>
       </c>
       <c r="B99" t="n">
-        <v>76648</v>
+        <v>89571</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11308,21 +11303,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>314</v>
+        <v>5432</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11332,10 +11327,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>561958</v>
+        <v>561896</v>
       </c>
       <c r="R99" t="n">
-        <v>7307348</v>
+        <v>7307280</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11367,7 +11362,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11377,7 +11372,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11404,10 +11399,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112045891</v>
+        <v>112045878</v>
       </c>
       <c r="B100" t="n">
-        <v>89834</v>
+        <v>89553</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11420,21 +11415,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11444,10 +11439,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>561886</v>
+        <v>561966</v>
       </c>
       <c r="R100" t="n">
-        <v>7307311</v>
+        <v>7307274</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11479,7 +11474,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11489,7 +11484,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11516,10 +11511,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112045885</v>
+        <v>112045892</v>
       </c>
       <c r="B101" t="n">
-        <v>89834</v>
+        <v>73834</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11532,21 +11527,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11556,10 +11551,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>561946</v>
+        <v>561896</v>
       </c>
       <c r="R101" t="n">
-        <v>7307238</v>
+        <v>7307311</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -11591,7 +11586,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11601,7 +11596,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11628,10 +11623,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112045877</v>
+        <v>112045883</v>
       </c>
       <c r="B102" t="n">
-        <v>89549</v>
+        <v>90235</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11640,25 +11635,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1108</v>
+        <v>3298</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11668,10 +11663,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>561966</v>
+        <v>561972</v>
       </c>
       <c r="R102" t="n">
-        <v>7307274</v>
+        <v>7307276</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -11703,7 +11698,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11713,7 +11708,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11740,10 +11735,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112045894</v>
+        <v>112045881</v>
       </c>
       <c r="B103" t="n">
-        <v>89553</v>
+        <v>89567</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11756,21 +11751,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11780,10 +11775,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>561946</v>
+        <v>561970</v>
       </c>
       <c r="R103" t="n">
-        <v>7307347</v>
+        <v>7307275</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -11815,7 +11810,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11825,7 +11820,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11852,10 +11847,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112045887</v>
+        <v>112045891</v>
       </c>
       <c r="B104" t="n">
-        <v>89993</v>
+        <v>89834</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11864,25 +11859,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -11892,10 +11887,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>561864</v>
+        <v>561886</v>
       </c>
       <c r="R104" t="n">
-        <v>7307276</v>
+        <v>7307311</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -11927,7 +11922,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -11937,7 +11932,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11964,10 +11959,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112045899</v>
+        <v>112045889</v>
       </c>
       <c r="B105" t="n">
-        <v>56430</v>
+        <v>89549</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -11980,39 +11975,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562022</v>
+        <v>561897</v>
       </c>
       <c r="R105" t="n">
-        <v>7307404</v>
+        <v>7307293</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12044,7 +12034,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12054,7 +12044,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12081,10 +12071,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112045892</v>
+        <v>112045877</v>
       </c>
       <c r="B106" t="n">
-        <v>73834</v>
+        <v>89549</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12097,21 +12087,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6440</v>
+        <v>1108</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12121,10 +12111,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>561896</v>
+        <v>561966</v>
       </c>
       <c r="R106" t="n">
-        <v>7307311</v>
+        <v>7307274</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12156,7 +12146,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12166,7 +12156,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12193,10 +12183,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112045888</v>
+        <v>112045898</v>
       </c>
       <c r="B107" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12209,34 +12199,39 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>561908</v>
+        <v>561992</v>
       </c>
       <c r="R107" t="n">
-        <v>7307295</v>
+        <v>7307388</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12268,7 +12263,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12278,7 +12273,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12305,10 +12300,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112045898</v>
+        <v>112045900</v>
       </c>
       <c r="B108" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12321,39 +12316,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>561992</v>
+        <v>562022</v>
       </c>
       <c r="R108" t="n">
-        <v>7307388</v>
+        <v>7307414</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -12385,7 +12375,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12395,7 +12385,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12422,10 +12412,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112045897</v>
+        <v>112045901</v>
       </c>
       <c r="B109" t="n">
-        <v>73834</v>
+        <v>89567</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12438,21 +12428,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6440</v>
+        <v>1204</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12462,10 +12452,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>561955</v>
+        <v>562030</v>
       </c>
       <c r="R109" t="n">
-        <v>7307352</v>
+        <v>7307433</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -12497,7 +12487,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -12507,7 +12497,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12534,10 +12524,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112045878</v>
+        <v>112045903</v>
       </c>
       <c r="B110" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12550,34 +12540,39 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P110" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>561966</v>
+        <v>562027</v>
       </c>
       <c r="R110" t="n">
-        <v>7307274</v>
+        <v>7307460</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -12609,7 +12604,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -12619,7 +12614,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12646,10 +12641,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112045876</v>
+        <v>112045884</v>
       </c>
       <c r="B111" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12662,34 +12657,39 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr">
         <is>
           <t>Djupfors, Ly lm</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>561966</v>
+        <v>561944</v>
       </c>
       <c r="R111" t="n">
-        <v>7307274</v>
+        <v>7307233</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -12758,10 +12758,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112045900</v>
+        <v>112045882</v>
       </c>
       <c r="B112" t="n">
-        <v>77650</v>
+        <v>89834</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12774,21 +12774,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12798,10 +12798,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>562022</v>
+        <v>561971</v>
       </c>
       <c r="R112" t="n">
-        <v>7307414</v>
+        <v>7307277</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD112" t="b">
